--- a/torqueConstant.xlsx
+++ b/torqueConstant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
   <si>
     <t>theta2</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -67,11 +67,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -93,6 +113,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,14 +146,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
@@ -122,7 +162,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.10105280742751355</v>
+        <v>-0.033665105807585173</v>
       </c>
     </row>
     <row r="3">
@@ -130,7 +170,7 @@
         <v>0.017453292519943295</v>
       </c>
       <c r="B3">
-        <v>-0.250953619059199</v>
+        <v>-0.083602510576577027</v>
       </c>
     </row>
     <row r="4">
@@ -138,7 +178,7 @@
         <v>0.034906585039886591</v>
       </c>
       <c r="B4">
-        <v>-0.40476282910198852</v>
+        <v>-0.13483994192899629</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +186,7 @@
         <v>0.052359877559829883</v>
       </c>
       <c r="B5">
-        <v>-0.56256594107153324</v>
+        <v>-0.18740501739200133</v>
       </c>
     </row>
     <row r="6">
@@ -154,7 +194,7 @@
         <v>0.069813170079773182</v>
       </c>
       <c r="B6">
-        <v>-0.72444780789574992</v>
+        <v>-0.241325067691294</v>
       </c>
     </row>
     <row r="7">
@@ -162,7 +202,7 @@
         <v>0.087266462599716474</v>
       </c>
       <c r="B7">
-        <v>-0.89049238496580341</v>
+        <v>-0.29662705083955054</v>
       </c>
     </row>
     <row r="8">
@@ -170,7 +210,7 @@
         <v>0.10471975511965977</v>
       </c>
       <c r="B8">
-        <v>-1.0607824625650264</v>
+        <v>-0.35333745934538979</v>
       </c>
     </row>
     <row r="9">
@@ -178,7 +218,7 @@
         <v>0.12217304763960307</v>
       </c>
       <c r="B9">
-        <v>-1.2353993766222375</v>
+        <v>-0.41148222022562519</v>
       </c>
     </row>
     <row r="10">
@@ -186,7 +226,7 @@
         <v>0.13962634015954636</v>
       </c>
       <c r="B10">
-        <v>-1.4144226967331814</v>
+        <v>-0.47108658750888166</v>
       </c>
     </row>
     <row r="11">
@@ -194,7 +234,7 @@
         <v>0.15707963267948966</v>
       </c>
       <c r="B11">
-        <v>-1.5979298903993175</v>
+        <v>-0.53217502692745222</v>
       </c>
     </row>
     <row r="12">
@@ -202,7 +242,7 @@
         <v>0.17453292519943295</v>
       </c>
       <c r="B12">
-        <v>-1.7859959624470685</v>
+        <v>-0.59477109250660354</v>
       </c>
     </row>
     <row r="13">
@@ -210,7 +250,7 @@
         <v>0.19198621771937624</v>
       </c>
       <c r="B13">
-        <v>-1.9786930686148776</v>
+        <v>-0.65889729477709469</v>
       </c>
     </row>
     <row r="14">
@@ -218,7 +258,7 @@
         <v>0.20943951023931953</v>
       </c>
       <c r="B14">
-        <v>-2.176090102330634</v>
+        <v>-0.72457496035764857</v>
       </c>
     </row>
     <row r="15">
@@ -226,7 +266,7 @@
         <v>0.22689280275926285</v>
       </c>
       <c r="B15">
-        <v>-2.3782522537501798</v>
+        <v>-0.79182408268018056</v>
       </c>
     </row>
     <row r="16">
@@ -234,7 +274,7 @@
         <v>0.24434609527920614</v>
       </c>
       <c r="B16">
-        <v>-2.5852405401896856</v>
+        <v>-0.86066316366200635</v>
       </c>
     </row>
     <row r="17">
@@ -242,7 +282,7 @@
         <v>0.26179938779914941</v>
       </c>
       <c r="B17">
-        <v>-2.7971113071624911</v>
+        <v>-0.93110904616657952</v>
       </c>
     </row>
     <row r="18">
@@ -250,7 +290,7 @@
         <v>0.27925268031909273</v>
       </c>
       <c r="B18">
-        <v>-3.0139156993258545</v>
+        <v>-1.0031767371378664</v>
       </c>
     </row>
     <row r="19">
@@ -258,7 +298,7 @@
         <v>0.29670597283903605</v>
       </c>
       <c r="B19">
-        <v>-3.2356991007566478</v>
+        <v>-1.0768792213436875</v>
       </c>
     </row>
     <row r="20">
@@ -266,7 +306,7 @@
         <v>0.31415926535897931</v>
       </c>
       <c r="B20">
-        <v>-3.4625005441089991</v>
+        <v>-1.1522272657205606</v>
       </c>
     </row>
     <row r="21">
@@ -274,7 +314,7 @@
         <v>0.33161255787892258</v>
       </c>
       <c r="B21">
-        <v>-3.6943520883626486</v>
+        <v>-1.2292292143770127</v>
       </c>
     </row>
     <row r="22">
@@ -282,7 +322,7 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="B22">
-        <v>-3.9312781650498008</v>
+        <v>-1.3078907743841146</v>
       </c>
     </row>
     <row r="23">
@@ -290,7 +330,7 @@
         <v>0.36651914291880922</v>
       </c>
       <c r="B23">
-        <v>-4.1732948930523737</v>
+        <v>-1.3882147925613342</v>
       </c>
     </row>
     <row r="24">
@@ -298,7 +338,7 @@
         <v>0.38397243543875248</v>
       </c>
       <c r="B24">
-        <v>-4.4204093622914833</v>
+        <v>-1.4702010235524976</v>
       </c>
     </row>
     <row r="25">
@@ -306,7 +346,7 @@
         <v>0.40142572795869574</v>
       </c>
       <c r="B25">
-        <v>-4.6726188868884408</v>
+        <v>-1.5538458895805465</v>
       </c>
     </row>
     <row r="26">
@@ -314,7 +354,7 @@
         <v>0.41887902047863906</v>
       </c>
       <c r="B26">
-        <v>-4.9299102286620133</v>
+        <v>-1.6391422323705245</v>
       </c>
     </row>
     <row r="27">
@@ -322,7 +362,7 @@
         <v>0.43633231299858238</v>
       </c>
       <c r="B27">
-        <v>-5.1922587921413514</v>
+        <v>-1.7260790578372396</v>
       </c>
     </row>
     <row r="28">
@@ -330,7 +370,7 @@
         <v>0.4537856055185257</v>
       </c>
       <c r="B28">
-        <v>-5.4596277926177281</v>
+        <v>-1.8146412742465747</v>
       </c>
     </row>
     <row r="29">
@@ -338,7 +378,7 @@
         <v>0.47123889803846897</v>
       </c>
       <c r="B29">
-        <v>-5.7319673991314826</v>
+        <v>-1.9048094246764855</v>
       </c>
     </row>
     <row r="30">
@@ -346,7 +386,7 @@
         <v>0.48869219055841229</v>
       </c>
       <c r="B30">
-        <v>-6.0092138546928044</v>
+        <v>-1.9965594147242127</v>
       </c>
     </row>
     <row r="31">
@@ -354,7 +394,7 @@
         <v>0.50614548307835561</v>
       </c>
       <c r="B31">
-        <v>-6.2912885764655755</v>
+        <v>-2.0898622365287758</v>
       </c>
     </row>
     <row r="32">
@@ -362,7 +402,7 @@
         <v>0.52359877559829882</v>
       </c>
       <c r="B32">
-        <v>-6.5780972391009254</v>
+        <v>-2.1846836903008575</v>
       </c>
     </row>
     <row r="33">
@@ -370,7 +410,7 @@
         <v>0.54105206811824214</v>
       </c>
       <c r="B33">
-        <v>-6.8695288448900822</v>
+        <v>-2.2809841046741504</v>
       </c>
     </row>
     <row r="34">
@@ -378,7 +418,7 @@
         <v>0.55850536063818546</v>
       </c>
       <c r="B34">
-        <v>-7.1654547849119758</v>
+        <v>-2.3787180573113931</v>
       </c>
     </row>
     <row r="35">
@@ -386,7 +426,7 @@
         <v>0.57595865315812877</v>
       </c>
       <c r="B35">
-        <v>-7.4657278958773956</v>
+        <v>-2.477834097312952</v>
       </c>
     </row>
     <row r="36">
@@ -394,7 +434,7 @@
         <v>0.59341194567807209</v>
       </c>
       <c r="B36">
-        <v>-7.7701815179150344</v>
+        <v>-2.5782744710843515</v>
       </c>
     </row>
     <row r="37">
@@ -402,7 +442,7 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="B37">
-        <v>-8.0786285591020057</v>
+        <v>-2.6799748534201946</v>
       </c>
     </row>
     <row r="38">
@@ -410,7 +450,7 @@
         <v>0.62831853071795862</v>
       </c>
       <c r="B38">
-        <v>-8.3908605731084549</v>
+        <v>-2.7828640856544884</v>
       </c>
     </row>
     <row r="39">
@@ -418,7 +458,7 @@
         <v>0.64577182323790194</v>
       </c>
       <c r="B39">
-        <v>-8.7066468568982991</v>
+        <v>-2.886863922810702</v>
       </c>
     </row>
     <row r="40">
@@ -426,7 +466,7 @@
         <v>0.66322511575784515</v>
       </c>
       <c r="B40">
-        <v>-9.0257335760021853</v>
+        <v>-2.9918887917593358</v>
       </c>
     </row>
     <row r="41">
@@ -434,7 +474,7 @@
         <v>0.68067840827778847</v>
       </c>
       <c r="B41">
-        <v>-9.347842925448985</v>
+        <v>-3.0978455624565986</v>
       </c>
     </row>
     <row r="42">
@@ -442,7 +482,7 @@
         <v>0.69813170079773179</v>
       </c>
       <c r="B42">
-        <v>-9.6726723350050818</v>
+        <v>-3.2046333343969735</v>
       </c>
     </row>
     <row r="43">
@@ -450,7 +490,7 @@
         <v>0.715584993317675</v>
       </c>
       <c r="B43">
-        <v>-9.9998937279211813</v>
+        <v>-3.3121432404671016</v>
       </c>
     </row>
     <row r="44">
@@ -458,7 +498,7 @@
         <v>0.73303828583761843</v>
       </c>
       <c r="B44">
-        <v>-10.329152842920145</v>
+        <v>-3.4202582704417979</v>
       </c>
     </row>
     <row r="45">
@@ -466,7 +506,7 @@
         <v>0.75049157835756164</v>
       </c>
       <c r="B45">
-        <v>-10.660068629672065</v>
+        <v>-3.5288531164192358</v>
       </c>
     </row>
     <row r="46">
@@ -474,7 +514,7 @@
         <v>0.76794487087750496</v>
       </c>
       <c r="B46">
-        <v>-10.992232728489874</v>
+        <v>-3.6377940425558486</v>
       </c>
     </row>
     <row r="47">
@@ -482,7 +522,7 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="B47">
-        <v>-11.325209045434981</v>
+        <v>-3.7469387815371586</v>
       </c>
     </row>
     <row r="48">
@@ -490,7 +530,7 @@
         <v>0.80285145591739149</v>
       </c>
       <c r="B48">
-        <v>-11.658533434442615</v>
+        <v>-3.8561364603134778</v>
       </c>
     </row>
     <row r="49">
@@ -498,7 +538,7 @@
         <v>0.82030474843733492</v>
       </c>
       <c r="B49">
-        <v>-11.991713498453823</v>
+        <v>-3.9652275577432925</v>
       </c>
     </row>
     <row r="50">
@@ -506,7 +546,7 @@
         <v>0.83775804095727813</v>
       </c>
       <c r="B50">
-        <v>-12.324228521867161</v>
+        <v>-4.0740438969253825</v>
       </c>
     </row>
     <row r="51">
@@ -514,7 +554,7 @@
         <v>0.85521133347722145</v>
       </c>
       <c r="B51">
-        <v>-12.655529546888184</v>
+        <v>-4.1824086751646279</v>
       </c>
     </row>
     <row r="52">
@@ -522,7 +562,7 @@
         <v>0.87266462599716477</v>
       </c>
       <c r="B52">
-        <v>-12.985039606545238</v>
+        <v>-4.2901365347050033</v>
       </c>
     </row>
     <row r="53">
@@ -530,7 +570,7 @@
         <v>0.89011791851710798</v>
       </c>
       <c r="B53">
-        <v>-13.312154127240468</v>
+        <v>-4.3970336775725247</v>
       </c>
     </row>
     <row r="54">
@@ -538,7 +578,7 @@
         <v>0.90757121103705141</v>
       </c>
       <c r="B54">
-        <v>-13.636241513694708</v>
+        <v>-4.5028980280932709</v>
       </c>
     </row>
     <row r="55">
@@ -546,7 +586,7 @@
         <v>0.92502450355699462</v>
       </c>
       <c r="B55">
-        <v>-13.956643929001594</v>
+        <v>-4.6075194468762355</v>
       </c>
     </row>
     <row r="56">
@@ -554,7 +594,7 @@
         <v>0.94247779607693793</v>
       </c>
       <c r="B56">
-        <v>-14.272678282200738</v>
+        <v>-4.7106800002618581</v>
       </c>
     </row>
     <row r="57">
@@ -562,7 +602,7 @@
         <v>0.95993108859688125</v>
       </c>
       <c r="B57">
-        <v>-14.583637435282814</v>
+        <v>-4.8121542894165819</v>
       </c>
     </row>
     <row r="58">
@@ -570,7 +610,7 @@
         <v>0.97738438111682457</v>
       </c>
       <c r="B58">
-        <v>-14.888791640816539</v>
+        <v>-4.9117098433792075</v>
       </c>
     </row>
     <row r="59">
@@ -578,7 +618,7 @@
         <v>0.99483767363676778</v>
       </c>
       <c r="B59">
-        <v>-15.187390220403266</v>
+        <v>-5.0091075804116105</v>
       </c>
     </row>
     <row r="60">
@@ -586,7 +626,7 @@
         <v>1.0122909661567112</v>
       </c>
       <c r="B60">
-        <v>-15.478663492885918</v>
+        <v>-5.1041023419494715</v>
       </c>
     </row>
     <row r="61">
@@ -594,7 +634,7 @@
         <v>1.0297442586766543</v>
       </c>
       <c r="B61">
-        <v>-15.761824959630719</v>
+        <v>-5.196443503261591</v>
       </c>
     </row>
     <row r="62">
@@ -602,7 +642,7 @@
         <v>1.0471975511965976</v>
       </c>
       <c r="B62">
-        <v>-16.036073752237034</v>
+        <v>-5.2858756645860518</v>
       </c>
     </row>
     <row r="63">
@@ -610,7 +650,7 @@
         <v>1.064650843716541</v>
       </c>
       <c r="B63">
-        <v>-16.300597345689379</v>
+        <v>-5.3721394259964725</v>
       </c>
     </row>
     <row r="64">
@@ -618,7 +658,7 @@
         <v>1.0821041362364843</v>
       </c>
       <c r="B64">
-        <v>-16.554574537238729</v>
+        <v>-5.4549722485471879</v>
       </c>
     </row>
     <row r="65">
@@ -626,7 +666,7 @@
         <v>1.0995574287564276</v>
       </c>
       <c r="B65">
-        <v>-16.797178688185635</v>
+        <v>-5.5341094033420921</v>
       </c>
     </row>
     <row r="66">
@@ -634,7 +674,7 @@
         <v>1.1170107212763709</v>
       </c>
       <c r="B66">
-        <v>-17.027581222253968</v>
+        <v>-5.6092850090674533</v>
       </c>
     </row>
     <row r="67">
@@ -642,7 +682,7 @@
         <v>1.1344640137963142</v>
       </c>
       <c r="B67">
-        <v>-17.244955370421106</v>
+        <v>-5.6802331572306501</v>
       </c>
     </row>
     <row r="68">
@@ -650,7 +690,7 @@
         <v>1.1519173063162575</v>
       </c>
       <c r="B68">
-        <v>-17.448480147956992</v>
+        <v>-5.746689122870734</v>
       </c>
     </row>
     <row r="69">
@@ -658,7 +698,7 @@
         <v>1.1693705988362006</v>
       </c>
       <c r="B69">
-        <v>-17.637344545083987</v>
+        <v>-5.8083906568776058</v>
       </c>
     </row>
     <row r="70">
@@ -666,7 +706,7 @@
         <v>1.1868238913561442</v>
       </c>
       <c r="B70">
-        <v>-17.810751908183395</v>
+        <v>-5.8650793543082127</v>
       </c>
     </row>
     <row r="71">
@@ -674,7 +714,7 @@
         <v>1.2042771838760873</v>
       </c>
       <c r="B71">
-        <v>-17.967924483934194</v>
+        <v>-5.91650209126069</v>
       </c>
     </row>
     <row r="72">
@@ -682,7 +722,7 @@
         <v>1.2217304763960306</v>
       </c>
       <c r="B72">
-        <v>-18.108108094281963</v>
+        <v>-5.9624125210084911</v>
       </c>
     </row>
     <row r="73">
@@ -690,7 +730,7 @@
         <v>1.2391837689159739</v>
       </c>
       <c r="B73">
-        <v>-18.230576905811162</v>
+        <v>-6.0025726182567354</v>
       </c>
     </row>
     <row r="74">
@@ -698,7 +738,7 @@
         <v>1.2566370614359172</v>
       </c>
       <c r="B74">
-        <v>-18.33463825305067</v>
+        <v>-6.0367542586168428</v>
       </c>
     </row>
     <row r="75">
@@ -706,7 +746,7 @@
         <v>1.2740903539558606</v>
       </c>
       <c r="B75">
-        <v>-18.419637471595536</v>
+        <v>-6.0647408187563849</v>
       </c>
     </row>
     <row r="76">
@@ -714,7 +754,7 @@
         <v>1.2915436464758039</v>
       </c>
       <c r="B76">
-        <v>-18.484962693791907</v>
+        <v>-6.0863287812221412</v>
       </c>
     </row>
     <row r="77">
@@ -722,7 +762,7 @@
         <v>1.3089969389957472</v>
       </c>
       <c r="B77">
-        <v>-18.530049557210567</v>
+        <v>-6.1013293267037616</v>
       </c>
     </row>
     <row r="78">
@@ -730,7 +770,7 @@
         <v>1.3264502315156903</v>
       </c>
       <c r="B78">
-        <v>-18.554385774323006</v>
+        <v>-6.1095698955472431</v>
       </c>
     </row>
     <row r="79">
@@ -738,7 +778,7 @@
         <v>1.3439035240356338</v>
       </c>
       <c r="B79">
-        <v>-18.557515510769282</v>
+        <v>-6.1108956996770498</v>
       </c>
     </row>
     <row r="80">
@@ -746,7 +786,7 @@
         <v>1.3613568165555769</v>
       </c>
       <c r="B80">
-        <v>-18.539043519434863</v>
+        <v>-6.1051711657727186</v>
       </c>
     </row>
     <row r="81">
@@ -754,7 +794,7 @@
         <v>1.3788101090755203</v>
       </c>
       <c r="B81">
-        <v>-18.498638978272087</v>
+        <v>-6.0922812905874837</v>
       </c>
     </row>
     <row r="82">
@@ -762,7 +802,7 @@
         <v>1.3962634015954636</v>
       </c>
       <c r="B82">
-        <v>-18.436038981438855</v>
+        <v>-6.0721328897044353</v>
       </c>
     </row>
     <row r="83">
@@ -770,7 +810,7 @@
         <v>1.4137166941154069</v>
       </c>
       <c r="B83">
-        <v>-18.351051635878274</v>
+        <v>-6.0446557217981551</v>
       </c>
     </row>
     <row r="84">
@@ -778,7 +818,7 @@
         <v>1.43116998663535</v>
       </c>
       <c r="B84">
-        <v>-18.243558718911075</v>
+        <v>-6.0098034715983504</v>
       </c>
     </row>
     <row r="85">
@@ -786,7 +826,7 @@
         <v>1.4486232791552935</v>
       </c>
       <c r="B85">
-        <v>-18.113517856714282</v>
+        <v>-5.9675545762175499</v>
       </c>
     </row>
     <row r="86">
@@ -794,7 +834,7 @@
         <v>1.4660765716752369</v>
       </c>
       <c r="B86">
-        <v>-17.960964188651534</v>
+        <v>-5.9179128812807127</v>
       </c>
     </row>
     <row r="87">
@@ -802,7 +842,7 @@
         <v>1.4835298641951802</v>
       </c>
       <c r="B87">
-        <v>-17.786011488223185</v>
+        <v>-5.8609081153466125</v>
       </c>
     </row>
     <row r="88">
@@ -810,7 +850,7 @@
         <v>1.5009831567151233</v>
       </c>
       <c r="B88">
-        <v>-17.588852717817254</v>
+        <v>-5.7965961733984717</v>
       </c>
     </row>
     <row r="89">
@@ -818,7 +858,7 @@
         <v>1.5184364492350666</v>
       </c>
       <c r="B89">
-        <v>-17.369760001352205</v>
+        <v>-5.7250592026585974</v>
       </c>
     </row>
     <row r="90">
@@ -826,7 +866,7 @@
         <v>1.5358897417550099</v>
       </c>
       <c r="B90">
-        <v>-17.129084006184495</v>
+        <v>-5.6464054865998756</v>
       </c>
     </row>
     <row r="91">
@@ -834,7 +874,7 @@
         <v>1.5533430342749535</v>
       </c>
       <c r="B91">
-        <v>-16.867252733170751</v>
+        <v>-5.5607691257328034</v>
       </c>
     </row>
     <row r="92">
@@ -842,7 +882,7 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="B92">
-        <v>-16.584769721385641</v>
+        <v>-5.468309516487329</v>
       </c>
     </row>
     <row r="93">
@@ -850,7 +890,7 @@
         <v>1.5882496193148399</v>
       </c>
       <c r="B93">
-        <v>-16.282211681557389</v>
+        <v>-5.3692106322301925</v>
       </c>
     </row>
     <row r="94">
@@ -858,7 +898,7 @@
         <v>1.605702911834783</v>
       </c>
       <c r="B94">
-        <v>-15.960225579649448</v>
+        <v>-5.263680113108073</v>
       </c>
     </row>
     <row r="95">
@@ -866,7 +906,7 @@
         <v>1.6231562043547263</v>
       </c>
       <c r="B95">
-        <v>-15.619525199049487</v>
+        <v>-5.1519481739345308</v>
       </c>
     </row>
     <row r="96">
@@ -874,7 +914,7 @@
         <v>1.6406094968746698</v>
       </c>
       <c r="B96">
-        <v>-15.260887216394474</v>
+        <v>-5.0342663416976938</v>
       </c>
     </row>
     <row r="97">
@@ -882,7 +922,7 @@
         <v>1.6580627893946132</v>
       </c>
       <c r="B97">
-        <v>-14.885146832039995</v>
+        <v>-4.9109060364128565</v>
       </c>
     </row>
     <row r="98">
@@ -890,7 +930,7 @@
         <v>1.6755160819145563</v>
       </c>
       <c r="B98">
-        <v>-14.493193001469914</v>
+        <v>-4.7821570109437594</v>
       </c>
     </row>
     <row r="99">
@@ -898,7 +938,7 @@
         <v>1.6929693744344996</v>
       </c>
       <c r="B99">
-        <v>-14.085963318443687</v>
+        <v>-4.6483256670357989</v>
       </c>
     </row>
     <row r="100">
@@ -906,7 +946,7 @@
         <v>1.7104226669544429</v>
       </c>
       <c r="B100">
-        <v>-13.664438604325062</v>
+        <v>-4.5097332661206604</v>
       </c>
     </row>
     <row r="101">
@@ -914,7 +954,7 @@
         <v>1.7278759594743864</v>
       </c>
       <c r="B101">
-        <v>-13.229637260773165</v>
+        <v>-4.3667140544470238</v>
       </c>
     </row>
     <row r="102">
@@ -922,7 +962,7 @@
         <v>1.7453292519943295</v>
       </c>
       <c r="B102">
-        <v>-12.78260944477544</v>
+        <v>-4.2196133227564818</v>
       </c>
     </row>
     <row r="103">
@@ -930,7 +970,7 @@
         <v>1.7627825445142729</v>
       </c>
       <c r="B103">
-        <v>-12.3244311258509</v>
+        <v>-4.068785421054903</v>
       </c>
     </row>
     <row r="104">
@@ -938,7 +978,7 @@
         <v>1.780235837034216</v>
       </c>
       <c r="B104">
-        <v>-11.856198085164827</v>
+        <v>-3.9145917490323532</v>
       </c>
     </row>
     <row r="105">
@@ -946,7 +986,7 @@
         <v>1.7976891295541593</v>
       </c>
       <c r="B105">
-        <v>-11.37901991530185</v>
+        <v>-3.7573987423704138</v>
       </c>
     </row>
     <row r="106">
@@ -954,7 +994,7 @@
         <v>1.8151424220741028</v>
       </c>
       <c r="B106">
-        <v>-10.894014077595481</v>
+        <v>-3.5975758745628426</v>
       </c>
     </row>
     <row r="107">
@@ -962,7 +1002,7 @@
         <v>1.8325957145940461</v>
       </c>
       <c r="B107">
-        <v>-10.40230007127373</v>
+        <v>-3.4354936929870901</v>
       </c>
     </row>
     <row r="108">
@@ -970,7 +1010,7 @@
         <v>1.8500490071139892</v>
       </c>
       <c r="B108">
-        <v>-9.904993765334428</v>
+        <v>-3.2715219068290176</v>
       </c>
     </row>
     <row r="109">
@@ -978,7 +1018,7 @@
         <v>1.8675022996339325</v>
       </c>
       <c r="B109">
-        <v>-9.4032019401021003</v>
+        <v>-3.106027543113258</v>
       </c>
     </row>
     <row r="110">
@@ -986,7 +1026,7 @@
         <v>1.8849555921538759</v>
       </c>
       <c r="B110">
-        <v>-8.8980170809420311</v>
+        <v>-2.9393731855624536</v>
       </c>
     </row>
     <row r="111">
@@ -994,7 +1034,7 @@
         <v>1.902408884673819</v>
       </c>
       <c r="B111">
-        <v>-8.3905124617226008</v>
+        <v>-2.7719153093368276</v>
       </c>
     </row>
     <row r="112">
@@ -1002,7 +1042,7 @@
         <v>1.9198621771937625</v>
       </c>
       <c r="B112">
-        <v>-7.8817375504336749</v>
+        <v>-2.6040027229294385</v>
       </c>
     </row>
     <row r="113">
@@ -1010,7 +1050,7 @@
         <v>1.9373154697137058</v>
       </c>
       <c r="B113">
-        <v>-7.3727137639952858</v>
+        <v>-2.4359751266494363</v>
       </c>
     </row>
     <row r="114">
@@ -1018,7 +1058,7 @@
         <v>1.9547687622336491</v>
       </c>
       <c r="B114">
-        <v>-6.8644305938330685</v>
+        <v>-2.2681617952526998</v>
       </c>
     </row>
     <row r="115">
@@ -1026,7 +1066,7 @@
         <v>1.9722220547535922</v>
       </c>
       <c r="B115">
-        <v>-6.3578421183551947</v>
+        <v>-2.1008803904108175</v>
       </c>
     </row>
     <row r="116">
@@ -1034,7 +1074,7 @@
         <v>1.9896753472735356</v>
       </c>
       <c r="B116">
-        <v>-5.8538639131331509</v>
+        <v>-1.9344359068780712</v>
       </c>
     </row>
     <row r="117">
@@ -1042,7 +1082,7 @@
         <v>2.0071286397934789</v>
       </c>
       <c r="B117">
-        <v>-5.3533703644501998</v>
+        <v>-1.7691197544508739</v>
       </c>
     </row>
     <row r="118">
@@ -1050,7 +1090,7 @@
         <v>2.0245819323134224</v>
       </c>
       <c r="B118">
-        <v>-4.8571923870084204</v>
+        <v>-1.6052089761400021</v>
       </c>
     </row>
     <row r="119">
@@ -1058,7 +1098,7 @@
         <v>2.0420352248333655</v>
       </c>
       <c r="B119">
-        <v>-4.3661155420432678</v>
+        <v>-1.4429656014153922</v>
       </c>
     </row>
     <row r="120">
@@ -1066,7 +1106,7 @@
         <v>2.0594885173533086</v>
       </c>
       <c r="B120">
-        <v>-3.8808785479309824</v>
+        <v>-1.2826361319526984</v>
       </c>
     </row>
     <row r="121">
@@ -1074,7 +1114,7 @@
         <v>2.0769418098732522</v>
       </c>
       <c r="B121">
-        <v>-3.4021721716301605</v>
+        <v>-1.1244511560243726</v>
       </c>
     </row>
     <row r="122">
@@ -1082,7 +1122,7 @@
         <v>2.0943951023931953</v>
       </c>
       <c r="B122">
-        <v>-2.9306384859998125</v>
+        <v>-0.96862508654451385</v>
       </c>
     </row>
     <row r="123">
@@ -1090,7 +1130,7 @@
         <v>2.1118483949131388</v>
       </c>
       <c r="B123">
-        <v>-2.4668704751982542</v>
+        <v>-0.81535601680162451</v>
       </c>
     </row>
     <row r="124">
@@ -1098,7 +1138,7 @@
         <v>2.1293016874330819</v>
       </c>
       <c r="B124">
-        <v>-2.011411967997252</v>
+        <v>-0.66482568709901468</v>
       </c>
     </row>
     <row r="125">
@@ -1106,7 +1146,7 @@
         <v>2.1467549799530254</v>
       </c>
       <c r="B125">
-        <v>-1.5647578769369468</v>
+        <v>-0.51719955486650537</v>
       </c>
     </row>
     <row r="126">
@@ -1114,7 +1154,7 @@
         <v>2.1642082724729685</v>
       </c>
       <c r="B126">
-        <v>-1.1273547197897384</v>
+        <v>-0.37262696030592379</v>
       </c>
     </row>
     <row r="127">
@@ -1122,7 +1162,7 @@
         <v>2.1816615649929116</v>
       </c>
       <c r="B127">
-        <v>-0.69960139877352967</v>
+        <v>-0.23124137927902128</v>
       </c>
     </row>
     <row r="128">
@@ -1130,7 +1170,7 @@
         <v>2.1991148575128552</v>
       </c>
       <c r="B128">
-        <v>-0.28185021233249841</v>
+        <v>-0.093160754931549392</v>
       </c>
     </row>
     <row r="129">
@@ -1138,7 +1178,7 @@
         <v>2.2165681500327987</v>
       </c>
       <c r="B129">
-        <v>0.12559192594493021</v>
+        <v>0.041512100539707497</v>
       </c>
     </row>
     <row r="130">
@@ -1146,7 +1186,7 @@
         <v>2.2340214425527418</v>
       </c>
       <c r="B130">
-        <v>0.52246208660883453</v>
+        <v>0.17268904254048018</v>
       </c>
     </row>
     <row r="131">
@@ -1154,7 +1194,7 @@
         <v>2.2514747350726849</v>
       </c>
       <c r="B131">
-        <v>0.90853976677294057</v>
+        <v>0.30029607758319848</v>
       </c>
     </row>
     <row r="132">
@@ -1162,7 +1202,7 @@
         <v>2.2689280275926285</v>
       </c>
       <c r="B132">
-        <v>1.2836451999613299</v>
+        <v>0.42427280184752181</v>
       </c>
     </row>
     <row r="133">
@@ -1170,7 +1210,7 @@
         <v>2.286381320112572</v>
       </c>
       <c r="B133">
-        <v>1.6476375567651174</v>
+        <v>0.54457180270079408</v>
       </c>
     </row>
     <row r="134">
@@ -1178,7 +1218,7 @@
         <v>2.3038346126325151</v>
       </c>
       <c r="B134">
-        <v>2.0004130586159774</v>
+        <v>0.66115803071497248</v>
       </c>
     </row>
     <row r="135">
@@ -1186,7 +1226,7 @@
         <v>2.3212879051524582</v>
       </c>
       <c r="B135">
-        <v>2.3419030257485347</v>
+        <v>0.77400814929748052</v>
       </c>
     </row>
     <row r="136">
@@ -1194,7 +1234,7 @@
         <v>2.3387411976724013</v>
       </c>
       <c r="B136">
-        <v>2.6720718790685209</v>
+        <v>0.88310986859363028</v>
       </c>
     </row>
     <row r="137">
@@ -1202,7 +1242,7 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="B137">
-        <v>2.9909151142029038</v>
+        <v>0.98846126982957072</v>
       </c>
     </row>
     <row r="138">
@@ -1210,7 +1250,7 @@
         <v>2.3736477827122884</v>
       </c>
       <c r="B138">
-        <v>3.29845726450981</v>
+        <v>1.090070125756722</v>
       </c>
     </row>
     <row r="139">
@@ -1218,7 +1258,7 @@
         <v>2.3911010752322315</v>
       </c>
       <c r="B139">
-        <v>3.5947498682989898</v>
+        <v>1.1879532223411691</v>
       </c>
     </row>
     <row r="140">
@@ -1226,7 +1266,7 @@
         <v>2.4085543677521746</v>
       </c>
       <c r="B140">
-        <v>3.879869453980846</v>
+        <v>1.2821356863224309</v>
       </c>
     </row>
     <row r="141">
@@ -1234,7 +1274,7 @@
         <v>2.4260076602721181</v>
       </c>
       <c r="B141">
-        <v>4.1539155553448577</v>
+        <v>1.3726503227525195</v>
       </c>
     </row>
     <row r="142">
@@ -1242,7 +1282,7 @@
         <v>2.4434609527920612</v>
       </c>
       <c r="B142">
-        <v>4.4170087676862311</v>
+        <v>1.4595369661249424</v>
       </c>
     </row>
     <row r="143">
@@ -1250,7 +1290,7 @@
         <v>2.4609142453120043</v>
       </c>
       <c r="B143">
-        <v>4.6692888540664628</v>
+        <v>1.5428418482189183</v>
       </c>
     </row>
     <row r="144">
@@ -1258,7 +1298,7 @@
         <v>2.4783675378319479</v>
       </c>
       <c r="B144">
-        <v>4.9109129096220299</v>
+        <v>1.6226169853208272</v>
       </c>
     </row>
     <row r="145">
@@ -1266,7 +1306,7 @@
         <v>2.4958208303518914</v>
       </c>
       <c r="B145">
-        <v>5.142053590536924</v>
+        <v>1.6989195870466787</v>
       </c>
     </row>
     <row r="146">
@@ -1274,7 +1314,7 @@
         <v>2.5132741228718345</v>
       </c>
       <c r="B146">
-        <v>5.3628974130747578</v>
+        <v>1.7718114885779073</v>
       </c>
     </row>
     <row r="147">
@@ -1282,7 +1322,7 @@
         <v>2.5307274153917776</v>
       </c>
       <c r="B147">
-        <v>5.57364312693133</v>
+        <v>1.8413586077403556</v>
       </c>
     </row>
     <row r="148">
@@ -1290,7 +1330,7 @@
         <v>2.5481807079117211</v>
       </c>
       <c r="B148">
-        <v>5.7745001661220163</v>
+        <v>1.9076304280039034</v>
       </c>
     </row>
     <row r="149">
@@ -1298,7 +1338,7 @@
         <v>2.5656340004316647</v>
       </c>
       <c r="B149">
-        <v>5.9656871796606703</v>
+        <v>1.9706995081579477</v>
       </c>
     </row>
     <row r="150">
@@ -1306,7 +1346,7 @@
         <v>2.5830872929516078</v>
       </c>
       <c r="B150">
-        <v>6.1474306434198533</v>
+        <v>2.0306410191265147</v>
       </c>
     </row>
     <row r="151">
@@ -1314,7 +1354,7 @@
         <v>2.6005405854715509</v>
       </c>
       <c r="B151">
-        <v>6.3199635537829364</v>
+        <v>2.0875323081249824</v>
       </c>
     </row>
     <row r="152">
@@ -1322,7 +1362,7 @@
         <v>2.6179938779914944</v>
       </c>
       <c r="B152">
-        <v>6.4835242030059561</v>
+        <v>2.1414524901279619</v>
       </c>
     </row>
     <row r="153">
@@ -1330,7 +1370,7 @@
         <v>2.6354471705114375</v>
       </c>
       <c r="B153">
-        <v>6.6383550355977041</v>
+        <v>2.1924820664134939</v>
       </c>
     </row>
     <row r="154">
@@ -1338,7 +1378,7 @@
         <v>2.6529004630313806</v>
       </c>
       <c r="B154">
-        <v>6.7847015844958616</v>
+        <v>2.2407025697709941</v>
       </c>
     </row>
     <row r="155">
@@ -1346,7 +1386,7 @@
         <v>2.6703537555513241</v>
       </c>
       <c r="B155">
-        <v>6.9228114853615068</v>
+        <v>2.2861962358079446</v>
       </c>
     </row>
     <row r="156">
@@ -1354,7 +1394,7 @@
         <v>2.6878070480712677</v>
       </c>
       <c r="B156">
-        <v>7.052933566928842</v>
+        <v>2.3290456996614814</v>
       </c>
     </row>
     <row r="157">
@@ -1362,7 +1402,7 @@
         <v>2.7052603405912108</v>
       </c>
       <c r="B157">
-        <v>7.175317015026577</v>
+        <v>2.3693337173140967</v>
       </c>
     </row>
     <row r="158">
@@ -1370,7 +1410,7 @@
         <v>2.7227136331111539</v>
       </c>
       <c r="B158">
-        <v>7.2902106076266637</v>
+        <v>2.4071429106257671</v>
       </c>
     </row>
     <row r="159">
@@ -1378,7 +1418,7 @@
         <v>2.740166925631097</v>
       </c>
       <c r="B159">
-        <v>7.3978620180705423</v>
+        <v>2.4425555351264681</v>
       </c>
     </row>
     <row r="160">
@@ -1386,7 +1426,7 @@
         <v>2.7576202181510405</v>
       </c>
       <c r="B160">
-        <v>7.4985171834672366</v>
+        <v>2.4756532695613451</v>
       </c>
     </row>
     <row r="161">
@@ -1394,7 +1434,7 @@
         <v>2.7750735106709841</v>
       </c>
       <c r="B161">
-        <v>7.592419735145544</v>
+        <v>2.5065170261437872</v>
       </c>
     </row>
     <row r="162">
@@ -1402,7 +1442,7 @@
         <v>2.7925268031909272</v>
       </c>
       <c r="B162">
-        <v>7.6798104879716949</v>
+        <v>2.535226780448411</v>
       </c>
     </row>
     <row r="163">
@@ -1410,7 +1450,7 @@
         <v>2.8099800957108703</v>
       </c>
       <c r="B163">
-        <v>7.7609269853072584</v>
+        <v>2.5618614198641816</v>
       </c>
     </row>
     <row r="164">
@@ -1418,7 +1458,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="B164">
-        <v>7.8360030963765146</v>
+        <v>2.5864986095265081</v>
       </c>
     </row>
     <row r="165">
@@ -1426,7 +1466,7 @@
         <v>2.8448866807507569</v>
       </c>
       <c r="B165">
-        <v>7.9052686628339828</v>
+        <v>2.6092146746547336</v>
       </c>
     </row>
     <row r="166">
@@ -1434,7 +1474,7 @@
         <v>2.8623399732707</v>
       </c>
       <c r="B166">
-        <v>7.9689491913671064</v>
+        <v>2.63008449823668</v>
       </c>
     </row>
     <row r="167">
@@ -1442,7 +1482,7 @@
         <v>2.8797932657906435</v>
       </c>
       <c r="B167">
-        <v>8.0272655892326679</v>
+        <v>2.6491814330235233</v>
       </c>
     </row>
     <row r="168">
@@ -1450,7 +1490,7 @@
         <v>2.8972465583105871</v>
       </c>
       <c r="B168">
-        <v>8.0804339397055909</v>
+        <v>2.6665772268253893</v>
       </c>
     </row>
     <row r="169">
@@ -1458,7 +1498,7 @@
         <v>2.9146998508305306</v>
       </c>
       <c r="B169">
-        <v>8.1286653145120447</v>
+        <v>2.6823419601295324</v>
       </c>
     </row>
     <row r="170">
@@ -1466,7 +1506,7 @@
         <v>2.9321531433504737</v>
       </c>
       <c r="B170">
-        <v>8.1721656204225095</v>
+        <v>2.6965439950979202</v>
       </c>
     </row>
     <row r="171">
@@ -1474,7 +1514,7 @@
         <v>2.9496064358704168</v>
       </c>
       <c r="B171">
-        <v>8.211135477292558</v>
+        <v>2.7092499350387369</v>
       </c>
     </row>
     <row r="172">
@@ -1482,7 +1522,7 @@
         <v>2.9670597283903604</v>
       </c>
       <c r="B172">
-        <v>8.2457701249575841</v>
+        <v>2.7205245934861257</v>
       </c>
     </row>
     <row r="173">
@@ -1490,7 +1530,7 @@
         <v>2.9845130209103035</v>
       </c>
       <c r="B173">
-        <v>8.2762593565098204</v>
+        <v>2.730430972063465</v>
       </c>
     </row>
     <row r="174">
@@ -1498,7 +1538,7 @@
         <v>3.0019663134302466</v>
       </c>
       <c r="B174">
-        <v>8.3027874756113107</v>
+        <v>2.7390302463475011</v>
       </c>
     </row>
     <row r="175">
@@ -1506,7 +1546,7 @@
         <v>3.0194196059501901</v>
       </c>
       <c r="B175">
-        <v>8.3255332756226643</v>
+        <v>2.7463817589929178</v>
       </c>
     </row>
     <row r="176">
@@ -1514,7 +1554,7 @@
         <v>3.0368728984701332</v>
       </c>
       <c r="B176">
-        <v>8.3446700384534154</v>
+        <v>2.7525430194191385</v>
       </c>
     </row>
     <row r="177">
@@ -1522,7 +1562,7 @@
         <v>3.0543261909900763</v>
       </c>
       <c r="B177">
-        <v>8.3603655511652022</v>
+        <v>2.7575697094030849</v>
       </c>
     </row>
     <row r="178">
@@ -1530,7 +1570,7 @@
         <v>3.0717794835100198</v>
       </c>
       <c r="B178">
-        <v>8.3727821384815702</v>
+        <v>2.7615156939626386</v>
       </c>
     </row>
     <row r="179">
@@ -1538,7 +1578,7 @@
         <v>3.0892327760299634</v>
       </c>
       <c r="B179">
-        <v>8.3820767094787101</v>
+        <v>2.7644330369558392</v>
       </c>
     </row>
     <row r="180">
@@ -1546,7 +1586,7 @@
         <v>3.1066860685499069</v>
       </c>
       <c r="B180">
-        <v>8.3884008168483799</v>
+        <v>2.7663720208599125</v>
       </c>
     </row>
     <row r="181">
@@ -1554,7 +1594,7 @@
         <v>3.12413936106985</v>
       </c>
       <c r="B181">
-        <v>8.3919007272370951</v>
+        <v>2.7673811702319284</v>
       </c>
     </row>
     <row r="182">
@@ -1562,7 +1602,7 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="B182">
-        <v>8.3927175012747579</v>
+        <v>2.7675072783892984</v>
       </c>
     </row>
     <row r="183">
@@ -1570,7 +1610,7 @@
         <v>3.1590459461097362</v>
       </c>
       <c r="B183">
-        <v>8.390987082010021</v>
+        <v>2.7667954368830907</v>
       </c>
     </row>
     <row r="184">
@@ -1578,7 +1618,7 @@
         <v>3.1764992386296798</v>
       </c>
       <c r="B184">
-        <v>8.3868403905694553</v>
+        <v>2.7652890673704018</v>
       </c>
     </row>
     <row r="185">
@@ -1586,7 +1626,7 @@
         <v>3.1939525311496229</v>
       </c>
       <c r="B185">
-        <v>8.3804034279523787</v>
+        <v>2.7630299555236952</v>
       </c>
     </row>
     <row r="186">
@@ -1594,7 +1634,7 @@
         <v>3.211405823669566</v>
       </c>
       <c r="B186">
-        <v>8.3717973819629989</v>
+        <v>2.7600582866448948</v>
       </c>
     </row>
     <row r="187">
@@ -1602,7 +1642,7 @@
         <v>3.2288591161895095</v>
       </c>
       <c r="B187">
-        <v>8.3611387383666358</v>
+        <v>2.7564126826804469</v>
       </c>
     </row>
     <row r="188">
@@ -1610,7 +1650,7 @@
         <v>3.2463124087094526</v>
       </c>
       <c r="B188">
-        <v>8.3485393954369052</v>
+        <v>2.7521302403602399</v>
       </c>
     </row>
     <row r="189">
@@ -1618,7 +1658,7 @@
         <v>3.2637657012293966</v>
       </c>
       <c r="B189">
-        <v>8.3341067811359046</v>
+        <v>2.7472465702083251</v>
       </c>
     </row>
     <row r="190">
@@ -1626,7 +1666,7 @@
         <v>3.2812189937493397</v>
       </c>
       <c r="B190">
-        <v>8.3179439722403679</v>
+        <v>2.7417958361969901</v>
       </c>
     </row>
     <row r="191">
@@ -1634,7 +1674,7 @@
         <v>3.2986722862692828</v>
       </c>
       <c r="B191">
-        <v>8.3001498147921673</v>
+        <v>2.7358107958375637</v>
       </c>
     </row>
     <row r="192">
@@ -1642,7 +1682,7 @@
         <v>3.3161255787892263</v>
       </c>
       <c r="B192">
-        <v>8.2808190453139492</v>
+        <v>2.7293228405220433</v>
       </c>
     </row>
     <row r="193">
@@ -1650,7 +1690,7 @@
         <v>3.3335788713091694</v>
       </c>
       <c r="B193">
-        <v>8.2600424122873015</v>
+        <v>2.7223620359485641</v>
       </c>
     </row>
     <row r="194">
@@ -1658,7 +1698,7 @@
         <v>3.3510321638291125</v>
       </c>
       <c r="B194">
-        <v>8.2379067974442961</v>
+        <v>2.7149571624814404</v>
       </c>
     </row>
     <row r="195">
@@ -1666,7 +1706,7 @@
         <v>3.3684854563490561</v>
       </c>
       <c r="B195">
-        <v>8.2144953364726838</v>
+        <v>2.7071357553130255</v>
       </c>
     </row>
     <row r="196">
@@ -1674,7 +1714,7 @@
         <v>3.3859387488689991</v>
       </c>
       <c r="B196">
-        <v>8.1898875387803134</v>
+        <v>2.6989241443096539</v>
       </c>
     </row>
     <row r="197">
@@ -1682,7 +1722,7 @@
         <v>3.4033920413889422</v>
       </c>
       <c r="B197">
-        <v>8.1641594060065046</v>
+        <v>2.6903474934379927</v>
       </c>
     </row>
     <row r="198">
@@ -1690,7 +1730,7 @@
         <v>3.4208453339088858</v>
       </c>
       <c r="B198">
-        <v>8.1373835490067794</v>
+        <v>2.681429839680967</v>
       </c>
     </row>
     <row r="199">
@@ -1698,7 +1738,7 @@
         <v>3.4382986264288289</v>
       </c>
       <c r="B199">
-        <v>8.1096293030726763</v>
+        <v>2.6721941313641979</v>
       </c>
     </row>
     <row r="200">
@@ -1706,7 +1746,7 @@
         <v>3.4557519189487729</v>
       </c>
       <c r="B200">
-        <v>8.0809628411811332</v>
+        <v>2.6626622658247383</v>
       </c>
     </row>
     <row r="201">
@@ -1714,7 +1754,7 @@
         <v>3.473205211468716</v>
       </c>
       <c r="B201">
-        <v>8.0514472850973284</v>
+        <v>2.6528551263637254</v>
       </c>
     </row>
     <row r="202">
@@ -1722,7 +1762,7 @@
         <v>3.4906585039886591</v>
       </c>
       <c r="B202">
-        <v>8.0211428141824008</v>
+        <v>2.642792618433675</v>
       </c>
     </row>
     <row r="203">
@@ -1730,7 +1770,7 @@
         <v>3.5081117965086026</v>
       </c>
       <c r="B203">
-        <v>7.9901067717815453</v>
+        <v>2.6324937050191597</v>
       </c>
     </row>
     <row r="204">
@@ -1738,7 +1778,7 @@
         <v>3.5255650890285457</v>
       </c>
       <c r="B204">
-        <v>7.9583937690909226</v>
+        <v>2.6219764411772433</v>
       </c>
     </row>
     <row r="205">
@@ -1746,7 +1786,7 @@
         <v>3.5430183815484888</v>
       </c>
       <c r="B205">
-        <v>7.9260557864216779</v>
+        <v>2.6112580077106333</v>
       </c>
     </row>
     <row r="206">
@@ -1754,7 +1794,7 @@
         <v>3.5604716740684319</v>
       </c>
       <c r="B206">
-        <v>7.8931422717978048</v>
+        <v>2.6003547439526358</v>
       </c>
     </row>
     <row r="207">
@@ -1762,7 +1802,7 @@
         <v>3.5779249665883754</v>
       </c>
       <c r="B207">
-        <v>7.8597002368409754</v>
+        <v>2.5892821796484498</v>
       </c>
     </row>
     <row r="208">
@@ -1770,7 +1810,7 @@
         <v>3.5953782591083185</v>
       </c>
       <c r="B208">
-        <v>7.8257743499103762</v>
+        <v>2.5780550659222876</v>
       </c>
     </row>
     <row r="209">
@@ -1778,7 +1818,7 @@
         <v>3.6128315516282616</v>
       </c>
       <c r="B209">
-        <v>7.7914070264783541</v>
+        <v>2.5666874053240374</v>
       </c>
     </row>
     <row r="210">
@@ -1786,7 +1826,7 @@
         <v>3.6302848441482056</v>
       </c>
       <c r="B210">
-        <v>7.7566385167351424</v>
+        <v>2.5551924809533446</v>
       </c>
     </row>
     <row r="211">
@@ -1794,7 +1834,7 @@
         <v>3.6477381366681487</v>
       </c>
       <c r="B211">
-        <v>7.7215069904256115</v>
+        <v>2.5435828846621735</v>
       </c>
     </row>
     <row r="212">
@@ -1802,7 +1842,7 @@
         <v>3.6651914291880923</v>
       </c>
       <c r="B212">
-        <v>7.6860486189307737</v>
+        <v>2.5318705443401761</v>
       </c>
     </row>
     <row r="213">
@@ -1810,7 +1850,7 @@
         <v>3.6826447217080354</v>
       </c>
       <c r="B213">
-        <v>7.6502976546146799</v>
+        <v>2.5200667502898217</v>
       </c>
     </row>
     <row r="214">
@@ -1818,7 +1858,7 @@
         <v>3.7000980142279785</v>
       </c>
       <c r="B214">
-        <v>7.6142865074642465</v>
+        <v>2.5081821807004969</v>
       </c>
     </row>
     <row r="215">
@@ -1826,7 +1866,7 @@
         <v>3.717551306747922</v>
       </c>
       <c r="B215">
-        <v>7.5780458190561575</v>
+        <v>2.496226926233037</v>
       </c>
     </row>
     <row r="216">
@@ -1834,7 +1874,7 @@
         <v>3.7350045992678651</v>
       </c>
       <c r="B216">
-        <v>7.5416045338898599</v>
+        <v>2.4842105137277004</v>
       </c>
     </row>
     <row r="217">
@@ -1842,7 +1882,7 @@
         <v>3.7524578917878082</v>
       </c>
       <c r="B217">
-        <v>7.5049899681304684</v>
+        <v>2.4721419290502293</v>
       </c>
     </row>
     <row r="218">
@@ -1850,7 +1890,7 @@
         <v>3.7699111843077517</v>
       </c>
       <c r="B218">
-        <v>7.4682278758091227</v>
+        <v>2.4600296390918648</v>
       </c>
     </row>
     <row r="219">
@@ -1858,7 +1898,7 @@
         <v>3.7873644768276948</v>
       </c>
       <c r="B219">
-        <v>7.4313425125316703</v>
+        <v>2.4478816129402809</v>
       </c>
     </row>
     <row r="220">
@@ -1866,7 +1906,7 @@
         <v>3.8048177693476379</v>
       </c>
       <c r="B220">
-        <v>7.3943566967489733</v>
+        <v>2.4357053422392134</v>
       </c>
     </row>
     <row r="221">
@@ -1874,7 +1914,7 @@
         <v>3.8222710618675819</v>
       </c>
       <c r="B221">
-        <v>7.3572918686445314</v>
+        <v>2.4235078607553344</v>
       </c>
     </row>
     <row r="222">
@@ -1882,7 +1922,7 @@
         <v>3.839724354387525</v>
       </c>
       <c r="B222">
-        <v>7.3201681466964441</v>
+        <v>2.4112957631713967</v>
       </c>
     </row>
     <row r="223">
@@ -1890,7 +1930,7 @@
         <v>3.8571776469074686</v>
       </c>
       <c r="B223">
-        <v>7.2830043819723098</v>
+        <v>2.3990752231251475</v>
       </c>
     </row>
     <row r="224">
@@ -1898,7 +1938,7 @@
         <v>3.8746309394274117</v>
       </c>
       <c r="B224">
-        <v>7.2458182102161945</v>
+        <v>2.3868520105137216</v>
       </c>
     </row>
     <row r="225">
@@ -1906,7 +1946,7 @@
         <v>3.8920842319473548</v>
       </c>
       <c r="B225">
-        <v>7.2086261017875986</v>
+        <v>2.3746315080834721</v>
       </c>
     </row>
     <row r="226">
@@ -1914,7 +1954,7 @@
         <v>3.9095375244672983</v>
       </c>
       <c r="B226">
-        <v>7.1714434095123254</v>
+        <v>2.3624187273251778</v>
       </c>
     </row>
     <row r="227">
@@ -1922,7 +1962,7 @@
         <v>3.9269908169872414</v>
       </c>
       <c r="B227">
-        <v>7.1342844145054274</v>
+        <v>2.350218323694671</v>
       </c>
     </row>
     <row r="228">
@@ -1930,7 +1970,7 @@
         <v>3.9444441095071845</v>
       </c>
       <c r="B228">
-        <v>7.0971623700257593</v>
+        <v>2.3380346111787009</v>
       </c>
     </row>
     <row r="229">
@@ -1938,7 +1978,7 @@
         <v>3.9618974020271276</v>
       </c>
       <c r="B229">
-        <v>7.0600895434216016</v>
+        <v>2.3258715762258233</v>
       </c>
     </row>
     <row r="230">
@@ -1946,7 +1986,7 @@
         <v>3.9793506945470711</v>
       </c>
       <c r="B230">
-        <v>7.0230772562257373</v>
+        <v>2.3137328910617541</v>
       </c>
     </row>
     <row r="231">
@@ -1954,7 +1994,7 @@
         <v>3.9968039870670142</v>
       </c>
       <c r="B231">
-        <v>6.986135922458022</v>
+        <v>2.3016219264084969</v>
       </c>
     </row>
     <row r="232">
@@ -1962,7 +2002,7 @@
         <v>4.0142572795869578</v>
       </c>
       <c r="B232">
-        <v>6.9492750851920828</v>
+        <v>2.2895417636261022</v>
       </c>
     </row>
     <row r="233">
@@ -1970,7 +2010,7 @@
         <v>4.0317105721069018</v>
       </c>
       <c r="B233">
-        <v>6.9125034514421237</v>
+        <v>2.2774952062956695</v>
       </c>
     </row>
     <row r="234">
@@ -1978,7 +2018,7 @@
         <v>4.0491638646268449</v>
       </c>
       <c r="B234">
-        <v>6.8758289254243596</v>
+        <v>2.2654847912617515</v>
       </c>
     </row>
     <row r="235">
@@ -1986,7 +2026,7 @@
         <v>4.066617157146788</v>
       </c>
       <c r="B235">
-        <v>6.8392586402465527</v>
+        <v>2.2535127991519421</v>
       </c>
     </row>
     <row r="236">
@@ -1994,7 +2034,7 @@
         <v>4.0840704496667311</v>
       </c>
       <c r="B236">
-        <v>6.8027989880776962</v>
+        <v>2.2415812643909598</v>
       </c>
     </row>
     <row r="237">
@@ -2002,7 +2042,7 @@
         <v>4.1015237421866741</v>
       </c>
       <c r="B237">
-        <v>6.7664556488486456</v>
+        <v>2.2296919847261427</v>
       </c>
     </row>
     <row r="238">
@@ -2010,7 +2050,7 @@
         <v>4.1189770347066172</v>
       </c>
       <c r="B238">
-        <v>6.7302336175329867</v>
+        <v>2.2178465302807311</v>
       </c>
     </row>
     <row r="239">
@@ -2018,7 +2058,7 @@
         <v>4.1364303272265612</v>
       </c>
       <c r="B239">
-        <v>6.6941372300559916</v>
+        <v>2.206046252150875</v>
       </c>
     </row>
     <row r="240">
@@ -2026,7 +2066,7 @@
         <v>4.1538836197465043</v>
       </c>
       <c r="B240">
-        <v>6.6581701878781825</v>
+        <v>2.1942922905618256</v>
       </c>
     </row>
     <row r="241">
@@ -2034,7 +2074,7 @@
         <v>4.1713369122664474</v>
       </c>
       <c r="B241">
-        <v>6.6223355812982838</v>
+        <v>2.1825855825982172</v>
       </c>
     </row>
     <row r="242">
@@ -2042,7 +2082,7 @@
         <v>4.1887902047863905</v>
       </c>
       <c r="B242">
-        <v>6.5866359115191697</v>
+        <v>2.1709268695229307</v>
       </c>
     </row>
     <row r="243">
@@ -2050,7 +2090,7 @@
         <v>4.2062434973063345</v>
       </c>
       <c r="B243">
-        <v>6.5510731115185745</v>
+        <v>2.1593167036984511</v>
       </c>
     </row>
     <row r="244">
@@ -2058,7 +2098,7 @@
         <v>4.2236967898262776</v>
       </c>
       <c r="B244">
-        <v>6.5156485657651393</v>
+        <v>2.1477554551241904</v>
       </c>
     </row>
     <row r="245">
@@ -2066,7 +2106,7 @@
         <v>4.2411500823462207</v>
       </c>
       <c r="B245">
-        <v>6.4803631288186363</v>
+        <v>2.1362433176027054</v>
       </c>
     </row>
     <row r="246">
@@ -2074,7 +2114,7 @@
         <v>4.2586033748661638</v>
       </c>
       <c r="B246">
-        <v>6.445217142851897</v>
+        <v>2.1247803145472988</v>
       </c>
     </row>
     <row r="247">
@@ -2082,7 +2122,7 @@
         <v>4.2760566673861069</v>
       </c>
       <c r="B247">
-        <v>6.4102104541303788</v>
+        <v>2.1133663044429345</v>
       </c>
     </row>
     <row r="248">
@@ -2090,7 +2130,7 @@
         <v>4.2935099599060509</v>
       </c>
       <c r="B248">
-        <v>6.3753424284839646</v>
+        <v>2.1020009859719901</v>
       </c>
     </row>
     <row r="249">
@@ -2098,7 +2138,7 @@
         <v>4.310963252425994</v>
       </c>
       <c r="B249">
-        <v>6.3406119658040598</v>
+        <v>2.0906839028158357</v>
       </c>
     </row>
     <row r="250">
@@ -2106,7 +2146,7 @@
         <v>4.3284165449459371</v>
       </c>
       <c r="B250">
-        <v>6.3060175135977214</v>
+        <v>2.0794144481427903</v>
       </c>
     </row>
     <row r="251">
@@ -2114,7 +2154,7 @@
         <v>4.3458698374658802</v>
       </c>
       <c r="B251">
-        <v>6.2715570796290674</v>
+        <v>2.0681918687925203</v>
       </c>
     </row>
     <row r="252">
@@ -2122,7 +2162,7 @@
         <v>4.3633231299858233</v>
       </c>
       <c r="B252">
-        <v>6.2372282436770243</v>
+        <v>2.0570152691665422</v>
       </c>
     </row>
     <row r="253">
@@ -2130,7 +2170,7 @@
         <v>4.3807764225057673</v>
       </c>
       <c r="B253">
-        <v>6.2030281684369415</v>
+        <v>2.0458836148339845</v>
       </c>
     </row>
     <row r="254">
@@ -2138,7 +2178,7 @@
         <v>4.3982297150257104</v>
       </c>
       <c r="B254">
-        <v>6.1689536095924113</v>
+        <v>2.03479573586137</v>
       </c>
     </row>
     <row r="255">
@@ -2146,7 +2186,7 @@
         <v>4.4156830075456535</v>
       </c>
       <c r="B255">
-        <v>6.1350009250823945</v>
+        <v>2.0237503298747668</v>
       </c>
     </row>
     <row r="256">
@@ -2154,7 +2194,7 @@
         <v>4.4331363000655974</v>
       </c>
       <c r="B256">
-        <v>6.1011660835873682</v>
+        <v>2.0127459648621953</v>
       </c>
     </row>
     <row r="257">
@@ -2162,7 +2202,7 @@
         <v>4.4505895925855405</v>
       </c>
       <c r="B257">
-        <v>6.0674446722571451</v>
+        <v>2.001781081723828</v>
       </c>
     </row>
     <row r="258">
@@ -2170,7 +2210,7 @@
         <v>4.4680428851054836</v>
       </c>
       <c r="B258">
-        <v>6.0338319037016763</v>
+        <v>1.9908539965770715</v>
       </c>
     </row>
     <row r="259">
@@ -2178,7 +2218,7 @@
         <v>4.4854961776254267</v>
       </c>
       <c r="B259">
-        <v>6.0003226222651991</v>
+        <v>1.9799629028233079</v>
       </c>
     </row>
     <row r="260">
@@ -2186,7 +2226,7 @@
         <v>4.5029494701453698</v>
       </c>
       <c r="B260">
-        <v>5.966911309602791</v>
+        <v>1.969105872982629</v>
       </c>
     </row>
     <row r="261">
@@ -2194,7 +2234,7 @@
         <v>4.5204027626653129</v>
       </c>
       <c r="B261">
-        <v>5.9335920895772487</v>
+        <v>1.9582808603025428</v>
       </c>
     </row>
     <row r="262">
@@ -2202,7 +2242,7 @@
         <v>4.5378560551852569</v>
       </c>
       <c r="B262">
-        <v>5.9003587324934879</v>
+        <v>1.9474857001463675</v>
       </c>
     </row>
     <row r="263">
@@ -2210,7 +2250,7 @@
         <v>4.5553093477052</v>
       </c>
       <c r="B263">
-        <v>5.8672046586861795</v>
+        <v>1.936718111166543</v>
       </c>
     </row>
     <row r="264">
@@ -2218,7 +2258,7 @@
         <v>4.572762640225144</v>
       </c>
       <c r="B264">
-        <v>5.8341229414756635</v>
+        <v>1.9259756962678802</v>
       </c>
     </row>
     <row r="265">
@@ -2226,7 +2266,7 @@
         <v>4.5902159327450871</v>
       </c>
       <c r="B265">
-        <v>5.8011063095060811</v>
+        <v>1.9152559433653888</v>
       </c>
     </row>
     <row r="266">
@@ -2234,7 +2274,7 @@
         <v>4.6076692252650302</v>
       </c>
       <c r="B266">
-        <v>5.7681471484787199</v>
+        <v>1.9045562259410127</v>
       </c>
     </row>
     <row r="267">
@@ -2242,7 +2282,7 @@
         <v>4.6251225177849733</v>
       </c>
       <c r="B267">
-        <v>5.7352375022926427</v>
+        <v>1.8938738034033062</v>
       </c>
     </row>
     <row r="268">
@@ -2250,7 +2290,7 @@
         <v>4.6425758103049164</v>
       </c>
       <c r="B268">
-        <v>5.7023690736039674</v>
+        <v>1.8832058212538398</v>
       </c>
     </row>
     <row r="269">
@@ -2258,7 +2298,7 @@
         <v>4.6600291028248595</v>
       </c>
       <c r="B269">
-        <v>5.6695332238139313</v>
+        <v>1.8725493110637277</v>
       </c>
     </row>
     <row r="270">
@@ -2266,7 +2306,7 @@
         <v>4.6774823953448026</v>
       </c>
       <c r="B270">
-        <v>5.6367209724954677</v>
+        <v>1.8619011902635219</v>
       </c>
     </row>
     <row r="271">
@@ -2274,7 +2314,7 @@
         <v>4.6949356878647466</v>
       </c>
       <c r="B271">
-        <v>5.6039229962669737</v>
+        <v>1.8512582617493876</v>
       </c>
     </row>
     <row r="272">
@@ -2282,7 +2322,7 @@
         <v>4.7123889803846897</v>
       </c>
       <c r="B272">
-        <v>5.5711296271211816</v>
+        <v>1.8406172133082102</v>
       </c>
     </row>
     <row r="273">
@@ -2290,7 +2330,7 @@
         <v>4.7298422729046328</v>
       </c>
       <c r="B273">
-        <v>5.538330850216445</v>
+        <v>1.8299746168640869</v>
       </c>
     </row>
     <row r="274">
@@ -2298,7 +2338,7 @@
         <v>4.7472955654245768</v>
       </c>
       <c r="B274">
-        <v>5.5055163011369563</v>
+        <v>1.8193269275484076</v>
       </c>
     </row>
     <row r="275">
@@ -2306,7 +2346,7 @@
         <v>4.7647488579445199</v>
       </c>
       <c r="B275">
-        <v>5.4726752626276172</v>
+        <v>1.8086704825954458</v>
       </c>
     </row>
     <row r="276">
@@ -2314,7 +2354,7 @@
         <v>4.782202150464463</v>
       </c>
       <c r="B276">
-        <v>5.4397966608089448</v>
+        <v>1.7980015000652996</v>
       </c>
     </row>
     <row r="277">
@@ -2322,7 +2362,7 @@
         <v>4.7996554429844061</v>
       </c>
       <c r="B277">
-        <v>5.4068690608762981</v>
+        <v>1.7873160773956269</v>
       </c>
     </row>
     <row r="278">
@@ -2330,7 +2370,7 @@
         <v>4.8171087355043491</v>
       </c>
       <c r="B278">
-        <v>5.3738806622876609</v>
+        <v>1.7766101897836446</v>
       </c>
     </row>
     <row r="279">
@@ -2338,7 +2378,7 @@
         <v>4.8345620280242931</v>
       </c>
       <c r="B279">
-        <v>5.3408192934431815</v>
+        <v>1.7658796883994876</v>
       </c>
     </row>
     <row r="280">
@@ -2346,7 +2386,7 @@
         <v>4.8520153205442362</v>
       </c>
       <c r="B280">
-        <v>5.3076724058592974</v>
+        <v>1.7551202984319232</v>
       </c>
     </row>
     <row r="281">
@@ -2354,7 +2394,7 @@
         <v>4.8694686130641793</v>
       </c>
       <c r="B281">
-        <v>5.2744270678400174</v>
+        <v>1.7443276169673352</v>
       </c>
     </row>
     <row r="282">
@@ -2362,7 +2402,7 @@
         <v>4.8869219055841224</v>
       </c>
       <c r="B282">
-        <v>5.2410699576469106</v>
+        <v>1.7334971107025479</v>
       </c>
     </row>
     <row r="283">
@@ -2370,7 +2410,7 @@
         <v>4.9043751981040655</v>
       </c>
       <c r="B283">
-        <v>5.2075873561694941</v>
+        <v>1.7226241134921201</v>
       </c>
     </row>
     <row r="284">
@@ -2378,7 +2418,7 @@
         <v>4.9218284906240086</v>
       </c>
       <c r="B284">
-        <v>5.1739651390968664</v>
+        <v>1.7117038237304683</v>
       </c>
     </row>
     <row r="285">
@@ -2386,7 +2426,7 @@
         <v>4.9392817831439526</v>
       </c>
       <c r="B285">
-        <v>5.1401887685913676</v>
+        <v>1.7007313015691481</v>
       </c>
     </row>
     <row r="286">
@@ -2394,7 +2434,7 @@
         <v>4.9567350756638957</v>
       </c>
       <c r="B286">
-        <v>5.1062432844643624</v>
+        <v>1.6897014659694198</v>
       </c>
     </row>
     <row r="287">
@@ -2402,7 +2442,7 @@
         <v>4.9741883681838397</v>
       </c>
       <c r="B287">
-        <v>5.072113294854411</v>
+        <v>1.6786090915902783</v>
       </c>
     </row>
     <row r="288">
@@ -2410,7 +2450,7 @@
         <v>4.9916416607037828</v>
       </c>
       <c r="B288">
-        <v>5.0377829664073666</v>
+        <v>1.6674488055118912</v>
       </c>
     </row>
     <row r="289">
@@ -2418,7 +2458,7 @@
         <v>5.0090949532237259</v>
       </c>
       <c r="B289">
-        <v>5.0032360139580376</v>
+        <v>1.6562150837944432</v>
       </c>
     </row>
     <row r="290">
@@ -2426,7 +2466,7 @@
         <v>5.026548245743669</v>
       </c>
       <c r="B290">
-        <v>4.9684556897126972</v>
+        <v>1.6449022478722621</v>
       </c>
     </row>
     <row r="291">
@@ -2434,7 +2474,7 @@
         <v>5.0440015382636121</v>
       </c>
       <c r="B291">
-        <v>4.9334247719317661</v>
+        <v>1.6335044607831357</v>
       </c>
     </row>
     <row r="292">
@@ -2442,7 +2482,7 @@
         <v>5.0614548307835552</v>
       </c>
       <c r="B292">
-        <v>4.8981255531117514</v>
+        <v>1.622015723232658</v>
       </c>
     </row>
     <row r="293">
@@ -2450,7 +2490,7 @@
         <v>5.0789081233034983</v>
       </c>
       <c r="B293">
-        <v>4.8625398276655307</v>
+        <v>1.6104298694934547</v>
       </c>
     </row>
     <row r="294">
@@ -2458,7 +2498,7 @@
         <v>5.0963614158234423</v>
       </c>
       <c r="B294">
-        <v>4.8266488791003477</v>
+        <v>1.5987405631392406</v>
       </c>
     </row>
     <row r="295">
@@ -2466,7 +2506,7 @@
         <v>5.1138147083433854</v>
       </c>
       <c r="B295">
-        <v>4.790433466692483</v>
+        <v>1.586941292613554</v>
       </c>
     </row>
     <row r="296">
@@ -2474,7 +2514,7 @@
         <v>5.1312680008633293</v>
       </c>
       <c r="B296">
-        <v>4.7538738116583277</v>
+        <v>1.5750253666332636</v>
       </c>
     </row>
     <row r="297">
@@ -2482,7 +2522,7 @@
         <v>5.1487212933832724</v>
       </c>
       <c r="B297">
-        <v>4.7169495828213188</v>
+        <v>1.5629859094268879</v>
       </c>
     </row>
     <row r="298">
@@ -2490,7 +2530,7 @@
         <v>5.1661745859032155</v>
       </c>
       <c r="B298">
-        <v>4.6796398817747074</v>
+        <v>1.5508158558079397</v>
       </c>
     </row>
     <row r="299">
@@ -2498,7 +2538,7 @@
         <v>5.1836278784231586</v>
       </c>
       <c r="B299">
-        <v>4.6419232275406426</v>
+        <v>1.5385079460837134</v>
       </c>
     </row>
     <row r="300">
@@ -2506,7 +2546,7 @@
         <v>5.2010811709431017</v>
       </c>
       <c r="B300">
-        <v>4.6037775407261643</v>
+        <v>1.5260547207999731</v>
       </c>
     </row>
     <row r="301">
@@ -2514,7 +2554,7 @@
         <v>5.2185344634630448</v>
       </c>
       <c r="B301">
-        <v>4.5651801271777117</v>
+        <v>1.5134485153223676</v>
       </c>
     </row>
     <row r="302">
@@ -2522,7 +2562,7 @@
         <v>5.2359877559829888</v>
       </c>
       <c r="B302">
-        <v>4.5261076611358941</v>
+        <v>1.500681454255467</v>
       </c>
     </row>
     <row r="303">
@@ -2530,7 +2570,7 @@
         <v>5.2534410485029319</v>
       </c>
       <c r="B303">
-        <v>4.4865361678936777</v>
+        <v>1.487745445700811</v>
       </c>
     </row>
     <row r="304">
@@ -2538,7 +2578,7 @@
         <v>5.270894341022875</v>
       </c>
       <c r="B304">
-        <v>4.4464410059612938</v>
+        <v>1.4746321753554241</v>
       </c>
     </row>
     <row r="305">
@@ -2546,7 +2586,7 @@
         <v>5.2883476335428181</v>
       </c>
       <c r="B305">
-        <v>4.4057968487427583</v>
+        <v>1.4613331004528263</v>
       </c>
     </row>
     <row r="306">
@@ -2554,7 +2594,7 @@
         <v>5.3058009260627612</v>
       </c>
       <c r="B306">
-        <v>4.3645776657298052</v>
+        <v>1.4478394435488884</v>
       </c>
     </row>
     <row r="307">
@@ -2562,7 +2602,7 @@
         <v>5.3232542185827052</v>
       </c>
       <c r="B307">
-        <v>4.3227567032202536</v>
+        <v>1.4341421861553252</v>
       </c>
     </row>
     <row r="308">
@@ -2570,7 +2610,7 @@
         <v>5.3407075111026483</v>
       </c>
       <c r="B308">
-        <v>4.2803064645693061</v>
+        <v>1.4202320622241449</v>
       </c>
     </row>
     <row r="309">
@@ -2578,7 +2618,7 @@
         <v>5.3581608036225914</v>
       </c>
       <c r="B309">
-        <v>4.2371986899839689</v>
+        <v>1.4060995514869761</v>
       </c>
     </row>
     <row r="310">
@@ -2586,7 +2626,7 @@
         <v>5.3756140961425354</v>
       </c>
       <c r="B310">
-        <v>4.1934043358723665</v>
+        <v>1.3917348726537548</v>
       </c>
     </row>
     <row r="311">
@@ -2594,7 +2634,7 @@
         <v>5.3930673886624785</v>
       </c>
       <c r="B311">
-        <v>4.148893553761857</v>
+        <v>1.3771279764760198</v>
       </c>
     </row>
     <row r="312">
@@ -2602,7 +2642,7 @@
         <v>5.4105206811824216</v>
       </c>
       <c r="B312">
-        <v>4.1036356688019087</v>
+        <v>1.3622685386807749</v>
       </c>
     </row>
     <row r="313">
@@ -2610,7 +2650,7 @@
         <v>5.4279739737023647</v>
       </c>
       <c r="B313">
-        <v>4.0575991578700297</v>
+        <v>1.3471459527817242</v>
       </c>
     </row>
     <row r="314">
@@ -2618,7 +2658,7 @@
         <v>5.4454272662223078</v>
       </c>
       <c r="B314">
-        <v>4.0107516273018646</v>
+        <v>1.3317493227756596</v>
       </c>
     </row>
     <row r="315">
@@ -2626,7 +2666,7 @@
         <v>5.4628805587422509</v>
       </c>
       <c r="B315">
-        <v>3.9630597902691624</v>
+        <v>1.3160674557327097</v>
       </c>
     </row>
     <row r="316">
@@ -2634,7 +2674,7 @@
         <v>5.480333851262194</v>
       </c>
       <c r="B316">
-        <v>3.9144894438326374</v>
+        <v>1.3000888542903215</v>
       </c>
     </row>
     <row r="317">
@@ -2642,7 +2682,7 @@
         <v>5.497787143782138</v>
       </c>
       <c r="B317">
-        <v>3.8650054457001617</v>
+        <v>1.2838017090620415</v>
       </c>
     </row>
     <row r="318">
@@ -2650,7 +2690,7 @@
         <v>5.5152404363020811</v>
       </c>
       <c r="B318">
-        <v>3.8145716907242608</v>
+        <v>1.2671938909734164</v>
       </c>
     </row>
     <row r="319">
@@ -2658,7 +2698,7 @@
         <v>5.532693728822025</v>
       </c>
       <c r="B319">
-        <v>3.7631510871771834</v>
+        <v>1.250252943538831</v>
       </c>
     </row>
     <row r="320">
@@ -2666,7 +2706,7 @@
         <v>5.5501470213419681</v>
       </c>
       <c r="B320">
-        <v>3.7107055328461125</v>
+        <v>1.2329660750946101</v>
       </c>
     </row>
     <row r="321">
@@ -2674,7 +2714,7 @@
         <v>5.5676003138619112</v>
       </c>
       <c r="B321">
-        <v>3.6571958909958213</v>
+        <v>1.2153201510053724</v>
       </c>
     </row>
     <row r="322">
@@ -2682,7 +2722,7 @@
         <v>5.5850536063818543</v>
       </c>
       <c r="B322">
-        <v>3.6025819662512815</v>
+        <v>1.1973016858624357</v>
       </c>
     </row>
     <row r="323">
@@ -2690,7 +2730,7 @@
         <v>5.6025068989017974</v>
       </c>
       <c r="B323">
-        <v>3.5468224804585322</v>
+        <v>1.1788968356951139</v>
       </c>
     </row>
     <row r="324">
@@ -2698,7 +2738,7 @@
         <v>5.6199601914217405</v>
       </c>
       <c r="B324">
-        <v>3.4898750485877916</v>
+        <v>1.1600913902177075</v>
       </c>
     </row>
     <row r="325">
@@ -2706,7 +2746,7 @@
         <v>5.6374134839416845</v>
       </c>
       <c r="B325">
-        <v>3.4316961547497464</v>
+        <v>1.1408707651374315</v>
       </c>
     </row>
     <row r="326">
@@ -2714,7 +2754,7 @@
         <v>5.6548667764616276</v>
       </c>
       <c r="B326">
-        <v>3.3722411284028295</v>
+        <v>1.1212199945509105</v>
       </c>
     </row>
     <row r="327">
@@ -2722,7 +2762,7 @@
         <v>5.6723200689815707</v>
       </c>
       <c r="B327">
-        <v>3.3114641208367939</v>
+        <v>1.1011237234594808</v>
       </c>
     </row>
     <row r="328">
@@ -2730,7 +2770,7 @@
         <v>5.6897733615015138</v>
       </c>
       <c r="B328">
-        <v>3.2493180820263832</v>
+        <v>1.0805662004364962</v>
       </c>
     </row>
     <row r="329">
@@ -2738,7 +2778,7 @@
         <v>5.7072266540214578</v>
       </c>
       <c r="B329">
-        <v>3.1857547379574647</v>
+        <v>1.0595312704828048</v>
       </c>
     </row>
     <row r="330">
@@ -2746,7 +2786,7 @@
         <v>5.7246799465414</v>
       </c>
       <c r="B330">
-        <v>3.12072456853747</v>
+        <v>1.0380023681098549</v>
       </c>
     </row>
     <row r="331">
@@ -2754,7 +2794,7 @@
         <v>5.742133239061344</v>
       </c>
       <c r="B331">
-        <v>3.0541767862122899</v>
+        <v>1.0159625106934642</v>
       </c>
     </row>
     <row r="332">
@@ -2762,7 +2802,7 @@
         <v>5.7595865315812871</v>
       </c>
       <c r="B332">
-        <v>2.9860593154224881</v>
+        <v>0.99339429214498465</v>
       </c>
     </row>
     <row r="333">
@@ -2770,7 +2810,7 @@
         <v>5.7770398241012311</v>
       </c>
       <c r="B333">
-        <v>2.9163187730432547</v>
+        <v>0.97027987695060891</v>
       </c>
     </row>
     <row r="334">
@@ -2778,7 +2818,7 @@
         <v>5.7944931166211742</v>
       </c>
       <c r="B334">
-        <v>2.8449004499652961</v>
+        <v>0.94660099463396075</v>
       </c>
     </row>
     <row r="335">
@@ -2786,7 +2826,7 @@
         <v>5.8119464091411173</v>
       </c>
       <c r="B335">
-        <v>2.771748293986696</v>
+        <v>0.92233893470155193</v>
       </c>
     </row>
     <row r="336">
@@ -2794,7 +2834,7 @@
         <v>5.8293997016610613</v>
       </c>
       <c r="B336">
-        <v>2.6968048942002065</v>
+        <v>0.8974745421356497</v>
       </c>
     </row>
     <row r="337">
@@ -2802,7 +2842,7 @@
         <v>5.8468529941810035</v>
       </c>
       <c r="B337">
-        <v>2.6200114670755008</v>
+        <v>0.87198821350428923</v>
       </c>
     </row>
     <row r="338">
@@ -2810,7 +2850,7 @@
         <v>5.8643062867009474</v>
       </c>
       <c r="B338">
-        <v>2.5413078444517012</v>
+        <v>0.84585989376357495</v>
       </c>
     </row>
     <row r="339">
@@ -2818,7 +2858,7 @@
         <v>5.8817595792208897</v>
       </c>
       <c r="B339">
-        <v>2.4606324636729897</v>
+        <v>0.81906907383342531</v>
       </c>
     </row>
     <row r="340">
@@ -2826,7 +2866,7 @@
         <v>5.8992128717408336</v>
       </c>
       <c r="B340">
-        <v>2.3779223601175392</v>
+        <v>0.79159478903386127</v>
       </c>
     </row>
     <row r="341">
@@ -2834,7 +2874,7 @@
         <v>5.9166661642607767</v>
       </c>
       <c r="B341">
-        <v>2.2931131623897754</v>
+        <v>0.76341561847570527</v>
       </c>
     </row>
     <row r="342">
@@ -2842,7 +2882,7 @@
         <v>5.9341194567807207</v>
       </c>
       <c r="B342">
-        <v>2.2061390904657663</v>
+        <v>0.73450968550628659</v>
       </c>
     </row>
     <row r="343">
@@ -2850,7 +2890,7 @@
         <v>5.9515727493006629</v>
       </c>
       <c r="B343">
-        <v>2.1169329571030362</v>
+        <v>0.70485465931805602</v>
       </c>
     </row>
     <row r="344">
@@ -2858,7 +2898,7 @@
         <v>5.9690260418206069</v>
       </c>
       <c r="B344">
-        <v>2.0254261728486731</v>
+        <v>0.67442775783566167</v>
       </c>
     </row>
     <row r="345">
@@ -2866,7 +2906,7 @@
         <v>5.9864793343405509</v>
       </c>
       <c r="B345">
-        <v>1.9315487550032473</v>
+        <v>0.64320575200502705</v>
       </c>
     </row>
     <row r="346">
@@ -2874,7 +2914,7 @@
         <v>6.0039326268604931</v>
       </c>
       <c r="B346">
-        <v>1.8352293409227578</v>
+        <v>0.61116497161627836</v>
       </c>
     </row>
     <row r="347">
@@ -2882,7 +2922,7 @@
         <v>6.0213859193804371</v>
       </c>
       <c r="B347">
-        <v>1.7363952060671692</v>
+        <v>0.57828131280121309</v>
       </c>
     </row>
     <row r="348">
@@ -2890,7 +2930,7 @@
         <v>6.0388392119003802</v>
       </c>
       <c r="B348">
-        <v>1.6349722872311017</v>
+        <v>0.54453024735500966</v>
       </c>
     </row>
     <row r="349">
@@ -2898,7 +2938,7 @@
         <v>6.0562925044203233</v>
       </c>
       <c r="B349">
-        <v>1.5308852114207174</v>
+        <v>0.5098868340413456</v>
       </c>
     </row>
     <row r="350">
@@ -2906,7 +2946,7 @@
         <v>6.0737457969402664</v>
       </c>
       <c r="B350">
-        <v>1.4240573308704065</v>
+        <v>0.47432573204986095</v>
       </c>
     </row>
     <row r="351">
@@ -2914,7 +2954,7 @@
         <v>6.0911990894602104</v>
       </c>
       <c r="B351">
-        <v>1.3144107647233843</v>
+        <v>0.43782121678492625</v>
       </c>
     </row>
     <row r="352">
@@ -2922,7 +2962,7 @@
         <v>6.1086523819801526</v>
       </c>
       <c r="B352">
-        <v>1.2018664479322982</v>
+        <v>0.40034719817511205</v>
       </c>
     </row>
     <row r="353">
@@ -2930,7 +2970,7 @@
         <v>6.1261056745000966</v>
       </c>
       <c r="B353">
-        <v>1.086344187968008</v>
+        <v>0.36187724170313151</v>
       </c>
     </row>
     <row r="354">
@@ -2938,7 +2978,7 @@
         <v>6.1435589670200397</v>
       </c>
       <c r="B354">
-        <v>0.96776272995892265</v>
+        <v>0.32238459236701056</v>
       </c>
     </row>
     <row r="355">
@@ -2946,7 +2986,7 @@
         <v>6.1610122595399828</v>
       </c>
       <c r="B355">
-        <v>0.84603983091671886</v>
+        <v>0.28184220179384439</v>
       </c>
     </row>
     <row r="356">
@@ -2954,7 +2994,7 @@
         <v>6.1784655520599268</v>
       </c>
       <c r="B356">
-        <v>0.7210923437397091</v>
+        <v>0.24022275873862103</v>
       </c>
     </row>
     <row r="357">
@@ -2962,7 +3002,7 @@
         <v>6.1959188445798699</v>
       </c>
       <c r="B357">
-        <v>0.5928363117199803</v>
+        <v>0.19749872321135473</v>
       </c>
     </row>
     <row r="358">
@@ -2970,7 +3010,7 @@
         <v>6.2133721370998138</v>
       </c>
       <c r="B358">
-        <v>0.46118707431580208</v>
+        <v>0.15364236448651647</v>
       </c>
     </row>
     <row r="359">
@@ -2978,7 +3018,7 @@
         <v>6.2308254296197561</v>
       </c>
       <c r="B359">
-        <v>0.32605938498635273</v>
+        <v>0.10862580325932837</v>
       </c>
     </row>
     <row r="360">
@@ -2986,7 +3026,7 @@
         <v>6.2482787221397</v>
       </c>
       <c r="B360">
-        <v>0.18736754192030536</v>
+        <v>0.062421058223470882</v>
       </c>
     </row>
     <row r="361">
@@ -2994,7 +3034,7 @@
         <v>6.2657320146596422</v>
       </c>
       <c r="B361">
-        <v>0.045025532524653952</v>
+        <v>0.015000097354561003</v>
       </c>
     </row>
     <row r="362">
@@ -3002,7 +3042,7 @@
         <v>6.2831853071795862</v>
       </c>
       <c r="B362">
-        <v>-0.10105280742751145</v>
+        <v>-0.033665105807584472</v>
       </c>
     </row>
   </sheetData>

--- a/torqueConstant.xlsx
+++ b/torqueConstant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="2">
   <si>
     <t>theta2</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -87,11 +87,43 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -133,6 +165,38 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,14 +210,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
     </row>
@@ -162,7 +226,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.033665105807585173</v>
+        <v>-0.1122081164797329</v>
       </c>
     </row>
     <row r="3">
@@ -170,7 +234,7 @@
         <v>0.017453292519943295</v>
       </c>
       <c r="B3">
-        <v>-0.083602510576577027</v>
+        <v>-0.27864954105979556</v>
       </c>
     </row>
     <row r="4">
@@ -178,7 +242,7 @@
         <v>0.034906585039886591</v>
       </c>
       <c r="B4">
-        <v>-0.13483994192899629</v>
+        <v>-0.44942198668905831</v>
       </c>
     </row>
     <row r="5">
@@ -186,7 +250,7 @@
         <v>0.052359877559829883</v>
       </c>
       <c r="B5">
-        <v>-0.18740501739200133</v>
+        <v>-0.62461987175737765</v>
       </c>
     </row>
     <row r="6">
@@ -194,7 +258,7 @@
         <v>0.069813170079773182</v>
       </c>
       <c r="B6">
-        <v>-0.241325067691294</v>
+        <v>-0.80433687758788586</v>
       </c>
     </row>
     <row r="7">
@@ -202,7 +266,7 @@
         <v>0.087266462599716474</v>
       </c>
       <c r="B7">
-        <v>-0.29662705083955054</v>
+        <v>-0.98866567599907296</v>
       </c>
     </row>
     <row r="8">
@@ -210,7 +274,7 @@
         <v>0.10471975511965977</v>
       </c>
       <c r="B8">
-        <v>-0.35333745934538979</v>
+        <v>-1.1776976343746803</v>
       </c>
     </row>
     <row r="9">
@@ -218,7 +282,7 @@
         <v>0.12217304763960307</v>
       </c>
       <c r="B9">
-        <v>-0.41148222022562519</v>
+        <v>-1.3715224971200097</v>
       </c>
     </row>
     <row r="10">
@@ -226,7 +290,7 @@
         <v>0.13962634015954636</v>
       </c>
       <c r="B10">
-        <v>-0.47108658750888166</v>
+        <v>-1.5702280423832267</v>
       </c>
     </row>
     <row r="11">
@@ -234,7 +298,7 @@
         <v>0.15707963267948966</v>
       </c>
       <c r="B11">
-        <v>-0.53217502692745222</v>
+        <v>-1.773899712929019</v>
       </c>
     </row>
     <row r="12">
@@ -242,7 +306,7 @@
         <v>0.17453292519943295</v>
       </c>
       <c r="B12">
-        <v>-0.59477109250660354</v>
+        <v>-1.9826202200695602</v>
       </c>
     </row>
     <row r="13">
@@ -250,7 +314,7 @@
         <v>0.19198621771937624</v>
       </c>
       <c r="B13">
-        <v>-0.65889729477709469</v>
+        <v>-2.196469119586105</v>
       </c>
     </row>
     <row r="14">
@@ -258,7 +322,7 @@
         <v>0.20943951023931953</v>
       </c>
       <c r="B14">
-        <v>-0.72457496035764857</v>
+        <v>-2.4155223586141701</v>
       </c>
     </row>
     <row r="15">
@@ -266,7 +330,7 @@
         <v>0.22689280275926285</v>
       </c>
       <c r="B15">
-        <v>-0.79182408268018056</v>
+        <v>-2.6398517925179887</v>
       </c>
     </row>
     <row r="16">
@@ -274,7 +338,7 @@
         <v>0.24434609527920614</v>
       </c>
       <c r="B16">
-        <v>-0.86066316366200635</v>
+        <v>-2.8695246708466073</v>
       </c>
     </row>
     <row r="17">
@@ -282,7 +346,7 @@
         <v>0.26179938779914941</v>
       </c>
       <c r="B17">
-        <v>-0.93110904616657952</v>
+        <v>-3.1046030915461307</v>
       </c>
     </row>
     <row r="18">
@@ -290,7 +354,7 @@
         <v>0.27925268031909273</v>
       </c>
       <c r="B18">
-        <v>-1.0031767371378664</v>
+        <v>-3.3451434227013559</v>
       </c>
     </row>
     <row r="19">
@@ -298,7 +362,7 @@
         <v>0.29670597283903605</v>
       </c>
       <c r="B19">
-        <v>-1.0768792213436875</v>
+        <v>-3.5911956911966731</v>
       </c>
     </row>
     <row r="20">
@@ -306,7 +370,7 @@
         <v>0.31415926535897931</v>
       </c>
       <c r="B20">
-        <v>-1.1522272657205606</v>
+        <v>-3.8428029378220105</v>
       </c>
     </row>
     <row r="21">
@@ -314,7 +378,7 @@
         <v>0.33161255787892258</v>
       </c>
       <c r="B21">
-        <v>-1.2292292143770127</v>
+        <v>-4.1000005385057241</v>
       </c>
     </row>
     <row r="22">
@@ -322,7 +386,7 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="B22">
-        <v>-1.3078907743841146</v>
+        <v>-4.3628154915337722</v>
       </c>
     </row>
     <row r="23">
@@ -330,7 +394,7 @@
         <v>0.36651914291880922</v>
       </c>
       <c r="B23">
-        <v>-1.3882147925613342</v>
+        <v>-4.63126567081469</v>
       </c>
     </row>
     <row r="24">
@@ -338,7 +402,7 @@
         <v>0.38397243543875248</v>
       </c>
       <c r="B24">
-        <v>-1.4702010235524976</v>
+        <v>-4.9053590454730918</v>
       </c>
     </row>
     <row r="25">
@@ -346,7 +410,7 @@
         <v>0.40142572795869574</v>
       </c>
       <c r="B25">
-        <v>-1.5538458895805465</v>
+        <v>-5.1850928663020674</v>
       </c>
     </row>
     <row r="26">
@@ -354,7 +418,7 @@
         <v>0.41887902047863906</v>
       </c>
       <c r="B26">
-        <v>-1.6391422323705245</v>
+        <v>-5.4704528198771394</v>
       </c>
     </row>
     <row r="27">
@@ -362,7 +426,7 @@
         <v>0.43633231299858238</v>
       </c>
       <c r="B27">
-        <v>-1.7260790578372396</v>
+        <v>-5.7614121514325642</v>
       </c>
     </row>
     <row r="28">
@@ -370,7 +434,7 @@
         <v>0.4537856055185257</v>
       </c>
       <c r="B28">
-        <v>-1.8146412742465747</v>
+        <v>-6.0579307579247512</v>
       </c>
     </row>
     <row r="29">
@@ -378,7 +442,7 @@
         <v>0.47123889803846897</v>
       </c>
       <c r="B29">
-        <v>-1.9048094246764855</v>
+        <v>-6.3599542530582944</v>
       </c>
     </row>
     <row r="30">
@@ -386,7 +450,7 @@
         <v>0.48869219055841229</v>
       </c>
       <c r="B30">
-        <v>-1.9965594147242127</v>
+        <v>-6.6674130064281014</v>
       </c>
     </row>
     <row r="31">
@@ -394,7 +458,7 @@
         <v>0.50614548307835561</v>
       </c>
       <c r="B31">
-        <v>-2.0898622365287758</v>
+        <v>-6.98022115933707</v>
       </c>
     </row>
     <row r="32">
@@ -402,7 +466,7 @@
         <v>0.52359877559829882</v>
       </c>
       <c r="B32">
-        <v>-2.1846836903008575</v>
+        <v>-7.2982756202832952</v>
       </c>
     </row>
     <row r="33">
@@ -410,7 +474,7 @@
         <v>0.54105206811824214</v>
       </c>
       <c r="B33">
-        <v>-2.2809841046741504</v>
+        <v>-7.6214550435754393</v>
       </c>
     </row>
     <row r="34">
@@ -418,7 +482,7 @@
         <v>0.55850536063818546</v>
       </c>
       <c r="B34">
-        <v>-2.3787180573113931</v>
+        <v>-7.9496187950306556</v>
       </c>
     </row>
     <row r="35">
@@ -426,7 +490,7 @@
         <v>0.57595865315812877</v>
       </c>
       <c r="B35">
-        <v>-2.477834097312952</v>
+        <v>-8.2826059092384714</v>
       </c>
     </row>
     <row r="36">
@@ -434,7 +498,7 @@
         <v>0.59341194567807209</v>
       </c>
       <c r="B36">
-        <v>-2.5782744710843515</v>
+        <v>-8.6202340434382254</v>
       </c>
     </row>
     <row r="37">
@@ -442,7 +506,7 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="B37">
-        <v>-2.6799748534201946</v>
+        <v>-8.9622984336599956</v>
       </c>
     </row>
     <row r="38">
@@ -450,7 +514,7 @@
         <v>0.62831853071795862</v>
       </c>
       <c r="B38">
-        <v>-2.7828640856544884</v>
+        <v>-9.3085708594219909</v>
       </c>
     </row>
     <row r="39">
@@ -458,7 +522,7 @@
         <v>0.64577182323790194</v>
       </c>
       <c r="B39">
-        <v>-2.886863922810702</v>
+        <v>-9.6587986239640831</v>
       </c>
     </row>
     <row r="40">
@@ -466,7 +530,7 @@
         <v>0.66322511575784515</v>
       </c>
       <c r="B40">
-        <v>-2.9918887917593358</v>
+        <v>-10.012703557730722</v>
       </c>
     </row>
     <row r="41">
@@ -474,7 +538,7 @@
         <v>0.68067840827778847</v>
       </c>
       <c r="B41">
-        <v>-3.0978455624565986</v>
+        <v>-10.369981053597799</v>
       </c>
     </row>
     <row r="42">
@@ -482,7 +546,7 @@
         <v>0.69813170079773179</v>
       </c>
       <c r="B42">
-        <v>-3.2046333343969735</v>
+        <v>-10.730299143168612</v>
       </c>
     </row>
     <row r="43">
@@ -490,7 +554,7 @@
         <v>0.715584993317675</v>
       </c>
       <c r="B43">
-        <v>-3.3121432404671016</v>
+        <v>-11.093297624341538</v>
       </c>
     </row>
     <row r="44">
@@ -498,7 +562,7 @@
         <v>0.73303828583761843</v>
       </c>
       <c r="B44">
-        <v>-3.4202582704417979</v>
+        <v>-11.458587251271346</v>
       </c>
     </row>
     <row r="45">
@@ -506,7 +570,7 @@
         <v>0.75049157835756164</v>
       </c>
       <c r="B45">
-        <v>-3.5288531164192358</v>
+        <v>-11.825748998798415</v>
       </c>
     </row>
     <row r="46">
@@ -514,7 +578,7 @@
         <v>0.76794487087750496</v>
       </c>
       <c r="B46">
-        <v>-3.6377940425558486</v>
+        <v>-12.194333414390476</v>
       </c>
     </row>
     <row r="47">
@@ -522,7 +586,7 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="B47">
-        <v>-3.7469387815371586</v>
+        <v>-12.563860071609144</v>
       </c>
     </row>
     <row r="48">
@@ -530,7 +594,7 @@
         <v>0.80285145591739149</v>
       </c>
       <c r="B48">
-        <v>-3.8561364603134778</v>
+        <v>-12.933817140050364</v>
       </c>
     </row>
     <row r="49">
@@ -538,7 +602,7 @@
         <v>0.82030474843733492</v>
       </c>
       <c r="B49">
-        <v>-3.9652275577432925</v>
+        <v>-13.30366108757854</v>
       </c>
     </row>
     <row r="50">
@@ -546,7 +610,7 @@
         <v>0.83775804095727813</v>
       </c>
       <c r="B50">
-        <v>-4.0740438969253825</v>
+        <v>-13.672816531435812</v>
       </c>
     </row>
     <row r="51">
@@ -554,7 +618,7 @@
         <v>0.85521133347722145</v>
       </c>
       <c r="B51">
-        <v>-4.1824086751646279</v>
+        <v>-14.040676255411547</v>
       </c>
     </row>
     <row r="52">
@@ -562,7 +626,7 @@
         <v>0.87266462599716477</v>
       </c>
       <c r="B52">
-        <v>-4.2901365347050033</v>
+        <v>-14.406601410648268</v>
       </c>
     </row>
     <row r="53">
@@ -570,7 +634,7 @@
         <v>0.89011791851710798</v>
       </c>
       <c r="B53">
-        <v>-4.3970336775725247</v>
+        <v>-14.769921917783481</v>
       </c>
     </row>
     <row r="54">
@@ -578,7 +642,7 @@
         <v>0.90757121103705141</v>
       </c>
       <c r="B54">
-        <v>-4.5028980280932709</v>
+        <v>-15.129937087926001</v>
       </c>
     </row>
     <row r="55">
@@ -586,7 +650,7 @@
         <v>0.92502450355699462</v>
       </c>
       <c r="B55">
-        <v>-4.6075194468762355</v>
+        <v>-15.485916479391252</v>
       </c>
     </row>
     <row r="56">
@@ -594,7 +658,7 @@
         <v>0.94247779607693793</v>
       </c>
       <c r="B56">
-        <v>-4.7106800002618581</v>
+        <v>-15.837101006130109</v>
       </c>
     </row>
     <row r="57">
@@ -602,7 +666,7 @@
         <v>0.95993108859688125</v>
       </c>
       <c r="B57">
-        <v>-4.8121542894165819</v>
+        <v>-16.182704312353579</v>
       </c>
     </row>
     <row r="58">
@@ -610,7 +674,7 @@
         <v>0.97738438111682457</v>
       </c>
       <c r="B58">
-        <v>-4.9117098433792075</v>
+        <v>-16.52191442596958</v>
       </c>
     </row>
     <row r="59">
@@ -618,7 +682,7 @@
         <v>0.99483767363676778</v>
       </c>
       <c r="B59">
-        <v>-5.0091075804116105</v>
+        <v>-16.853895701115892</v>
       </c>
     </row>
     <row r="60">
@@ -626,7 +690,7 @@
         <v>1.0122909661567112</v>
       </c>
       <c r="B60">
-        <v>-5.1041023419494715</v>
+        <v>-17.177791057325724</v>
       </c>
     </row>
     <row r="61">
@@ -634,7 +698,7 @@
         <v>1.0297442586766543</v>
       </c>
       <c r="B61">
-        <v>-5.196443503261591</v>
+        <v>-17.49272451974576</v>
       </c>
     </row>
     <row r="62">
@@ -642,7 +706,7 @@
         <v>1.0471975511965976</v>
       </c>
       <c r="B62">
-        <v>-5.2858756645860518</v>
+        <v>-17.797804061408304</v>
       </c>
     </row>
     <row r="63">
@@ -650,7 +714,7 @@
         <v>1.064650843716541</v>
       </c>
       <c r="B63">
-        <v>-5.3721394259964725</v>
+        <v>-18.092124744914738</v>
       </c>
     </row>
     <row r="64">
@@ -658,7 +722,7 @@
         <v>1.0821041362364843</v>
       </c>
       <c r="B64">
-        <v>-5.4549722485471879</v>
+        <v>-18.374772157103902</v>
       </c>
     </row>
     <row r="65">
@@ -666,7 +730,7 @@
         <v>1.0995574287564276</v>
       </c>
       <c r="B65">
-        <v>-5.5341094033420921</v>
+        <v>-18.644826126435799</v>
       </c>
     </row>
     <row r="66">
@@ -674,7 +738,7 @@
         <v>1.1170107212763709</v>
       </c>
       <c r="B66">
-        <v>-5.6092850090674533</v>
+        <v>-18.901364708998056</v>
       </c>
     </row>
     <row r="67">
@@ -682,7 +746,7 @@
         <v>1.1344640137963142</v>
       </c>
       <c r="B67">
-        <v>-5.6802331572306501</v>
+        <v>-19.143468425300924</v>
       </c>
     </row>
     <row r="68">
@@ -690,7 +754,7 @@
         <v>1.1519173063162575</v>
       </c>
       <c r="B68">
-        <v>-5.746689122870734</v>
+        <v>-19.370224726413991</v>
       </c>
     </row>
     <row r="69">
@@ -698,7 +762,7 @@
         <v>1.1693705988362006</v>
       </c>
       <c r="B69">
-        <v>-5.8083906568776058</v>
+        <v>-19.580732664541451</v>
       </c>
     </row>
     <row r="70">
@@ -706,7 +770,7 @@
         <v>1.1868238913561442</v>
       </c>
       <c r="B70">
-        <v>-5.8650793543082127</v>
+        <v>-19.774107739845583</v>
       </c>
     </row>
     <row r="71">
@@ -714,7 +778,7 @@
         <v>1.2042771838760873</v>
       </c>
       <c r="B71">
-        <v>-5.91650209126069</v>
+        <v>-19.949486892205027</v>
       </c>
     </row>
     <row r="72">
@@ -722,7 +786,7 @@
         <v>1.2217304763960306</v>
       </c>
       <c r="B72">
-        <v>-5.9624125210084911</v>
+        <v>-20.106033603628841</v>
       </c>
     </row>
     <row r="73">
@@ -730,7 +794,7 @@
         <v>1.2391837689159739</v>
       </c>
       <c r="B73">
-        <v>-6.0025726182567354</v>
+        <v>-20.242943074225842</v>
       </c>
     </row>
     <row r="74">
@@ -738,7 +802,7 @@
         <v>1.2566370614359172</v>
       </c>
       <c r="B74">
-        <v>-6.0367542586168428</v>
+        <v>-20.359447431950834</v>
       </c>
     </row>
     <row r="75">
@@ -746,7 +810,7 @@
         <v>1.2740903539558606</v>
       </c>
       <c r="B75">
-        <v>-6.0647408187563849</v>
+        <v>-20.454820933823846</v>
       </c>
     </row>
     <row r="76">
@@ -754,7 +818,7 @@
         <v>1.2915436464758039</v>
       </c>
       <c r="B76">
-        <v>-6.0863287812221412</v>
+        <v>-20.528385113976551</v>
       </c>
     </row>
     <row r="77">
@@ -762,7 +826,7 @@
         <v>1.3089969389957472</v>
       </c>
       <c r="B77">
-        <v>-6.1013293267037616</v>
+        <v>-20.579513831771351</v>
       </c>
     </row>
     <row r="78">
@@ -770,7 +834,7 @@
         <v>1.3264502315156903</v>
       </c>
       <c r="B78">
-        <v>-6.1095698955472431</v>
+        <v>-20.607638171437618</v>
       </c>
     </row>
     <row r="79">
@@ -778,7 +842,7 @@
         <v>1.3439035240356338</v>
       </c>
       <c r="B79">
-        <v>-6.1108956996770498</v>
+        <v>-20.612251143264064</v>
       </c>
     </row>
     <row r="80">
@@ -786,7 +850,7 @@
         <v>1.3613568165555769</v>
       </c>
       <c r="B80">
-        <v>-6.1051711657727186</v>
+        <v>-20.592912135484422</v>
       </c>
     </row>
     <row r="81">
@@ -794,7 +858,7 @@
         <v>1.3788101090755203</v>
       </c>
       <c r="B81">
-        <v>-6.0922812905874837</v>
+        <v>-20.549251065698876</v>
       </c>
     </row>
     <row r="82">
@@ -802,7 +866,7 @@
         <v>1.3962634015954636</v>
       </c>
       <c r="B82">
-        <v>-6.0721328897044353</v>
+        <v>-20.480972181099013</v>
       </c>
     </row>
     <row r="83">
@@ -810,7 +874,7 @@
         <v>1.4137166941154069</v>
       </c>
       <c r="B83">
-        <v>-6.0446557217981551</v>
+        <v>-20.387857457998535</v>
       </c>
     </row>
     <row r="84">
@@ -818,7 +882,7 @@
         <v>1.43116998663535</v>
       </c>
       <c r="B84">
-        <v>-6.0098034715983504</v>
+        <v>-20.269769553295369</v>
       </c>
     </row>
     <row r="85">
@@ -826,7 +890,7 @@
         <v>1.4486232791552935</v>
       </c>
       <c r="B85">
-        <v>-5.9675545762175499</v>
+        <v>-20.126654263550783</v>
       </c>
     </row>
     <row r="86">
@@ -834,7 +898,7 @@
         <v>1.4660765716752369</v>
       </c>
       <c r="B86">
-        <v>-5.9179128812807127</v>
+        <v>-19.958542451385455</v>
       </c>
     </row>
     <row r="87">
@@ -842,7 +906,7 @@
         <v>1.4835298641951802</v>
       </c>
       <c r="B87">
-        <v>-5.8609081153466125</v>
+        <v>-19.765551403846882</v>
       </c>
     </row>
     <row r="88">
@@ -850,7 +914,7 @@
         <v>1.5009831567151233</v>
       </c>
       <c r="B88">
-        <v>-5.7965961733984717</v>
+        <v>-19.54788559324534</v>
       </c>
     </row>
     <row r="89">
@@ -858,7 +922,7 @@
         <v>1.5184364492350666</v>
       </c>
       <c r="B89">
-        <v>-5.7250592026585974</v>
+        <v>-19.30583681760092</v>
       </c>
     </row>
     <row r="90">
@@ -866,7 +930,7 @@
         <v>1.5358897417550099</v>
       </c>
       <c r="B90">
-        <v>-5.6464054865998756</v>
+        <v>-19.039783705179712</v>
       </c>
     </row>
     <row r="91">
@@ -874,7 +938,7 @@
         <v>1.5533430342749535</v>
       </c>
       <c r="B91">
-        <v>-5.5607691257328034</v>
+        <v>-18.750190575477045</v>
       </c>
     </row>
     <row r="92">
@@ -882,7 +946,7 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="B92">
-        <v>-5.468309516487329</v>
+        <v>-18.437605657269174</v>
       </c>
     </row>
     <row r="93">
@@ -890,7 +954,7 @@
         <v>1.5882496193148399</v>
       </c>
       <c r="B93">
-        <v>-5.3692106322301925</v>
+        <v>-18.102658672822741</v>
       </c>
     </row>
     <row r="94">
@@ -898,7 +962,7 @@
         <v>1.605702911834783</v>
       </c>
       <c r="B94">
-        <v>-5.263680113108073</v>
+        <v>-17.746057805836973</v>
       </c>
     </row>
     <row r="95">
@@ -906,7 +970,7 @@
         <v>1.6231562043547263</v>
       </c>
       <c r="B95">
-        <v>-5.1519481739345308</v>
+        <v>-17.368586079007972</v>
       </c>
     </row>
     <row r="96">
@@ -914,7 +978,7 @@
         <v>1.6406094968746698</v>
       </c>
       <c r="B96">
-        <v>-5.0342663416976938</v>
+        <v>-16.971097175064696</v>
       </c>
     </row>
     <row r="97">
@@ -922,7 +986,7 @@
         <v>1.6580627893946132</v>
       </c>
       <c r="B97">
-        <v>-4.9109060364128565</v>
+        <v>-16.55451074255453</v>
       </c>
     </row>
     <row r="98">
@@ -930,7 +994,7 @@
         <v>1.6755160819145563</v>
       </c>
       <c r="B98">
-        <v>-4.7821570109437594</v>
+        <v>-16.119807234399104</v>
       </c>
     </row>
     <row r="99">
@@ -938,7 +1002,7 @@
         <v>1.6929693744344996</v>
       </c>
       <c r="B99">
-        <v>-4.6483256670357989</v>
+        <v>-15.668022333153354</v>
       </c>
     </row>
     <row r="100">
@@ -946,7 +1010,7 @@
         <v>1.7104226669544429</v>
       </c>
       <c r="B100">
-        <v>-4.5097332661206604</v>
+        <v>-15.200241021871607</v>
       </c>
     </row>
     <row r="101">
@@ -954,7 +1018,7 @@
         <v>1.7278759594743864</v>
       </c>
       <c r="B101">
-        <v>-4.3667140544470238</v>
+        <v>-14.717591363421192</v>
       </c>
     </row>
     <row r="102">
@@ -962,7 +1026,7 @@
         <v>1.7453292519943295</v>
       </c>
       <c r="B102">
-        <v>-4.2196133227564818</v>
+        <v>-14.221238053926395</v>
       </c>
     </row>
     <row r="103">
@@ -970,7 +1034,7 @@
         <v>1.7627825445142729</v>
       </c>
       <c r="B103">
-        <v>-4.068785421054903</v>
+        <v>-13.712375817738534</v>
       </c>
     </row>
     <row r="104">
@@ -978,7 +1042,7 @@
         <v>1.780235837034216</v>
       </c>
       <c r="B104">
-        <v>-3.9145917490323532</v>
+        <v>-13.192222711908519</v>
       </c>
     </row>
     <row r="105">
@@ -986,7 +1050,7 @@
         <v>1.7976891295541593</v>
       </c>
       <c r="B105">
-        <v>-3.7573987423704138</v>
+        <v>-12.662013407606146</v>
       </c>
     </row>
     <row r="106">
@@ -994,7 +1058,7 @@
         <v>1.8151424220741028</v>
       </c>
       <c r="B106">
-        <v>-3.5975758745628426</v>
+        <v>-12.122992514335927</v>
       </c>
     </row>
     <row r="107">
@@ -1002,7 +1066,7 @@
         <v>1.8325957145940461</v>
       </c>
       <c r="B107">
-        <v>-3.4354936929870901</v>
+        <v>-11.576408010211027</v>
       </c>
     </row>
     <row r="108">
@@ -1010,7 +1074,7 @@
         <v>1.8500490071139892</v>
       </c>
       <c r="B108">
-        <v>-3.2715219068290176</v>
+        <v>-11.023504838057157</v>
       </c>
     </row>
     <row r="109">
@@ -1018,7 +1082,7 @@
         <v>1.8675022996339325</v>
       </c>
       <c r="B109">
-        <v>-3.106027543113258</v>
+        <v>-10.465518722833282</v>
       </c>
     </row>
     <row r="110">
@@ -1026,7 +1090,7 @@
         <v>1.8849555921538759</v>
       </c>
       <c r="B110">
-        <v>-2.9393731855624536</v>
+        <v>-9.9036702608961686</v>
       </c>
     </row>
     <row r="111">
@@ -1034,7 +1098,7 @@
         <v>1.902408884673819</v>
       </c>
       <c r="B111">
-        <v>-2.7719153093368276</v>
+        <v>-9.3391593261290229</v>
       </c>
     </row>
     <row r="112">
@@ -1042,7 +1106,7 @@
         <v>1.9198621771937625</v>
       </c>
       <c r="B112">
-        <v>-2.6040027229294385</v>
+        <v>-8.773159832034727</v>
       </c>
     </row>
     <row r="113">
@@ -1050,7 +1114,7 @@
         <v>1.9373154697137058</v>
       </c>
       <c r="B113">
-        <v>-2.4359751266494363</v>
+        <v>-8.2068148826952427</v>
       </c>
     </row>
     <row r="114">
@@ -1058,7 +1122,7 @@
         <v>1.9547687622336491</v>
       </c>
       <c r="B114">
-        <v>-2.2681617952526998</v>
+        <v>-7.6412323391526336</v>
       </c>
     </row>
     <row r="115">
@@ -1066,7 +1130,7 @@
         <v>1.9722220547535922</v>
       </c>
       <c r="B115">
-        <v>-2.1008803904108175</v>
+        <v>-7.0774808213992246</v>
       </c>
     </row>
     <row r="116">
@@ -1074,7 +1138,7 @@
         <v>1.9896753472735356</v>
       </c>
       <c r="B116">
-        <v>-1.9344359068780712</v>
+        <v>-6.5165861598923485</v>
       </c>
     </row>
     <row r="117">
@@ -1082,7 +1146,7 @@
         <v>2.0071286397934789</v>
       </c>
       <c r="B117">
-        <v>-1.7691197544508739</v>
+        <v>-5.9595283044396092</v>
       </c>
     </row>
     <row r="118">
@@ -1090,7 +1154,7 @@
         <v>2.0245819323134224</v>
       </c>
       <c r="B118">
-        <v>-1.6052089761400021</v>
+        <v>-5.4072386925253131</v>
       </c>
     </row>
     <row r="119">
@@ -1098,7 +1162,7 @@
         <v>2.0420352248333655</v>
       </c>
       <c r="B119">
-        <v>-1.4429656014153922</v>
+        <v>-4.8605980737506584</v>
       </c>
     </row>
     <row r="120">
@@ -1106,7 +1170,7 @@
         <v>2.0594885173533086</v>
       </c>
       <c r="B120">
-        <v>-1.2826361319526984</v>
+        <v>-4.3204347821009819</v>
       </c>
     </row>
     <row r="121">
@@ -1114,7 +1178,7 @@
         <v>2.0769418098732522</v>
       </c>
       <c r="B121">
-        <v>-1.1244511560243726</v>
+        <v>-3.7875234432856573</v>
       </c>
     </row>
     <row r="122">
@@ -1122,7 +1186,7 @@
         <v>2.0943951023931953</v>
       </c>
       <c r="B122">
-        <v>-0.96862508654451385</v>
+        <v>-3.2625841004540557</v>
       </c>
     </row>
     <row r="123">
@@ -1130,7 +1194,7 @@
         <v>2.1118483949131388</v>
       </c>
       <c r="B123">
-        <v>-0.81535601680162451</v>
+        <v>-2.7462817381955973</v>
       </c>
     </row>
     <row r="124">
@@ -1138,7 +1202,7 @@
         <v>2.1293016874330819</v>
       </c>
       <c r="B124">
-        <v>-0.66482568709901468</v>
+        <v>-2.2392261818935313</v>
       </c>
     </row>
     <row r="125">
@@ -1146,7 +1210,7 @@
         <v>2.1467549799530254</v>
       </c>
       <c r="B125">
-        <v>-0.51719955486650537</v>
+        <v>-1.7419723472135966</v>
       </c>
     </row>
     <row r="126">
@@ -1154,7 +1218,7 @@
         <v>2.1642082724729685</v>
       </c>
       <c r="B126">
-        <v>-0.37262696030592379</v>
+        <v>-1.2550208127591631</v>
       </c>
     </row>
     <row r="127">
@@ -1162,7 +1226,7 @@
         <v>2.1816615649929116</v>
       </c>
       <c r="B127">
-        <v>-0.23124137927902128</v>
+        <v>-0.77881868768788864</v>
       </c>
     </row>
     <row r="128">
@@ -1170,7 +1234,7 @@
         <v>2.1991148575128552</v>
       </c>
       <c r="B128">
-        <v>-0.093160754931549392</v>
+        <v>-0.31376074533231046</v>
       </c>
     </row>
     <row r="129">
@@ -1178,7 +1242,7 @@
         <v>2.2165681500327987</v>
       </c>
       <c r="B129">
-        <v>0.041512100539707497</v>
+        <v>0.13980920644022207</v>
       </c>
     </row>
     <row r="130">
@@ -1186,7 +1250,7 @@
         <v>2.2340214425527418</v>
       </c>
       <c r="B130">
-        <v>0.17268904254048018</v>
+        <v>0.58159674729419542</v>
       </c>
     </row>
     <row r="131">
@@ -1194,7 +1258,7 @@
         <v>2.2514747350726849</v>
       </c>
       <c r="B131">
-        <v>0.30029607758319848</v>
+        <v>1.0113550876256117</v>
       </c>
     </row>
     <row r="132">
@@ -1202,7 +1266,7 @@
         <v>2.2689280275926285</v>
       </c>
       <c r="B132">
-        <v>0.42427280184752181</v>
+        <v>1.4288831608264718</v>
       </c>
     </row>
     <row r="133">
@@ -1210,7 +1274,7 @@
         <v>2.286381320112572</v>
       </c>
       <c r="B133">
-        <v>0.54457180270079408</v>
+        <v>1.8340235915019354</v>
       </c>
     </row>
     <row r="134">
@@ -1218,7 +1282,7 @@
         <v>2.3038346126325151</v>
       </c>
       <c r="B134">
-        <v>0.66115803071497248</v>
+        <v>2.226660565260199</v>
       </c>
     </row>
     <row r="135">
@@ -1226,7 +1290,7 @@
         <v>2.3212879051524582</v>
       </c>
       <c r="B135">
-        <v>0.77400814929748052</v>
+        <v>2.6067176242483909</v>
       </c>
     </row>
     <row r="136">
@@ -1234,7 +1298,7 @@
         <v>2.3387411976724013</v>
       </c>
       <c r="B136">
-        <v>0.88310986859363028</v>
+        <v>2.9741554110219393</v>
       </c>
     </row>
     <row r="137">
@@ -1242,7 +1306,7 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="B137">
-        <v>0.98846126982957072</v>
+        <v>3.328969381651238</v>
       </c>
     </row>
     <row r="138">
@@ -1250,7 +1314,7 @@
         <v>2.3736477827122884</v>
       </c>
       <c r="B138">
-        <v>1.090070125756722</v>
+        <v>3.6711875072213651</v>
       </c>
     </row>
     <row r="139">
@@ -1258,7 +1322,7 @@
         <v>2.3911010752322315</v>
       </c>
       <c r="B139">
-        <v>1.1879532223411691</v>
+        <v>4.0008679811023482</v>
       </c>
     </row>
     <row r="140">
@@ -1266,7 +1330,7 @@
         <v>2.4085543677521746</v>
       </c>
       <c r="B140">
-        <v>1.2821356863224309</v>
+        <v>4.3180969475861737</v>
       </c>
     </row>
     <row r="141">
@@ -1274,7 +1338,7 @@
         <v>2.4260076602721181</v>
       </c>
       <c r="B141">
-        <v>1.3726503227525195</v>
+        <v>4.6229862657273664</v>
       </c>
     </row>
     <row r="142">
@@ -1282,7 +1346,7 @@
         <v>2.4434609527920612</v>
       </c>
       <c r="B142">
-        <v>1.4595369661249424</v>
+        <v>4.9156713205090563</v>
       </c>
     </row>
     <row r="143">
@@ -1290,7 +1354,7 @@
         <v>2.4609142453120043</v>
       </c>
       <c r="B143">
-        <v>1.5428418482189183</v>
+        <v>5.196308891802162</v>
       </c>
     </row>
     <row r="144">
@@ -1298,7 +1362,7 @@
         <v>2.4783675378319479</v>
       </c>
       <c r="B144">
-        <v>1.6226169853208272</v>
+        <v>5.4650750900058682</v>
       </c>
     </row>
     <row r="145">
@@ -1306,7 +1370,7 @@
         <v>2.4958208303518914</v>
       </c>
       <c r="B145">
-        <v>1.6989195870466787</v>
+        <v>5.7221633657661002</v>
       </c>
     </row>
     <row r="146">
@@ -1314,7 +1378,7 @@
         <v>2.5132741228718345</v>
       </c>
       <c r="B146">
-        <v>1.7718114885779073</v>
+        <v>5.9677825997709171</v>
       </c>
     </row>
     <row r="147">
@@ -1322,7 +1386,7 @@
         <v>2.5307274153917776</v>
       </c>
       <c r="B147">
-        <v>1.8413586077403556</v>
+        <v>6.2021552773251232</v>
       </c>
     </row>
     <row r="148">
@@ -1330,7 +1394,7 @@
         <v>2.5481807079117211</v>
       </c>
       <c r="B148">
-        <v>1.9076304280039034</v>
+        <v>6.4255157512140428</v>
       </c>
     </row>
     <row r="149">
@@ -1338,7 +1402,7 @@
         <v>2.5656340004316647</v>
       </c>
       <c r="B149">
-        <v>1.9706995081579477</v>
+        <v>6.6381085952783572</v>
       </c>
     </row>
     <row r="150">
@@ -1346,7 +1410,7 @@
         <v>2.5830872929516078</v>
       </c>
       <c r="B150">
-        <v>2.0306410191265147</v>
+        <v>6.8401870501402477</v>
       </c>
     </row>
     <row r="151">
@@ -1354,7 +1418,7 @@
         <v>2.6005405854715509</v>
       </c>
       <c r="B151">
-        <v>2.0875323081249824</v>
+        <v>7.0320115616412684</v>
       </c>
     </row>
     <row r="152">
@@ -1362,7 +1426,7 @@
         <v>2.6179938779914944</v>
       </c>
       <c r="B152">
-        <v>2.1414524901279619</v>
+        <v>7.2138484117732258</v>
       </c>
     </row>
     <row r="153">
@@ -1370,7 +1434,7 @@
         <v>2.6354471705114375</v>
       </c>
       <c r="B153">
-        <v>2.1924820664134939</v>
+        <v>7.3859684412002427</v>
       </c>
     </row>
     <row r="154">
@@ -1378,7 +1442,7 @@
         <v>2.6529004630313806</v>
       </c>
       <c r="B154">
-        <v>2.2407025697709941</v>
+        <v>7.5486458618779162</v>
       </c>
     </row>
     <row r="155">
@@ -1386,7 +1450,7 @@
         <v>2.6703537555513241</v>
       </c>
       <c r="B155">
-        <v>2.2861962358079446</v>
+        <v>7.702157157769296</v>
       </c>
     </row>
     <row r="156">
@@ -1394,7 +1458,7 @@
         <v>2.6878070480712677</v>
       </c>
       <c r="B156">
-        <v>2.3290456996614814</v>
+        <v>7.8467800712313709</v>
       </c>
     </row>
     <row r="157">
@@ -1402,7 +1466,7 @@
         <v>2.7052603405912108</v>
       </c>
       <c r="B157">
-        <v>2.3693337173140967</v>
+        <v>7.982792672293769</v>
       </c>
     </row>
     <row r="158">
@@ -1410,7 +1474,7 @@
         <v>2.7227136331111539</v>
       </c>
       <c r="B158">
-        <v>2.4071429106257671</v>
+        <v>8.1104725077670992</v>
       </c>
     </row>
     <row r="159">
@@ -1418,7 +1482,7 @@
         <v>2.740166925631097</v>
       </c>
       <c r="B159">
-        <v>2.4425555351264681</v>
+        <v>8.2300958268965676</v>
       </c>
     </row>
     <row r="160">
@@ -1426,7 +1490,7 @@
         <v>2.7576202181510405</v>
       </c>
       <c r="B160">
-        <v>2.4756532695613451</v>
+        <v>8.3419368801106941</v>
       </c>
     </row>
     <row r="161">
@@ -1434,7 +1498,7 @@
         <v>2.7750735106709841</v>
       </c>
       <c r="B161">
-        <v>2.5065170261437872</v>
+        <v>8.4462672872982143</v>
       </c>
     </row>
     <row r="162">
@@ -1442,7 +1506,7 @@
         <v>2.7925268031909272</v>
       </c>
       <c r="B162">
-        <v>2.535226780448411</v>
+        <v>8.543355471975616</v>
       </c>
     </row>
     <row r="163">
@@ -1450,7 +1514,7 @@
         <v>2.8099800957108703</v>
       </c>
       <c r="B163">
-        <v>2.5618614198641816</v>
+        <v>8.633466157675425</v>
       </c>
     </row>
     <row r="164">
@@ -1458,7 +1522,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="B164">
-        <v>2.5864986095265081</v>
+        <v>8.7168599228871457</v>
       </c>
     </row>
     <row r="165">
@@ -1466,7 +1530,7 @@
         <v>2.8448866807507569</v>
       </c>
       <c r="B165">
-        <v>2.6092146746547336</v>
+        <v>8.7937928109147681</v>
       </c>
     </row>
     <row r="166">
@@ -1474,7 +1538,7 @@
         <v>2.8623399732707</v>
       </c>
       <c r="B166">
-        <v>2.63008449823668</v>
+        <v>8.8645159910715368</v>
       </c>
     </row>
     <row r="167">
@@ -1482,7 +1546,7 @@
         <v>2.8797932657906435</v>
       </c>
       <c r="B167">
-        <v>2.6491814330235233</v>
+        <v>8.9292754677107258</v>
       </c>
     </row>
     <row r="168">
@@ -1490,7 +1554,7 @@
         <v>2.8972465583105871</v>
       </c>
       <c r="B168">
-        <v>2.6665772268253893</v>
+        <v>8.9883118336869217</v>
       </c>
     </row>
     <row r="169">
@@ -1498,7 +1562,7 @@
         <v>2.9146998508305306</v>
       </c>
       <c r="B169">
-        <v>2.6823419601295324</v>
+        <v>9.0418600649525036</v>
       </c>
     </row>
     <row r="170">
@@ -1506,7 +1570,7 @@
         <v>2.9321531433504737</v>
       </c>
       <c r="B170">
-        <v>2.6965439950979202</v>
+        <v>9.0901493531151107</v>
       </c>
     </row>
     <row r="171">
@@ -1514,7 +1578,7 @@
         <v>2.9496064358704168</v>
       </c>
       <c r="B171">
-        <v>2.7092499350387369</v>
+        <v>9.1334029729120267</v>
       </c>
     </row>
     <row r="172">
@@ -1522,7 +1586,7 @@
         <v>2.9670597283903604</v>
       </c>
       <c r="B172">
-        <v>2.7205245934861257</v>
+        <v>9.1718381816938805</v>
       </c>
     </row>
     <row r="173">
@@ -1530,7 +1594,7 @@
         <v>2.9845130209103035</v>
       </c>
       <c r="B173">
-        <v>2.730430972063465</v>
+        <v>9.2056661481504172</v>
       </c>
     </row>
     <row r="174">
@@ -1538,7 +1602,7 @@
         <v>3.0019663134302466</v>
       </c>
       <c r="B174">
-        <v>2.7390302463475011</v>
+        <v>9.2350919076542155</v>
       </c>
     </row>
     <row r="175">
@@ -1546,7 +1610,7 @@
         <v>3.0194196059501901</v>
       </c>
       <c r="B175">
-        <v>2.7463817589929178</v>
+        <v>9.2603143417420934</v>
       </c>
     </row>
     <row r="176">
@@ -1554,7 +1618,7 @@
         <v>3.0368728984701332</v>
       </c>
       <c r="B176">
-        <v>2.7525430194191385</v>
+        <v>9.2815261793971224</v>
       </c>
     </row>
     <row r="177">
@@ -1562,7 +1626,7 @@
         <v>3.0543261909900763</v>
       </c>
       <c r="B177">
-        <v>2.7575697094030849</v>
+        <v>9.298914017936168</v>
       </c>
     </row>
     <row r="178">
@@ -1570,7 +1634,7 @@
         <v>3.0717794835100198</v>
       </c>
       <c r="B178">
-        <v>2.7615156939626386</v>
+        <v>9.3126583614467044</v>
       </c>
     </row>
     <row r="179">
@@ -1578,7 +1642,7 @@
         <v>3.0892327760299634</v>
       </c>
       <c r="B179">
-        <v>2.7644330369558392</v>
+        <v>9.3229336748524059</v>
       </c>
     </row>
     <row r="180">
@@ -1586,7 +1650,7 @@
         <v>3.1066860685499069</v>
       </c>
       <c r="B180">
-        <v>2.7663720208599125</v>
+        <v>9.3299084518188966</v>
       </c>
     </row>
     <row r="181">
@@ -1594,7 +1658,7 @@
         <v>3.12413936106985</v>
       </c>
       <c r="B181">
-        <v>2.7673811702319284</v>
+        <v>9.3337452948378985</v>
       </c>
     </row>
     <row r="182">
@@ -1602,7 +1666,7 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="B182">
-        <v>2.7675072783892984</v>
+        <v>9.3346010059503506</v>
       </c>
     </row>
     <row r="183">
@@ -1610,7 +1674,7 @@
         <v>3.1590459461097362</v>
       </c>
       <c r="B183">
-        <v>2.7667954368830907</v>
+        <v>9.3326266866860266</v>
       </c>
     </row>
     <row r="184">
@@ -1618,7 +1682,7 @@
         <v>3.1764992386296798</v>
       </c>
       <c r="B184">
-        <v>2.7652890673704018</v>
+        <v>9.3279678459086011</v>
       </c>
     </row>
     <row r="185">
@@ -1626,7 +1690,7 @@
         <v>3.1939525311496229</v>
       </c>
       <c r="B185">
-        <v>2.7630299555236952</v>
+        <v>9.3207645143613931</v>
       </c>
     </row>
     <row r="186">
@@ -1634,7 +1698,7 @@
         <v>3.211405823669566</v>
       </c>
       <c r="B186">
-        <v>2.7600582866448948</v>
+        <v>9.3111513648089979</v>
       </c>
     </row>
     <row r="187">
@@ -1642,7 +1706,7 @@
         <v>3.2288591161895095</v>
       </c>
       <c r="B187">
-        <v>2.7564126826804469</v>
+        <v>9.2992578367651983</v>
       </c>
     </row>
     <row r="188">
@@ -1650,7 +1714,7 @@
         <v>3.2463124087094526</v>
       </c>
       <c r="B188">
-        <v>2.7521302403602399</v>
+        <v>9.2852082648867071</v>
       </c>
     </row>
     <row r="189">
@@ -1658,7 +1722,7 @@
         <v>3.2637657012293966</v>
       </c>
       <c r="B189">
-        <v>2.7472465702083251</v>
+        <v>9.2691220101959555</v>
       </c>
     </row>
     <row r="190">
@@ -1666,7 +1730,7 @@
         <v>3.2812189937493397</v>
       </c>
       <c r="B190">
-        <v>2.7417958361969901</v>
+        <v>9.2511135933750932</v>
       </c>
     </row>
     <row r="191">
@@ -1674,7 +1738,7 @@
         <v>3.2986722862692828</v>
       </c>
       <c r="B191">
-        <v>2.7358107958375637</v>
+        <v>9.2312928294459997</v>
       </c>
     </row>
     <row r="192">
@@ -1682,7 +1746,7 @@
         <v>3.3161255787892263</v>
       </c>
       <c r="B192">
-        <v>2.7293228405220433</v>
+        <v>9.2097649632203762</v>
       </c>
     </row>
     <row r="193">
@@ -1690,7 +1754,7 @@
         <v>3.3335788713091694</v>
       </c>
       <c r="B193">
-        <v>2.7223620359485641</v>
+        <v>9.1866308049668923</v>
       </c>
     </row>
     <row r="194">
@@ -1698,7 +1762,7 @@
         <v>3.3510321638291125</v>
       </c>
       <c r="B194">
-        <v>2.7149571624814404</v>
+        <v>9.1619868658014418</v>
       </c>
     </row>
     <row r="195">
@@ -1706,7 +1770,7 @@
         <v>3.3684854563490561</v>
       </c>
       <c r="B195">
-        <v>2.7071357553130255</v>
+        <v>9.1359254923614905</v>
       </c>
     </row>
     <row r="196">
@@ -1714,7 +1778,7 @@
         <v>3.3859387488689991</v>
       </c>
       <c r="B196">
-        <v>2.6989241443096539</v>
+        <v>9.108535000375511</v>
       </c>
     </row>
     <row r="197">
@@ -1722,7 +1786,7 @@
         <v>3.4033920413889422</v>
       </c>
       <c r="B197">
-        <v>2.6903474934379927</v>
+        <v>9.0798998067851837</v>
       </c>
     </row>
     <row r="198">
@@ -1730,7 +1794,7 @@
         <v>3.4208453339088858</v>
       </c>
       <c r="B198">
-        <v>2.681429839680967</v>
+        <v>9.0501005601207574</v>
       </c>
     </row>
     <row r="199">
@@ -1738,7 +1802,7 @@
         <v>3.4382986264288289</v>
       </c>
       <c r="B199">
-        <v>2.6721941313641979</v>
+        <v>9.019214268869078</v>
       </c>
     </row>
     <row r="200">
@@ -1746,7 +1810,7 @@
         <v>3.4557519189487729</v>
       </c>
       <c r="B200">
-        <v>2.6626622658247383</v>
+        <v>8.9873144276097783</v>
       </c>
     </row>
     <row r="201">
@@ -1754,7 +1818,7 @@
         <v>3.473205211468716</v>
       </c>
       <c r="B201">
-        <v>2.6528551263637254</v>
+        <v>8.9544711407277475</v>
       </c>
     </row>
     <row r="202">
@@ -1762,7 +1826,7 @@
         <v>3.4906585039886591</v>
       </c>
       <c r="B202">
-        <v>2.642792618433675</v>
+        <v>8.9207512435402521</v>
       </c>
     </row>
     <row r="203">
@@ -1770,7 +1834,7 @@
         <v>3.5081117965086026</v>
       </c>
       <c r="B203">
-        <v>2.6324937050191597</v>
+        <v>8.886218420703603</v>
       </c>
     </row>
     <row r="204">
@@ -1778,7 +1842,7 @@
         <v>3.5255650890285457</v>
       </c>
       <c r="B204">
-        <v>2.6219764411772433</v>
+        <v>8.8509333217895847</v>
       </c>
     </row>
     <row r="205">
@@ -1786,7 +1850,7 @@
         <v>3.5430183815484888</v>
       </c>
       <c r="B205">
-        <v>2.6112580077106333</v>
+        <v>8.814953673943668</v>
       </c>
     </row>
     <row r="206">
@@ -1794,7 +1858,7 @@
         <v>3.5604716740684319</v>
       </c>
       <c r="B206">
-        <v>2.6003547439526358</v>
+        <v>8.7783343915573333</v>
       </c>
     </row>
     <row r="207">
@@ -1802,7 +1866,7 @@
         <v>3.5779249665883754</v>
       </c>
       <c r="B207">
-        <v>2.5892821796484498</v>
+        <v>8.7411276829047981</v>
       </c>
     </row>
     <row r="208">
@@ -1810,7 +1874,7 @@
         <v>3.5953782591083185</v>
       </c>
       <c r="B208">
-        <v>2.5780550659222876</v>
+        <v>8.7033831537109041</v>
       </c>
     </row>
     <row r="209">
@@ -1818,7 +1882,7 @@
         <v>3.6128315516282616</v>
       </c>
       <c r="B209">
-        <v>2.5666874053240374</v>
+        <v>8.665147907630848</v>
       </c>
     </row>
     <row r="210">
@@ -1826,7 +1890,7 @@
         <v>3.6302848441482056</v>
       </c>
       <c r="B210">
-        <v>2.5551924809533446</v>
+        <v>8.6264666436361725</v>
       </c>
     </row>
     <row r="211">
@@ -1834,7 +1898,7 @@
         <v>3.6477381366681487</v>
       </c>
       <c r="B211">
-        <v>2.5435828846621735</v>
+        <v>8.5873817503119891</v>
       </c>
     </row>
     <row r="212">
@@ -1842,7 +1906,7 @@
         <v>3.6651914291880923</v>
       </c>
       <c r="B212">
-        <v>2.5318705443401761</v>
+        <v>8.5479333970811666</v>
       </c>
     </row>
     <row r="213">
@@ -1850,7 +1914,7 @@
         <v>3.6826447217080354</v>
       </c>
       <c r="B213">
-        <v>2.5200667502898217</v>
+        <v>8.5081596223798179</v>
       </c>
     </row>
     <row r="214">
@@ -1858,7 +1922,7 @@
         <v>3.7000980142279785</v>
       </c>
       <c r="B214">
-        <v>2.5081821807004969</v>
+        <v>8.4680964188160139</v>
       </c>
     </row>
     <row r="215">
@@ -1866,7 +1930,7 @@
         <v>3.717551306747922</v>
       </c>
       <c r="B215">
-        <v>2.496226926233037</v>
+        <v>8.4277778153508098</v>
       </c>
     </row>
     <row r="216">
@@ -1874,7 +1938,7 @@
         <v>3.7350045992678651</v>
       </c>
       <c r="B216">
-        <v>2.4842105137277004</v>
+        <v>8.3872359565460126</v>
       </c>
     </row>
     <row r="217">
@@ -1882,7 +1946,7 @@
         <v>3.7524578917878082</v>
       </c>
       <c r="B217">
-        <v>2.4721419290502293</v>
+        <v>8.3465011789283725</v>
       </c>
     </row>
     <row r="218">
@@ -1890,7 +1954,7 @@
         <v>3.7699111843077517</v>
       </c>
       <c r="B218">
-        <v>2.4600296390918648</v>
+        <v>8.3056020845237999</v>
       </c>
     </row>
     <row r="219">
@@ -1898,7 +1962,7 @@
         <v>3.7873644768276948</v>
       </c>
       <c r="B219">
-        <v>2.4478816129402809</v>
+        <v>8.264565611619032</v>
       </c>
     </row>
     <row r="220">
@@ -1906,7 +1970,7 @@
         <v>3.8048177693476379</v>
       </c>
       <c r="B220">
-        <v>2.4357053422392134</v>
+        <v>8.2234171028105578</v>
       </c>
     </row>
     <row r="221">
@@ -1914,7 +1978,7 @@
         <v>3.8222710618675819</v>
       </c>
       <c r="B221">
-        <v>2.4235078607553344</v>
+        <v>8.1821803704033709</v>
       </c>
     </row>
     <row r="222">
@@ -1922,7 +1986,7 @@
         <v>3.839724354387525</v>
       </c>
       <c r="B222">
-        <v>2.4112957631713967</v>
+        <v>8.140877759223434</v>
       </c>
     </row>
     <row r="223">
@@ -1930,7 +1994,7 @@
         <v>3.8571776469074686</v>
       </c>
       <c r="B223">
-        <v>2.3990752231251475</v>
+        <v>8.0995302069094759</v>
       </c>
     </row>
     <row r="224">
@@ -1938,7 +2002,7 @@
         <v>3.8746309394274117</v>
       </c>
       <c r="B224">
-        <v>2.3868520105137216</v>
+        <v>8.0581573017502297</v>
       </c>
     </row>
     <row r="225">
@@ -1946,7 +2010,7 @@
         <v>3.8920842319473548</v>
       </c>
       <c r="B225">
-        <v>2.3746315080834721</v>
+        <v>8.0167773381341103</v>
       </c>
     </row>
     <row r="226">
@@ -1954,7 +2018,7 @@
         <v>3.9095375244672983</v>
       </c>
       <c r="B226">
-        <v>2.3624187273251778</v>
+        <v>7.9754073696782353</v>
       </c>
     </row>
     <row r="227">
@@ -1962,7 +2026,7 @@
         <v>3.9269908169872414</v>
       </c>
       <c r="B227">
-        <v>2.350218323694671</v>
+        <v>7.9340632601039047</v>
       </c>
     </row>
     <row r="228">
@@ -1970,7 +2034,7 @@
         <v>3.9444441095071845</v>
       </c>
       <c r="B228">
-        <v>2.3380346111787009</v>
+        <v>7.8927597319249827</v>
       </c>
     </row>
     <row r="229">
@@ -1978,7 +2042,7 @@
         <v>3.9618974020271276</v>
       </c>
       <c r="B229">
-        <v>2.3258715762258233</v>
+        <v>7.851510413015454</v>
       </c>
     </row>
     <row r="230">
@@ -1986,7 +2050,7 @@
         <v>3.9793506945470711</v>
       </c>
       <c r="B230">
-        <v>2.3137328910617541</v>
+        <v>7.8103278811212205</v>
       </c>
     </row>
     <row r="231">
@@ -1994,7 +2058,7 @@
         <v>3.9968039870670142</v>
       </c>
       <c r="B231">
-        <v>2.3016219264084969</v>
+        <v>7.7692237063807914</v>
       </c>
     </row>
     <row r="232">
@@ -2002,7 +2066,7 @@
         <v>4.0142572795869578</v>
       </c>
       <c r="B232">
-        <v>2.2895417636261022</v>
+        <v>7.7282084919179246</v>
       </c>
     </row>
     <row r="233">
@@ -2010,7 +2074,7 @@
         <v>4.0317105721069018</v>
       </c>
       <c r="B233">
-        <v>2.2774952062956695</v>
+        <v>7.6872919125685542</v>
       </c>
     </row>
     <row r="234">
@@ -2018,7 +2082,7 @@
         <v>4.0491638646268449</v>
       </c>
       <c r="B234">
-        <v>2.2654847912617515</v>
+        <v>7.6464827518026519</v>
       </c>
     </row>
     <row r="235">
@@ -2026,7 +2090,7 @@
         <v>4.066617157146788</v>
       </c>
       <c r="B235">
-        <v>2.2535127991519421</v>
+        <v>7.6057889369005425</v>
       </c>
     </row>
     <row r="236">
@@ -2034,7 +2098,7 @@
         <v>4.0840704496667311</v>
       </c>
       <c r="B236">
-        <v>2.2415812643909598</v>
+        <v>7.5652175724415489</v>
       </c>
     </row>
     <row r="237">
@@ -2042,7 +2106,7 @@
         <v>4.1015237421866741</v>
       </c>
       <c r="B237">
-        <v>2.2296919847261427</v>
+        <v>7.5247749721614587</v>
       </c>
     </row>
     <row r="238">
@@ -2050,7 +2114,7 @@
         <v>4.1189770347066172</v>
       </c>
       <c r="B238">
-        <v>2.2178465302807311</v>
+        <v>7.4844666892336358</v>
       </c>
     </row>
     <row r="239">
@@ -2058,7 +2122,7 @@
         <v>4.1364303272265612</v>
       </c>
       <c r="B239">
-        <v>2.206046252150875</v>
+        <v>7.4442975450269389</v>
       </c>
     </row>
     <row r="240">
@@ -2066,7 +2130,7 @@
         <v>4.1538836197465043</v>
       </c>
       <c r="B240">
-        <v>2.1942922905618256</v>
+        <v>7.4042716563921909</v>
       </c>
     </row>
     <row r="241">
@@ -2074,7 +2138,7 @@
         <v>4.1713369122664474</v>
       </c>
       <c r="B241">
-        <v>2.1825855825982172</v>
+        <v>7.3643924615269212</v>
       </c>
     </row>
     <row r="242">
@@ -2082,7 +2146,7 @@
         <v>4.1887902047863905</v>
       </c>
       <c r="B242">
-        <v>2.1709268695229307</v>
+        <v>7.324662744466889</v>
       </c>
     </row>
     <row r="243">
@@ -2090,7 +2154,7 @@
         <v>4.2062434973063345</v>
       </c>
       <c r="B243">
-        <v>2.1593167036984511</v>
+        <v>7.2850846582507334</v>
       </c>
     </row>
     <row r="244">
@@ -2098,7 +2162,7 @@
         <v>4.2236967898262776</v>
       </c>
       <c r="B244">
-        <v>2.1477554551241904</v>
+        <v>7.2456597468028843</v>
       </c>
     </row>
     <row r="245">
@@ -2106,7 +2170,7 @@
         <v>4.2411500823462207</v>
       </c>
       <c r="B245">
-        <v>2.1362433176027054</v>
+        <v>7.2063889655778191</v>
       </c>
     </row>
     <row r="246">
@@ -2114,7 +2178,7 @@
         <v>4.2586033748661638</v>
       </c>
       <c r="B246">
-        <v>2.1247803145472988</v>
+        <v>7.167272701007402</v>
       </c>
     </row>
     <row r="247">
@@ -2122,7 +2186,7 @@
         <v>4.2760566673861069</v>
       </c>
       <c r="B247">
-        <v>2.1133663044429345</v>
+        <v>7.1283107887911648</v>
       </c>
     </row>
     <row r="248">
@@ -2130,7 +2194,7 @@
         <v>4.2935099599060509</v>
       </c>
       <c r="B248">
-        <v>2.1020009859719901</v>
+        <v>7.0895025310679962</v>
       </c>
     </row>
     <row r="249">
@@ -2138,7 +2202,7 @@
         <v>4.310963252425994</v>
       </c>
       <c r="B249">
-        <v>2.0906839028158357</v>
+        <v>7.0508467125059111</v>
       </c>
     </row>
     <row r="250">
@@ -2146,7 +2210,7 @@
         <v>4.3284165449459371</v>
       </c>
       <c r="B250">
-        <v>2.0794144481427903</v>
+        <v>7.0123416153451661</v>
       </c>
     </row>
     <row r="251">
@@ -2154,7 +2218,7 @@
         <v>4.3458698374658802</v>
       </c>
       <c r="B251">
-        <v>2.0681918687925203</v>
+        <v>6.9739850334283027</v>
       </c>
     </row>
     <row r="252">
@@ -2162,7 +2226,7 @@
         <v>4.3633231299858233</v>
       </c>
       <c r="B252">
-        <v>2.0570152691665422</v>
+        <v>6.9357742852493702</v>
       </c>
     </row>
     <row r="253">
@@ -2170,7 +2234,7 @@
         <v>4.3807764225057673</v>
       </c>
       <c r="B253">
-        <v>2.0458836148339845</v>
+        <v>6.8977062260529083</v>
       </c>
     </row>
     <row r="254">
@@ -2178,7 +2242,7 @@
         <v>4.3982297150257104</v>
       </c>
       <c r="B254">
-        <v>2.03479573586137</v>
+        <v>6.8597772590119144</v>
       </c>
     </row>
     <row r="255">
@@ -2186,7 +2250,7 @@
         <v>4.4156830075456535</v>
       </c>
       <c r="B255">
-        <v>2.0237503298747668</v>
+        <v>6.8219833455126828</v>
       </c>
     </row>
     <row r="256">
@@ -2194,7 +2258,7 @@
         <v>4.4331363000655974</v>
       </c>
       <c r="B256">
-        <v>2.0127459648621953</v>
+        <v>6.7843200145728231</v>
       </c>
     </row>
     <row r="257">
@@ -2202,7 +2266,7 @@
         <v>4.4505895925855405</v>
       </c>
       <c r="B257">
-        <v>2.001781081723828</v>
+        <v>6.7467823714176198</v>
       </c>
     </row>
     <row r="258">
@@ -2210,7 +2274,7 @@
         <v>4.4680428851054836</v>
       </c>
       <c r="B258">
-        <v>1.9908539965770715</v>
+        <v>6.7093651052383958</v>
       </c>
     </row>
     <row r="259">
@@ -2218,7 +2282,7 @@
         <v>4.4854961776254267</v>
       </c>
       <c r="B259">
-        <v>1.9799629028233079</v>
+        <v>6.6720624961554718</v>
       </c>
     </row>
     <row r="260">
@@ -2226,7 +2290,7 @@
         <v>4.5029494701453698</v>
       </c>
       <c r="B260">
-        <v>1.969105872982629</v>
+        <v>6.6348684214068987</v>
       </c>
     </row>
     <row r="261">
@@ -2234,7 +2298,7 @@
         <v>4.5204027626653129</v>
       </c>
       <c r="B261">
-        <v>1.9582808603025428</v>
+        <v>6.5977763607828557</v>
       </c>
     </row>
     <row r="262">
@@ -2242,7 +2306,7 @@
         <v>4.5378560551852569</v>
       </c>
       <c r="B262">
-        <v>1.9474857001463675</v>
+        <v>6.5607794013248082</v>
       </c>
     </row>
     <row r="263">
@@ -2250,7 +2314,7 @@
         <v>4.5553093477052</v>
       </c>
       <c r="B263">
-        <v>1.936718111166543</v>
+        <v>6.5238702413068719</v>
       </c>
     </row>
     <row r="264">
@@ -2258,7 +2322,7 @@
         <v>4.572762640225144</v>
       </c>
       <c r="B264">
-        <v>1.9259756962678802</v>
+        <v>6.487041193516105</v>
       </c>
     </row>
     <row r="265">
@@ -2266,7 +2330,7 @@
         <v>4.5902159327450871</v>
       </c>
       <c r="B265">
-        <v>1.9152559433653888</v>
+        <v>6.4502841878471999</v>
       </c>
     </row>
     <row r="266">
@@ -2274,7 +2338,7 @@
         <v>4.6076692252650302</v>
       </c>
       <c r="B266">
-        <v>1.9045562259410127</v>
+        <v>6.4135907732260096</v>
       </c>
     </row>
     <row r="267">
@@ -2282,7 +2346,7 @@
         <v>4.6251225177849733</v>
       </c>
       <c r="B267">
-        <v>1.8938738034033062</v>
+        <v>6.3769521188753444</v>
       </c>
     </row>
     <row r="268">
@@ -2290,7 +2354,7 @@
         <v>4.6425758103049164</v>
       </c>
       <c r="B268">
-        <v>1.8832058212538398</v>
+        <v>6.3403590149356273</v>
       </c>
     </row>
     <row r="269">
@@ -2298,7 +2362,7 @@
         <v>4.6600291028248595</v>
       </c>
       <c r="B269">
-        <v>1.8725493110637277</v>
+        <v>6.3038018724517357</v>
       </c>
     </row>
     <row r="270">
@@ -2306,7 +2370,7 @@
         <v>4.6774823953448026</v>
       </c>
       <c r="B270">
-        <v>1.8619011902635219</v>
+        <v>6.2672707227367912</v>
       </c>
     </row>
     <row r="271">
@@ -2314,7 +2378,7 @@
         <v>4.6949356878647466</v>
       </c>
       <c r="B271">
-        <v>1.8512582617493876</v>
+        <v>6.2307552161225876</v>
       </c>
     </row>
     <row r="272">
@@ -2322,7 +2386,7 @@
         <v>4.7123889803846897</v>
       </c>
       <c r="B272">
-        <v>1.8406172133082102</v>
+        <v>6.194244620105458</v>
       </c>
     </row>
     <row r="273">
@@ -2330,7 +2394,7 @@
         <v>4.7298422729046328</v>
       </c>
       <c r="B273">
-        <v>1.8299746168640869</v>
+        <v>6.157727816895715</v>
       </c>
     </row>
     <row r="274">
@@ -2338,7 +2402,7 @@
         <v>4.7472955654245768</v>
       </c>
       <c r="B274">
-        <v>1.8193269275484076</v>
+        <v>6.1211933003779464</v>
       </c>
     </row>
     <row r="275">
@@ -2346,7 +2410,7 @@
         <v>4.7647488579445199</v>
       </c>
       <c r="B275">
-        <v>1.8086704825954458</v>
+        <v>6.0846291724885262</v>
       </c>
     </row>
     <row r="276">
@@ -2354,7 +2418,7 @@
         <v>4.782202150464463</v>
       </c>
       <c r="B276">
-        <v>1.7980015000652996</v>
+        <v>6.0480231390163839</v>
       </c>
     </row>
     <row r="277">
@@ -2362,7 +2426,7 @@
         <v>4.7996554429844061</v>
       </c>
       <c r="B277">
-        <v>1.7873160773956269</v>
+        <v>6.011362504831804</v>
       </c>
     </row>
     <row r="278">
@@ -2370,7 +2434,7 @@
         <v>4.8171087355043491</v>
       </c>
       <c r="B278">
-        <v>1.7766101897836446</v>
+        <v>5.9746341685480102</v>
       </c>
     </row>
     <row r="279">
@@ -2378,7 +2442,7 @@
         <v>4.8345620280242931</v>
       </c>
       <c r="B279">
-        <v>1.7658796883994876</v>
+        <v>5.9378246166191424</v>
       </c>
     </row>
     <row r="280">
@@ -2386,7 +2450,7 @@
         <v>4.8520153205442362</v>
       </c>
       <c r="B280">
-        <v>1.7551202984319232</v>
+        <v>5.9009199168778101</v>
       </c>
     </row>
     <row r="281">
@@ -2394,7 +2458,7 @@
         <v>4.8694686130641793</v>
       </c>
       <c r="B281">
-        <v>1.7443276169673352</v>
+        <v>5.863905711515141</v>
       </c>
     </row>
     <row r="282">
@@ -2402,7 +2466,7 @@
         <v>4.8869219055841224</v>
       </c>
       <c r="B282">
-        <v>1.7334971107025479</v>
+        <v>5.826767209505098</v>
       </c>
     </row>
     <row r="283">
@@ -2410,7 +2474,7 @@
         <v>4.9043751981040655</v>
       </c>
       <c r="B283">
-        <v>1.7226241134921201</v>
+        <v>5.7894891784750211</v>
       </c>
     </row>
     <row r="284">
@@ -2418,7 +2482,7 @@
         <v>4.9218284906240086</v>
       </c>
       <c r="B284">
-        <v>1.7117038237304683</v>
+        <v>5.7520559360233996</v>
       </c>
     </row>
     <row r="285">
@@ -2426,7 +2490,7 @@
         <v>4.9392817831439526</v>
       </c>
       <c r="B285">
-        <v>1.7007313015691481</v>
+        <v>5.7144513404858257</v>
       </c>
     </row>
     <row r="286">
@@ -2434,7 +2498,7 @@
         <v>4.9567350756638957</v>
       </c>
       <c r="B286">
-        <v>1.6897014659694198</v>
+        <v>5.6766587811493059</v>
       </c>
     </row>
     <row r="287">
@@ -2442,7 +2506,7 @@
         <v>4.9741883681838397</v>
       </c>
       <c r="B287">
-        <v>1.6786090915902783</v>
+        <v>5.6386611679153456</v>
       </c>
     </row>
     <row r="288">
@@ -2450,7 +2514,7 @@
         <v>4.9916416607037828</v>
       </c>
       <c r="B288">
-        <v>1.6674488055118912</v>
+        <v>5.6004409204113514</v>
       </c>
     </row>
     <row r="289">
@@ -2458,7 +2522,7 @@
         <v>5.0090949532237259</v>
       </c>
       <c r="B289">
-        <v>1.6562150837944432</v>
+        <v>5.561979956550096</v>
       </c>
     </row>
     <row r="290">
@@ -2466,7 +2530,7 @@
         <v>5.026548245743669</v>
       </c>
       <c r="B290">
-        <v>1.6449022478722621</v>
+        <v>5.5232596805365315</v>
       </c>
     </row>
     <row r="291">
@@ -2474,7 +2538,7 @@
         <v>5.0440015382636121</v>
       </c>
       <c r="B291">
-        <v>1.6335044607831357</v>
+        <v>5.4842609703213352</v>
       </c>
     </row>
     <row r="292">
@@ -2482,7 +2546,7 @@
         <v>5.0614548307835552</v>
       </c>
       <c r="B292">
-        <v>1.622015723232658</v>
+        <v>5.4449641645003091</v>
       </c>
     </row>
     <row r="293">
@@ -2490,7 +2554,7 @@
         <v>5.0789081233034983</v>
       </c>
       <c r="B293">
-        <v>1.6104298694934547</v>
+        <v>5.4053490486587314</v>
       </c>
     </row>
     <row r="294">
@@ -2498,7 +2562,7 @@
         <v>5.0963614158234423</v>
       </c>
       <c r="B294">
-        <v>1.5987405631392406</v>
+        <v>5.3653948411601533</v>
       </c>
     </row>
     <row r="295">
@@ -2506,7 +2570,7 @@
         <v>5.1138147083433854</v>
       </c>
       <c r="B295">
-        <v>1.586941292613554</v>
+        <v>5.3250801783785908</v>
       </c>
     </row>
     <row r="296">
@@ -2514,7 +2578,7 @@
         <v>5.1312680008633293</v>
       </c>
       <c r="B296">
-        <v>1.5750253666332636</v>
+        <v>5.2843830993740202</v>
       </c>
     </row>
     <row r="297">
@@ -2522,7 +2586,7 @@
         <v>5.1487212933832724</v>
       </c>
       <c r="B297">
-        <v>1.5629859094268879</v>
+        <v>5.2432810300107597</v>
       </c>
     </row>
     <row r="298">
@@ -2530,7 +2594,7 @@
         <v>5.1661745859032155</v>
       </c>
       <c r="B298">
-        <v>1.5508158558079397</v>
+        <v>5.2017507665188507</v>
       </c>
     </row>
     <row r="299">
@@ -2538,7 +2602,7 @@
         <v>5.1836278784231586</v>
       </c>
       <c r="B299">
-        <v>1.5385079460837134</v>
+        <v>5.1597684584992436</v>
       </c>
     </row>
     <row r="300">
@@ -2546,7 +2610,7 @@
         <v>5.2010811709431017</v>
       </c>
       <c r="B300">
-        <v>1.5260547207999731</v>
+        <v>5.1173095913736217</v>
       </c>
     </row>
     <row r="301">
@@ -2554,7 +2618,7 @@
         <v>5.2185344634630448</v>
       </c>
       <c r="B301">
-        <v>1.5134485153223676</v>
+        <v>5.0743489682808844</v>
       </c>
     </row>
     <row r="302">
@@ -2562,7 +2626,7 @@
         <v>5.2359877559829888</v>
       </c>
       <c r="B302">
-        <v>1.500681454255467</v>
+        <v>5.0308606914224958</v>
       </c>
     </row>
     <row r="303">
@@ -2570,7 +2634,7 @@
         <v>5.2534410485029319</v>
       </c>
       <c r="B303">
-        <v>1.487745445700811</v>
+        <v>4.9868181428604395</v>
       </c>
     </row>
     <row r="304">
@@ -2578,7 +2642,7 @@
         <v>5.270894341022875</v>
       </c>
       <c r="B304">
-        <v>1.4746321753554241</v>
+        <v>4.9421939647717466</v>
       </c>
     </row>
     <row r="305">
@@ -2586,7 +2650,7 @@
         <v>5.2883476335428181</v>
       </c>
       <c r="B305">
-        <v>1.4613331004528263</v>
+        <v>4.8969600391652977</v>
       </c>
     </row>
     <row r="306">
@@ -2594,7 +2658,7 @@
         <v>5.3058009260627612</v>
       </c>
       <c r="B306">
-        <v>1.4478394435488884</v>
+        <v>4.851087467067674</v>
       </c>
     </row>
     <row r="307">
@@ -2602,7 +2666,7 @@
         <v>5.3232542185827052</v>
       </c>
       <c r="B307">
-        <v>1.4341421861553252</v>
+        <v>4.8045465471861686</v>
       </c>
     </row>
     <row r="308">
@@ -2610,7 +2674,7 @@
         <v>5.3407075111026483</v>
       </c>
       <c r="B308">
-        <v>1.4202320622241449</v>
+        <v>4.7573067540587415</v>
       </c>
     </row>
     <row r="309">
@@ -2618,7 +2682,7 @@
         <v>5.3581608036225914</v>
       </c>
       <c r="B309">
-        <v>1.4060995514869761</v>
+        <v>4.7093367157026105</v>
       </c>
     </row>
     <row r="310">
@@ -2626,7 +2690,7 @@
         <v>5.3756140961425354</v>
       </c>
       <c r="B310">
-        <v>1.3917348726537548</v>
+        <v>4.6606041907748965</v>
       </c>
     </row>
     <row r="311">
@@ -2634,7 +2698,7 @@
         <v>5.3930673886624785</v>
       </c>
       <c r="B311">
-        <v>1.3771279764760198</v>
+        <v>4.6110760452612416</v>
       </c>
     </row>
     <row r="312">
@@ -2642,7 +2706,7 @@
         <v>5.4105206811824216</v>
       </c>
       <c r="B312">
-        <v>1.3622685386807749</v>
+        <v>4.5607182287104671</v>
       </c>
     </row>
     <row r="313">
@@ -2650,7 +2714,7 @@
         <v>5.4279739737023647</v>
       </c>
       <c r="B313">
-        <v>1.3471459527817242</v>
+        <v>4.5094957500360771</v>
       </c>
     </row>
     <row r="314">
@@ -2658,7 +2722,7 @@
         <v>5.4454272662223078</v>
       </c>
       <c r="B314">
-        <v>1.3317493227756596</v>
+        <v>4.4573726529085196</v>
       </c>
     </row>
     <row r="315">
@@ -2666,7 +2730,7 @@
         <v>5.4628805587422509</v>
       </c>
       <c r="B315">
-        <v>1.3160674557327097</v>
+        <v>4.4043119907649748</v>
       </c>
     </row>
     <row r="316">
@@ -2674,7 +2738,7 @@
         <v>5.480333851262194</v>
       </c>
       <c r="B316">
-        <v>1.3000888542903215</v>
+        <v>4.3502758014672391</v>
       </c>
     </row>
     <row r="317">
@@ -2682,7 +2746,7 @@
         <v>5.497787143782138</v>
       </c>
       <c r="B317">
-        <v>1.2838017090620415</v>
+        <v>4.2952250816419904</v>
       </c>
     </row>
     <row r="318">
@@ -2690,7 +2754,7 @@
         <v>5.5152404363020811</v>
       </c>
       <c r="B318">
-        <v>1.2671938909734164</v>
+        <v>4.2391197607417181</v>
       </c>
     </row>
     <row r="319">
@@ -2698,7 +2762,7 @@
         <v>5.532693728822025</v>
       </c>
       <c r="B319">
-        <v>1.250252943538831</v>
+        <v>4.1819186748693982</v>
       </c>
     </row>
     <row r="320">
@@ -2706,7 +2770,7 @@
         <v>5.5501470213419681</v>
       </c>
       <c r="B320">
-        <v>1.2329660750946101</v>
+        <v>4.1235795404147488</v>
       </c>
     </row>
     <row r="321">
@@ -2714,7 +2778,7 @@
         <v>5.5676003138619112</v>
       </c>
       <c r="B321">
-        <v>1.2153201510053724</v>
+        <v>4.0640589275552115</v>
       </c>
     </row>
     <row r="322">
@@ -2722,7 +2786,7 @@
         <v>5.5850536063818543</v>
       </c>
       <c r="B322">
-        <v>1.1973016858624357</v>
+        <v>4.003312233680572</v>
       </c>
     </row>
     <row r="323">
@@ -2730,7 +2794,7 @@
         <v>5.6025068989017974</v>
       </c>
       <c r="B323">
-        <v>1.1788968356951139</v>
+        <v>3.9412936568066126</v>
       </c>
     </row>
     <row r="324">
@@ -2738,7 +2802,7 @@
         <v>5.6199601914217405</v>
       </c>
       <c r="B324">
-        <v>1.1600913902177075</v>
+        <v>3.8779561690494839</v>
       </c>
     </row>
     <row r="325">
@@ -2746,7 +2810,7 @@
         <v>5.6374134839416845</v>
       </c>
       <c r="B325">
-        <v>1.1408707651374315</v>
+        <v>3.8132514902402082</v>
       </c>
     </row>
     <row r="326">
@@ -2754,7 +2818,7 @@
         <v>5.6548667764616276</v>
       </c>
       <c r="B326">
-        <v>1.1212199945509105</v>
+        <v>3.7471300617663861</v>
       </c>
     </row>
     <row r="327">
@@ -2762,7 +2826,7 @@
         <v>5.6723200689815707</v>
       </c>
       <c r="B327">
-        <v>1.1011237234594808</v>
+        <v>3.6795410207364747</v>
       </c>
     </row>
     <row r="328">
@@ -2770,7 +2834,7 @@
         <v>5.6897733615015138</v>
       </c>
       <c r="B328">
-        <v>1.0805662004364962</v>
+        <v>3.6104321745714523</v>
       </c>
     </row>
     <row r="329">
@@ -2778,7 +2842,7 @@
         <v>5.7072266540214578</v>
       </c>
       <c r="B329">
-        <v>1.0595312704828048</v>
+        <v>3.5397499761381641</v>
       </c>
     </row>
     <row r="330">
@@ -2786,7 +2850,7 @@
         <v>5.7246799465414</v>
       </c>
       <c r="B330">
-        <v>1.0380023681098549</v>
+        <v>3.4674394995491595</v>
       </c>
     </row>
     <row r="331">
@@ -2794,7 +2858,7 @@
         <v>5.742133239061344</v>
       </c>
       <c r="B331">
-        <v>1.0159625106934642</v>
+        <v>3.393444416765242</v>
       </c>
     </row>
     <row r="332">
@@ -2802,7 +2866,7 @@
         <v>5.7595865315812871</v>
       </c>
       <c r="B332">
-        <v>0.99339429214498465</v>
+        <v>3.3177069751487864</v>
       </c>
     </row>
     <row r="333">
@@ -2810,7 +2874,7 @@
         <v>5.7770398241012311</v>
       </c>
       <c r="B333">
-        <v>0.97027987695060891</v>
+        <v>3.240167976128701</v>
       </c>
     </row>
     <row r="334">
@@ -2818,7 +2882,7 @@
         <v>5.7944931166211742</v>
       </c>
       <c r="B334">
-        <v>0.94660099463396075</v>
+        <v>3.1607667551519838</v>
       </c>
     </row>
     <row r="335">
@@ -2826,7 +2890,7 @@
         <v>5.8119464091411173</v>
       </c>
       <c r="B335">
-        <v>0.92233893470155193</v>
+        <v>3.0794411631110354</v>
       </c>
     </row>
     <row r="336">
@@ -2834,7 +2898,7 @@
         <v>5.8293997016610613</v>
       </c>
       <c r="B336">
-        <v>0.8974745421356497</v>
+        <v>2.9961275494517539</v>
       </c>
     </row>
     <row r="337">
@@ -2842,7 +2906,7 @@
         <v>5.8468529941810035</v>
       </c>
       <c r="B337">
-        <v>0.87198821350428923</v>
+        <v>2.9107607471841188</v>
       </c>
     </row>
     <row r="338">
@@ -2850,7 +2914,7 @@
         <v>5.8643062867009474</v>
       </c>
       <c r="B338">
-        <v>0.84585989376357495</v>
+        <v>2.8232740600342612</v>
       </c>
     </row>
     <row r="339">
@@ -2858,7 +2922,7 @@
         <v>5.8817595792208897</v>
       </c>
       <c r="B339">
-        <v>0.81906907383342531</v>
+        <v>2.7335992519963526</v>
       </c>
     </row>
     <row r="340">
@@ -2866,7 +2930,7 @@
         <v>5.8992128717408336</v>
       </c>
       <c r="B340">
-        <v>0.79159478903386127</v>
+        <v>2.6416665395617089</v>
       </c>
     </row>
     <row r="341">
@@ -2874,7 +2938,7 @@
         <v>5.9166661642607767</v>
       </c>
       <c r="B341">
-        <v>0.76341561847570527</v>
+        <v>2.5474045869242912</v>
       </c>
     </row>
     <row r="342">
@@ -2882,7 +2946,7 @@
         <v>5.9341194567807207</v>
       </c>
       <c r="B342">
-        <v>0.73450968550628659</v>
+        <v>2.4507405044834059</v>
       </c>
     </row>
     <row r="343">
@@ -2890,7 +2954,7 @@
         <v>5.9515727493006629</v>
       </c>
       <c r="B343">
-        <v>0.70485465931805602</v>
+        <v>2.3515998509880101</v>
       </c>
     </row>
     <row r="344">
@@ -2898,7 +2962,7 @@
         <v>5.9690260418206069</v>
       </c>
       <c r="B344">
-        <v>0.67442775783566167</v>
+        <v>2.2499066396916554</v>
       </c>
     </row>
     <row r="345">
@@ -2906,7 +2970,7 @@
         <v>5.9864793343405509</v>
       </c>
       <c r="B345">
-        <v>0.64320575200502705</v>
+        <v>2.1455833489129814</v>
       </c>
     </row>
     <row r="346">
@@ -2914,7 +2978,7 @@
         <v>6.0039326268604931</v>
       </c>
       <c r="B346">
-        <v>0.61116497161627836</v>
+        <v>2.0385509374235391</v>
       </c>
     </row>
     <row r="347">
@@ -2922,7 +2986,7 @@
         <v>6.0213859193804371</v>
       </c>
       <c r="B347">
-        <v>0.57828131280121309</v>
+        <v>1.9287288651134626</v>
       </c>
     </row>
     <row r="348">
@@ -2930,7 +2994,7 @@
         <v>6.0388392119003802</v>
       </c>
       <c r="B348">
-        <v>0.54453024735500966</v>
+        <v>1.8160351194147963</v>
       </c>
     </row>
     <row r="349">
@@ -2938,7 +3002,7 @@
         <v>6.0562925044203233</v>
       </c>
       <c r="B349">
-        <v>0.5098868340413456</v>
+        <v>1.7003862479931993</v>
       </c>
     </row>
     <row r="350">
@@ -2946,7 +3010,7 @@
         <v>6.0737457969402664</v>
       </c>
       <c r="B350">
-        <v>0.47432573204986095</v>
+        <v>1.5816973982507274</v>
       </c>
     </row>
     <row r="351">
@@ -2954,7 +3018,7 @@
         <v>6.0911990894602104</v>
       </c>
       <c r="B351">
-        <v>0.43782121678492625</v>
+        <v>1.4598823642153487</v>
       </c>
     </row>
     <row r="352">
@@ -2962,7 +3026,7 @@
         <v>6.1086523819801526</v>
       </c>
       <c r="B352">
-        <v>0.40034719817511205</v>
+        <v>1.3348536414272958</v>
       </c>
     </row>
     <row r="353">
@@ -2970,7 +3034,7 @@
         <v>6.1261056745000966</v>
       </c>
       <c r="B353">
-        <v>0.36187724170313151</v>
+        <v>1.2065224904668126</v>
       </c>
     </row>
     <row r="354">
@@ -2978,7 +3042,7 @@
         <v>6.1435589670200397</v>
       </c>
       <c r="B354">
-        <v>0.32238459236701056</v>
+        <v>1.074799009804519</v>
       </c>
     </row>
     <row r="355">
@@ -2986,7 +3050,7 @@
         <v>6.1610122595399828</v>
       </c>
       <c r="B355">
-        <v>0.28184220179384439</v>
+        <v>0.93959221869131004</v>
       </c>
     </row>
     <row r="356">
@@ -2994,7 +3058,7 @@
         <v>6.1784655520599268</v>
       </c>
       <c r="B356">
-        <v>0.24022275873862103</v>
+        <v>0.800810150842443</v>
       </c>
     </row>
     <row r="357">
@@ -3002,7 +3066,7 @@
         <v>6.1959188445798699</v>
       </c>
       <c r="B357">
-        <v>0.19749872321135473</v>
+        <v>0.65835995970739336</v>
       </c>
     </row>
     <row r="358">
@@ -3010,7 +3074,7 @@
         <v>6.2133721370998138</v>
       </c>
       <c r="B358">
-        <v>0.15364236448651647</v>
+        <v>0.51214803615439364</v>
       </c>
     </row>
     <row r="359">
@@ -3018,7 +3082,7 @@
         <v>6.2308254296197561</v>
       </c>
       <c r="B359">
-        <v>0.10862580325932837</v>
+        <v>0.36208013943590744</v>
       </c>
     </row>
     <row r="360">
@@ -3026,7 +3090,7 @@
         <v>6.2482787221397</v>
       </c>
       <c r="B360">
-        <v>0.062421058223470882</v>
+        <v>0.20806154233728744</v>
       </c>
     </row>
     <row r="361">
@@ -3034,7 +3098,7 @@
         <v>6.2657320146596422</v>
       </c>
       <c r="B361">
-        <v>0.015000097354561003</v>
+        <v>0.049997191447030846</v>
       </c>
     </row>
     <row r="362">
@@ -3042,7 +3106,7 @@
         <v>6.2831853071795862</v>
       </c>
       <c r="B362">
-        <v>-0.033665105807584472</v>
+        <v>-0.11220811647973059</v>
       </c>
     </row>
   </sheetData>

--- a/torqueConstant.xlsx
+++ b/torqueConstant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="2">
   <si>
     <t>theta2</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -119,11 +119,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -197,6 +225,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,14 +266,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
     </row>
@@ -226,7 +282,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.1122081164797329</v>
+        <v>0.11285700598250749</v>
       </c>
     </row>
     <row r="3">
@@ -234,7 +290,7 @@
         <v>0.017453292519943295</v>
       </c>
       <c r="B3">
-        <v>-0.27864954105979556</v>
+        <v>0.28030446665412623</v>
       </c>
     </row>
     <row r="4">
@@ -242,7 +298,7 @@
         <v>0.034906585039886591</v>
       </c>
       <c r="B4">
-        <v>-0.44942198668905831</v>
+        <v>0.45216482877711039</v>
       </c>
     </row>
     <row r="5">
@@ -250,7 +306,7 @@
         <v>0.052359877559829883</v>
       </c>
       <c r="B5">
-        <v>-0.62461987175737765</v>
+        <v>0.62853927353853456</v>
       </c>
     </row>
     <row r="6">
@@ -258,7 +314,7 @@
         <v>0.069813170079773182</v>
       </c>
       <c r="B6">
-        <v>-0.80433687758788586</v>
+        <v>0.80952857221047281</v>
       </c>
     </row>
     <row r="7">
@@ -266,7 +322,7 @@
         <v>0.087266462599716474</v>
       </c>
       <c r="B7">
-        <v>-0.98866567599907296</v>
+        <v>0.99523281337233704</v>
       </c>
     </row>
     <row r="8">
@@ -274,7 +330,7 @@
         <v>0.10471975511965977</v>
       </c>
       <c r="B8">
-        <v>-1.1776976343746803</v>
+        <v>1.1857511050115388</v>
       </c>
     </row>
     <row r="9">
@@ -282,7 +338,7 @@
         <v>0.12217304763960307</v>
       </c>
       <c r="B9">
-        <v>-1.3715224971200097</v>
+        <v>1.3811812499611731</v>
       </c>
     </row>
     <row r="10">
@@ -290,7 +346,7 @@
         <v>0.13962634015954636</v>
       </c>
       <c r="B10">
-        <v>-1.5702280423832267</v>
+        <v>1.5816193930931455</v>
       </c>
     </row>
     <row r="11">
@@ -298,7 +354,7 @@
         <v>0.15707963267948966</v>
       </c>
       <c r="B11">
-        <v>-1.773899712929019</v>
+        <v>1.7871596386530235</v>
       </c>
     </row>
     <row r="12">
@@ -306,7 +362,7 @@
         <v>0.17453292519943295</v>
       </c>
       <c r="B12">
-        <v>-1.9826202200695602</v>
+        <v>1.9978936360996786</v>
       </c>
     </row>
     <row r="13">
@@ -314,7 +370,7 @@
         <v>0.19198621771937624</v>
       </c>
       <c r="B13">
-        <v>-2.196469119586105</v>
+        <v>2.2139101328014883</v>
       </c>
     </row>
     <row r="14">
@@ -322,7 +378,7 @@
         <v>0.20943951023931953</v>
       </c>
       <c r="B14">
-        <v>-2.4155223586141701</v>
+        <v>2.4352944919432633</v>
       </c>
     </row>
     <row r="15">
@@ -330,7 +386,7 @@
         <v>0.22689280275926285</v>
       </c>
       <c r="B15">
-        <v>-2.6398517925179887</v>
+        <v>2.6621281740175768</v>
       </c>
     </row>
     <row r="16">
@@ -338,7 +394,7 @@
         <v>0.24434609527920614</v>
       </c>
       <c r="B16">
-        <v>-2.8695246708466073</v>
+        <v>2.8944881803135765</v>
       </c>
     </row>
     <row r="17">
@@ -346,7 +402,7 @@
         <v>0.26179938779914941</v>
       </c>
       <c r="B17">
-        <v>-3.1046030915461307</v>
+        <v>3.1324464568794923</v>
       </c>
     </row>
     <row r="18">
@@ -354,7 +410,7 @@
         <v>0.27925268031909273</v>
       </c>
       <c r="B18">
-        <v>-3.3451434227013559</v>
+        <v>3.3760692575257378</v>
       </c>
     </row>
     <row r="19">
@@ -362,7 +418,7 @@
         <v>0.29670597283903605</v>
       </c>
       <c r="B19">
-        <v>-3.5911956911966731</v>
+        <v>3.6254164645581719</v>
       </c>
     </row>
     <row r="20">
@@ -370,7 +426,7 @@
         <v>0.31415926535897931</v>
       </c>
       <c r="B20">
-        <v>-3.8428029378220105</v>
+        <v>3.880540866090743</v>
       </c>
     </row>
     <row r="21">
@@ -378,7 +434,7 @@
         <v>0.33161255787892258</v>
       </c>
       <c r="B21">
-        <v>-4.1000005385057241</v>
+        <v>4.1414873889881836</v>
       </c>
     </row>
     <row r="22">
@@ -386,7 +442,7 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="B22">
-        <v>-4.3628154915337722</v>
+        <v>4.4082922867382361</v>
       </c>
     </row>
     <row r="23">
@@ -394,7 +450,7 @@
         <v>0.36651914291880922</v>
       </c>
       <c r="B23">
-        <v>-4.63126567081469</v>
+        <v>4.6809822818550471</v>
       </c>
     </row>
     <row r="24">
@@ -402,7 +458,7 @@
         <v>0.38397243543875248</v>
       </c>
       <c r="B24">
-        <v>-4.9053590454730918</v>
+        <v>4.959573662776001</v>
       </c>
     </row>
     <row r="25">
@@ -410,7 +466,7 @@
         <v>0.40142572795869574</v>
       </c>
       <c r="B25">
-        <v>-5.1850928663020674</v>
+        <v>5.2440713356395223</v>
       </c>
     </row>
     <row r="26">
@@ -418,7 +474,7 @@
         <v>0.41887902047863906</v>
       </c>
       <c r="B26">
-        <v>-5.4704528198771394</v>
+        <v>5.5344678318260909</v>
       </c>
     </row>
     <row r="27">
@@ -426,7 +482,7 @@
         <v>0.43633231299858238</v>
       </c>
       <c r="B27">
-        <v>-5.7614121514325642</v>
+        <v>5.8307422727138283</v>
       </c>
     </row>
     <row r="28">
@@ -434,7 +490,7 @@
         <v>0.4537856055185257</v>
       </c>
       <c r="B28">
-        <v>-6.0579307579247512</v>
+        <v>6.1328592937466624</v>
       </c>
     </row>
     <row r="29">
@@ -442,7 +498,7 @@
         <v>0.47123889803846897</v>
       </c>
       <c r="B29">
-        <v>-6.3599542530582944</v>
+        <v>6.4407679306394625</v>
       </c>
     </row>
     <row r="30">
@@ -450,7 +506,7 @@
         <v>0.48869219055841229</v>
       </c>
       <c r="B30">
-        <v>-6.6674130064281014</v>
+        <v>6.7544004713505688</v>
       </c>
     </row>
     <row r="31">
@@ -458,7 +514,7 @@
         <v>0.50614548307835561</v>
       </c>
       <c r="B31">
-        <v>-6.98022115933707</v>
+        <v>7.0736712783352438</v>
       </c>
     </row>
     <row r="32">
@@ -466,7 +522,7 @@
         <v>0.52359877559829882</v>
       </c>
       <c r="B32">
-        <v>-7.2982756202832952</v>
+        <v>7.3984755865475469</v>
       </c>
     </row>
     <row r="33">
@@ -474,7 +530,7 @@
         <v>0.54105206811824214</v>
       </c>
       <c r="B33">
-        <v>-7.6214550435754393</v>
+        <v>7.7286882836736615</v>
       </c>
     </row>
     <row r="34">
@@ -482,7 +538,7 @@
         <v>0.55850536063818546</v>
       </c>
       <c r="B34">
-        <v>-7.9496187950306556</v>
+        <v>8.0641626801422124</v>
       </c>
     </row>
     <row r="35">
@@ -490,7 +546,7 @@
         <v>0.57595865315812877</v>
       </c>
       <c r="B35">
-        <v>-8.2826059092384714</v>
+        <v>8.4047292775477693</v>
       </c>
     </row>
     <row r="36">
@@ -498,7 +554,7 @@
         <v>0.59341194567807209</v>
       </c>
       <c r="B36">
-        <v>-8.6202340434382254</v>
+        <v>8.7501945452179335</v>
       </c>
     </row>
     <row r="37">
@@ -506,7 +562,7 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="B37">
-        <v>-8.9622984336599956</v>
+        <v>9.1003397157229173</v>
       </c>
     </row>
     <row r="38">
@@ -514,7 +570,7 @@
         <v>0.62831853071795862</v>
       </c>
       <c r="B38">
-        <v>-9.3085708594219909</v>
+        <v>9.4549196111345815</v>
       </c>
     </row>
     <row r="39">
@@ -522,7 +578,7 @@
         <v>0.64577182323790194</v>
       </c>
       <c r="B39">
-        <v>-9.6587986239640831</v>
+        <v>9.8136615127507998</v>
       </c>
     </row>
     <row r="40">
@@ -530,7 +586,7 @@
         <v>0.66322511575784515</v>
       </c>
       <c r="B40">
-        <v>-10.012703557730722</v>
+        <v>10.176264087770383</v>
       </c>
     </row>
     <row r="41">
@@ -538,7 +594,7 @@
         <v>0.68067840827778847</v>
       </c>
       <c r="B41">
-        <v>-10.369981053597799</v>
+        <v>10.542396386990179</v>
       </c>
     </row>
     <row r="42">
@@ -546,7 +602,7 @@
         <v>0.69813170079773179</v>
       </c>
       <c r="B42">
-        <v>-10.730299143168612</v>
+        <v>10.911696927961124</v>
       </c>
     </row>
     <row r="43">
@@ -554,7 +610,7 @@
         <v>0.715584993317675</v>
       </c>
       <c r="B43">
-        <v>-11.093297624341538</v>
+        <v>11.283772878148429</v>
       </c>
     </row>
     <row r="44">
@@ -562,7 +618,7 @@
         <v>0.73303828583761843</v>
       </c>
       <c r="B44">
-        <v>-11.458587251271346</v>
+        <v>11.658199352467744</v>
       </c>
     </row>
     <row r="45">
@@ -570,7 +626,7 @@
         <v>0.75049157835756164</v>
       </c>
       <c r="B45">
-        <v>-11.825748998798415</v>
+        <v>12.034518839102603</v>
       </c>
     </row>
     <row r="46">
@@ -578,7 +634,7 @@
         <v>0.76794487087750496</v>
       </c>
       <c r="B46">
-        <v>-12.194333414390476</v>
+        <v>12.412240766753895</v>
       </c>
     </row>
     <row r="47">
@@ -586,7 +642,7 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="B47">
-        <v>-12.563860071609144</v>
+        <v>12.790841225456351</v>
       </c>
     </row>
     <row r="48">
@@ -594,7 +650,7 @@
         <v>0.80285145591739149</v>
       </c>
       <c r="B48">
-        <v>-12.933817140050364</v>
+        <v>13.169762851870113</v>
       </c>
     </row>
     <row r="49">
@@ -602,7 +658,7 @@
         <v>0.82030474843733492</v>
       </c>
       <c r="B49">
-        <v>-13.30366108757854</v>
+        <v>13.548414888591566</v>
       </c>
     </row>
     <row r="50">
@@ -610,7 +666,7 @@
         <v>0.83775804095727813</v>
       </c>
       <c r="B50">
-        <v>-13.672816531435812</v>
+        <v>13.926173425623107</v>
       </c>
     </row>
     <row r="51">
@@ -618,7 +674,7 @@
         <v>0.85521133347722145</v>
       </c>
       <c r="B51">
-        <v>-14.040676255411547</v>
+        <v>14.302381830811314</v>
       </c>
     </row>
     <row r="52">
@@ -626,7 +682,7 @@
         <v>0.87266462599716477</v>
       </c>
       <c r="B52">
-        <v>-14.406601410648268</v>
+        <v>14.676351374931013</v>
       </c>
     </row>
     <row r="53">
@@ -634,7 +690,7 @@
         <v>0.89011791851710798</v>
       </c>
       <c r="B53">
-        <v>-14.769921917783481</v>
+        <v>15.047362056283813</v>
       </c>
     </row>
     <row r="54">
@@ -642,7 +698,7 @@
         <v>0.90757121103705141</v>
       </c>
       <c r="B54">
-        <v>-15.129937087926001</v>
+        <v>15.41466362930235</v>
       </c>
     </row>
     <row r="55">
@@ -650,7 +706,7 @@
         <v>0.92502450355699462</v>
       </c>
       <c r="B55">
-        <v>-15.485916479391252</v>
+        <v>15.777476841787017</v>
       </c>
     </row>
     <row r="56">
@@ -658,7 +714,7 @@
         <v>0.94247779607693793</v>
       </c>
       <c r="B56">
-        <v>-15.837101006130109</v>
+        <v>16.134994886082968</v>
       </c>
     </row>
     <row r="57">
@@ -666,7 +722,7 @@
         <v>0.95993108859688125</v>
       </c>
       <c r="B57">
-        <v>-16.182704312353579</v>
+        <v>16.486385070708646</v>
       </c>
     </row>
     <row r="58">
@@ -674,7 +730,7 @@
         <v>0.97738438111682457</v>
       </c>
       <c r="B58">
-        <v>-16.52191442596958</v>
+        <v>16.830790720576871</v>
       </c>
     </row>
     <row r="59">
@@ -682,7 +738,7 @@
         <v>0.99483767363676778</v>
       </c>
       <c r="B59">
-        <v>-16.853895701115892</v>
+        <v>17.167333315835982</v>
       </c>
     </row>
     <row r="60">
@@ -690,7 +746,7 @@
         <v>1.0122909661567112</v>
       </c>
       <c r="B60">
-        <v>-17.177791057325724</v>
+        <v>17.495114881262168</v>
       </c>
     </row>
     <row r="61">
@@ -698,7 +754,7 @@
         <v>1.0297442586766543</v>
       </c>
       <c r="B61">
-        <v>-17.49272451974576</v>
+        <v>17.813220639752441</v>
       </c>
     </row>
     <row r="62">
@@ -706,7 +762,7 @@
         <v>1.0471975511965976</v>
       </c>
       <c r="B62">
-        <v>-17.797804061408304</v>
+        <v>18.120721944463821</v>
       </c>
     </row>
     <row r="63">
@@ -714,7 +770,7 @@
         <v>1.064650843716541</v>
       </c>
       <c r="B63">
-        <v>-18.092124744914738</v>
+        <v>18.416679504166247</v>
       </c>
     </row>
     <row r="64">
@@ -722,7 +778,7 @@
         <v>1.0821041362364843</v>
       </c>
       <c r="B64">
-        <v>-18.374772157103902</v>
+        <v>18.70014691510276</v>
       </c>
     </row>
     <row r="65">
@@ -730,7 +786,7 @@
         <v>1.0995574287564276</v>
       </c>
       <c r="B65">
-        <v>-18.644826126435799</v>
+        <v>18.97017450981307</v>
       </c>
     </row>
     <row r="66">
@@ -738,7 +794,7 @@
         <v>1.1170107212763709</v>
       </c>
       <c r="B66">
-        <v>-18.901364708998056</v>
+        <v>19.225813528809372</v>
       </c>
     </row>
     <row r="67">
@@ -746,7 +802,7 @@
         <v>1.1344640137963142</v>
       </c>
       <c r="B67">
-        <v>-19.143468425300924</v>
+        <v>19.466120614649999</v>
       </c>
     </row>
     <row r="68">
@@ -754,7 +810,7 @@
         <v>1.1519173063162575</v>
       </c>
       <c r="B68">
-        <v>-19.370224726413991</v>
+        <v>19.690162619933648</v>
       </c>
     </row>
     <row r="69">
@@ -762,7 +818,7 @@
         <v>1.1693705988362006</v>
       </c>
       <c r="B69">
-        <v>-19.580732664541451</v>
+        <v>19.897021711277205</v>
       </c>
     </row>
     <row r="70">
@@ -770,7 +826,7 @@
         <v>1.1868238913561442</v>
       </c>
       <c r="B70">
-        <v>-19.774107739845583</v>
+        <v>20.085800740824684</v>
       </c>
     </row>
     <row r="71">
@@ -778,7 +834,7 @@
         <v>1.2042771838760873</v>
       </c>
       <c r="B71">
-        <v>-19.949486892205027</v>
+        <v>20.255628845753836</v>
       </c>
     </row>
     <row r="72">
@@ -786,7 +842,7 @@
         <v>1.2217304763960306</v>
       </c>
       <c r="B72">
-        <v>-20.106033603628841</v>
+        <v>20.405667225173648</v>
       </c>
     </row>
     <row r="73">
@@ -794,7 +850,7 @@
         <v>1.2391837689159739</v>
       </c>
       <c r="B73">
-        <v>-20.242943074225842</v>
+        <v>20.535115033340428</v>
       </c>
     </row>
     <row r="74">
@@ -802,7 +858,7 @@
         <v>1.2566370614359172</v>
       </c>
       <c r="B74">
-        <v>-20.359447431950834</v>
+        <v>20.643215318854658</v>
       </c>
     </row>
     <row r="75">
@@ -810,7 +866,7 @@
         <v>1.2740903539558606</v>
       </c>
       <c r="B75">
-        <v>-20.454820933823846</v>
+        <v>20.729260931962802</v>
       </c>
     </row>
     <row r="76">
@@ -818,7 +874,7 @@
         <v>1.2915436464758039</v>
       </c>
       <c r="B76">
-        <v>-20.528385113976551</v>
+        <v>20.792600316710903</v>
       </c>
     </row>
     <row r="77">
@@ -826,7 +882,7 @@
         <v>1.3089969389957472</v>
       </c>
       <c r="B77">
-        <v>-20.579513831771351</v>
+        <v>20.832643101781489</v>
       </c>
     </row>
     <row r="78">
@@ -834,7 +890,7 @@
         <v>1.3264502315156903</v>
       </c>
       <c r="B78">
-        <v>-20.607638171437618</v>
+        <v>20.84886540355339</v>
       </c>
     </row>
     <row r="79">
@@ -842,7 +898,7 @@
         <v>1.3439035240356338</v>
       </c>
       <c r="B79">
-        <v>-20.612251143264064</v>
+        <v>20.840814757263296</v>
       </c>
     </row>
     <row r="80">
@@ -850,7 +906,7 @@
         <v>1.3613568165555769</v>
       </c>
       <c r="B80">
-        <v>-20.592912135484422</v>
+        <v>20.80811459699499</v>
       </c>
     </row>
     <row r="81">
@@ -858,7 +914,7 @@
         <v>1.3788101090755203</v>
       </c>
       <c r="B81">
-        <v>-20.549251065698876</v>
+        <v>20.750468212322858</v>
       </c>
     </row>
     <row r="82">
@@ -866,7 +922,7 @@
         <v>1.3962634015954636</v>
       </c>
       <c r="B82">
-        <v>-20.480972181099013</v>
+        <v>20.66766211845491</v>
       </c>
     </row>
     <row r="83">
@@ -874,7 +930,7 @@
         <v>1.4137166941154069</v>
       </c>
       <c r="B83">
-        <v>-20.387857457998535</v>
+        <v>20.559568787244796</v>
       </c>
     </row>
     <row r="84">
@@ -882,7 +938,7 @@
         <v>1.43116998663535</v>
       </c>
       <c r="B84">
-        <v>-20.269769553295369</v>
+        <v>20.426148698036251</v>
       </c>
     </row>
     <row r="85">
@@ -890,7 +946,7 @@
         <v>1.4486232791552935</v>
       </c>
       <c r="B85">
-        <v>-20.126654263550783</v>
+        <v>20.267451679521074</v>
       </c>
     </row>
     <row r="86">
@@ -898,7 +954,7 @@
         <v>1.4660765716752369</v>
       </c>
       <c r="B86">
-        <v>-19.958542451385455</v>
+        <v>20.083617526206652</v>
       </c>
     </row>
     <row r="87">
@@ -906,7 +962,7 @@
         <v>1.4835298641951802</v>
       </c>
       <c r="B87">
-        <v>-19.765551403846882</v>
+        <v>19.874875885316865</v>
       </c>
     </row>
     <row r="88">
@@ -914,7 +970,7 @@
         <v>1.5009831567151233</v>
       </c>
       <c r="B88">
-        <v>-19.54788559324534</v>
+        <v>19.641545421654392</v>
       </c>
     </row>
     <row r="89">
@@ -922,7 +978,7 @@
         <v>1.5184364492350666</v>
       </c>
       <c r="B89">
-        <v>-19.30583681760092</v>
+        <v>19.384032278857148</v>
       </c>
     </row>
     <row r="90">
@@ -930,7 +986,7 @@
         <v>1.5358897417550099</v>
       </c>
       <c r="B90">
-        <v>-19.039783705179712</v>
+        <v>19.102827865375254</v>
       </c>
     </row>
     <row r="91">
@@ -938,7 +994,7 @@
         <v>1.5533430342749535</v>
       </c>
       <c r="B91">
-        <v>-18.750190575477045</v>
+        <v>18.798506002222467</v>
       </c>
     </row>
     <row r="92">
@@ -946,7 +1002,7 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="B92">
-        <v>-18.437605657269174</v>
+        <v>18.471719477021868</v>
       </c>
     </row>
     <row r="93">
@@ -954,7 +1010,7 @@
         <v>1.5882496193148399</v>
       </c>
       <c r="B93">
-        <v>-18.102658672822741</v>
+        <v>18.123196055023367</v>
       </c>
     </row>
     <row r="94">
@@ -962,7 +1018,7 @@
         <v>1.605702911834783</v>
       </c>
       <c r="B94">
-        <v>-17.746057805836973</v>
+        <v>17.753734002616447</v>
       </c>
     </row>
     <row r="95">
@@ -970,7 +1026,7 @@
         <v>1.6231562043547263</v>
       </c>
       <c r="B95">
-        <v>-17.368586079007972</v>
+        <v>17.364197182427571</v>
       </c>
     </row>
     <row r="96">
@@ -978,7 +1034,7 @@
         <v>1.6406094968746698</v>
       </c>
       <c r="B96">
-        <v>-16.971097175064696</v>
+        <v>16.955509781439421</v>
       </c>
     </row>
     <row r="97">
@@ -986,7 +1042,7 @@
         <v>1.6580627893946132</v>
       </c>
       <c r="B97">
-        <v>-16.55451074255453</v>
+        <v>16.528650734777948</v>
       </c>
     </row>
     <row r="98">
@@ -994,7 +1050,7 @@
         <v>1.6755160819145563</v>
       </c>
       <c r="B98">
-        <v>-16.119807234399104</v>
+        <v>16.084647907985492</v>
       </c>
     </row>
     <row r="99">
@@ -1002,7 +1058,7 @@
         <v>1.6929693744344996</v>
       </c>
       <c r="B99">
-        <v>-15.668022333153354</v>
+        <v>15.624572099837307</v>
       </c>
     </row>
     <row r="100">
@@ -1010,7 +1066,7 @@
         <v>1.7104226669544429</v>
       </c>
       <c r="B100">
-        <v>-15.200241021871607</v>
+        <v>15.149530926183056</v>
       </c>
     </row>
     <row r="101">
@@ -1018,7 +1074,7 @@
         <v>1.7278759594743864</v>
       </c>
       <c r="B101">
-        <v>-14.717591363421192</v>
+        <v>14.660662643018645</v>
       </c>
     </row>
     <row r="102">
@@ -1026,7 +1082,7 @@
         <v>1.7453292519943295</v>
       </c>
       <c r="B102">
-        <v>-14.221238053926395</v>
+        <v>14.159129964133413</v>
       </c>
     </row>
     <row r="103">
@@ -1034,7 +1090,7 @@
         <v>1.7627825445142729</v>
       </c>
       <c r="B103">
-        <v>-13.712375817738534</v>
+        <v>13.646113925344162</v>
       </c>
     </row>
     <row r="104">
@@ -1042,7 +1098,7 @@
         <v>1.780235837034216</v>
       </c>
       <c r="B104">
-        <v>-13.192222711908519</v>
+        <v>13.122807843627857</v>
       </c>
     </row>
     <row r="105">
@@ -1050,7 +1106,7 @@
         <v>1.7976891295541593</v>
       </c>
       <c r="B105">
-        <v>-12.662013407606146</v>
+        <v>12.590411415495055</v>
       </c>
     </row>
     <row r="106">
@@ -1058,7 +1114,7 @@
         <v>1.8151424220741028</v>
       </c>
       <c r="B106">
-        <v>-12.122992514335927</v>
+        <v>12.050124994797331</v>
       </c>
     </row>
     <row r="107">
@@ -1066,7 +1122,7 @@
         <v>1.8325957145940461</v>
       </c>
       <c r="B107">
-        <v>-11.576408010211027</v>
+        <v>11.503144085911723</v>
       </c>
     </row>
     <row r="108">
@@ -1074,7 +1130,7 @@
         <v>1.8500490071139892</v>
       </c>
       <c r="B108">
-        <v>-11.023504838057157</v>
+        <v>10.950654083963355</v>
       </c>
     </row>
     <row r="109">
@@ -1082,7 +1138,7 @@
         <v>1.8675022996339325</v>
       </c>
       <c r="B109">
-        <v>-10.465518722833282</v>
+        <v>10.393825289492431</v>
       </c>
     </row>
     <row r="110">
@@ -1090,7 +1146,7 @@
         <v>1.8849555921538759</v>
       </c>
       <c r="B110">
-        <v>-9.9036702608961686</v>
+        <v>9.8338082207925606</v>
       </c>
     </row>
     <row r="111">
@@ -1098,7 +1154,7 @@
         <v>1.902408884673819</v>
       </c>
       <c r="B111">
-        <v>-9.3391593261290229</v>
+        <v>9.2717292430831613</v>
       </c>
     </row>
     <row r="112">
@@ -1106,7 +1162,7 @@
         <v>1.9198621771937625</v>
       </c>
       <c r="B112">
-        <v>-8.773159832034727</v>
+        <v>8.7086865297611151</v>
       </c>
     </row>
     <row r="113">
@@ -1114,7 +1170,7 @@
         <v>1.9373154697137058</v>
       </c>
       <c r="B113">
-        <v>-8.2068148826952427</v>
+        <v>8.1457463672293393</v>
       </c>
     </row>
     <row r="114">
@@ -1122,7 +1178,7 @@
         <v>1.9547687622336491</v>
       </c>
       <c r="B114">
-        <v>-7.6412323391526336</v>
+        <v>7.5839398112404144</v>
       </c>
     </row>
     <row r="115">
@@ -1130,7 +1186,7 @@
         <v>1.9722220547535922</v>
       </c>
       <c r="B115">
-        <v>-7.0774808213992246</v>
+        <v>7.0242596993339026</v>
       </c>
     </row>
     <row r="116">
@@ -1138,7 +1194,7 @@
         <v>1.9896753472735356</v>
       </c>
       <c r="B116">
-        <v>-6.5165861598923485</v>
+        <v>6.4676580207955539</v>
       </c>
     </row>
     <row r="117">
@@ -1146,7 +1202,7 @@
         <v>2.0071286397934789</v>
       </c>
       <c r="B117">
-        <v>-5.9595283044396092</v>
+        <v>5.9150436426313249</v>
       </c>
     </row>
     <row r="118">
@@ -1154,7 +1210,7 @@
         <v>2.0245819323134224</v>
       </c>
       <c r="B118">
-        <v>-5.4072386925253131</v>
+        <v>5.3672803873303545</v>
       </c>
     </row>
     <row r="119">
@@ -1162,7 +1218,7 @@
         <v>2.0420352248333655</v>
       </c>
       <c r="B119">
-        <v>-4.8605980737506584</v>
+        <v>4.8251854556944513</v>
       </c>
     </row>
     <row r="120">
@@ -1170,7 +1226,7 @@
         <v>2.0594885173533086</v>
       </c>
       <c r="B120">
-        <v>-4.3204347821009819</v>
+        <v>4.2895281857347403</v>
       </c>
     </row>
     <row r="121">
@@ -1178,7 +1234,7 @@
         <v>2.0769418098732522</v>
       </c>
       <c r="B121">
-        <v>-3.7875234432856573</v>
+        <v>3.7610291365822244</v>
       </c>
     </row>
     <row r="122">
@@ -1186,7 +1242,7 @@
         <v>2.0943951023931953</v>
       </c>
       <c r="B122">
-        <v>-3.2625841004540557</v>
+        <v>3.240359484526826</v>
       </c>
     </row>
     <row r="123">
@@ -1194,7 +1250,7 @@
         <v>2.1118483949131388</v>
       </c>
       <c r="B123">
-        <v>-2.7462817381955973</v>
+        <v>2.7281407166885154</v>
       </c>
     </row>
     <row r="124">
@@ -1202,7 +1258,7 @@
         <v>2.1293016874330819</v>
       </c>
       <c r="B124">
-        <v>-2.2392261818935313</v>
+        <v>2.2249446064356593</v>
       </c>
     </row>
     <row r="125">
@@ -1210,7 +1266,7 @@
         <v>2.1467549799530254</v>
       </c>
       <c r="B125">
-        <v>-1.7419723472135966</v>
+        <v>1.7312934534947959</v>
       </c>
     </row>
     <row r="126">
@@ -1218,7 +1274,7 @@
         <v>2.1642082724729685</v>
       </c>
       <c r="B126">
-        <v>-1.2550208127591631</v>
+        <v>1.2476605707436401</v>
       </c>
     </row>
     <row r="127">
@@ -1226,7 +1282,7 @@
         <v>2.1816615649929116</v>
       </c>
       <c r="B127">
-        <v>-0.77881868768788864</v>
+        <v>0.77447099893906157</v>
       </c>
     </row>
     <row r="128">
@@ -1234,7 +1290,7 @@
         <v>2.1991148575128552</v>
       </c>
       <c r="B128">
-        <v>-0.31376074533231046</v>
+        <v>0.31210243010105992</v>
       </c>
     </row>
     <row r="129">
@@ -1242,7 +1298,7 @@
         <v>2.2165681500327987</v>
       </c>
       <c r="B129">
-        <v>0.13980920644022207</v>
+        <v>-0.13911368005560368</v>
       </c>
     </row>
     <row r="130">
@@ -1250,7 +1306,7 @@
         <v>2.2340214425527418</v>
       </c>
       <c r="B130">
-        <v>0.58159674729419542</v>
+        <v>-0.57889083038517253</v>
       </c>
     </row>
     <row r="131">
@@ -1258,7 +1314,7 @@
         <v>2.2514747350726849</v>
       </c>
       <c r="B131">
-        <v>1.0113550876256117</v>
+        <v>-1.0069860429635458</v>
       </c>
     </row>
     <row r="132">
@@ -1266,7 +1322,7 @@
         <v>2.2689280275926285</v>
       </c>
       <c r="B132">
-        <v>1.4288831608264718</v>
+        <v>-1.4231983016005598</v>
       </c>
     </row>
     <row r="133">
@@ -1274,7 +1330,7 @@
         <v>2.286381320112572</v>
       </c>
       <c r="B133">
-        <v>1.8340235915019354</v>
+        <v>-1.8273668792992734</v>
       </c>
     </row>
     <row r="134">
@@ -1282,7 +1338,7 @@
         <v>2.3038346126325151</v>
       </c>
       <c r="B134">
-        <v>2.226660565260199</v>
+        <v>-2.2193695732194598</v>
       </c>
     </row>
     <row r="135">
@@ -1290,7 +1346,7 @@
         <v>2.3212879051524582</v>
       </c>
       <c r="B135">
-        <v>2.6067176242483909</v>
+        <v>-2.5991208650417321</v>
       </c>
     </row>
     <row r="136">
@@ -1298,7 +1354,7 @@
         <v>2.3387411976724013</v>
       </c>
       <c r="B136">
-        <v>2.9741554110219393</v>
+        <v>-2.9665700238514159</v>
       </c>
     </row>
     <row r="137">
@@ -1306,7 +1362,7 @@
         <v>2.3561944901923448</v>
       </c>
       <c r="B137">
-        <v>3.328969381651238</v>
+        <v>-3.3216991677863721</v>
       </c>
     </row>
     <row r="138">
@@ -1314,7 +1370,7 @@
         <v>2.3736477827122884</v>
       </c>
       <c r="B138">
-        <v>3.6711875072213651</v>
+        <v>-3.6645212997349752</v>
       </c>
     </row>
     <row r="139">
@@ -1322,7 +1378,7 @@
         <v>2.3911010752322315</v>
       </c>
       <c r="B139">
-        <v>4.0008679811023482</v>
+        <v>-3.9950783313481431</v>
       </c>
     </row>
     <row r="140">
@@ -1330,7 +1386,7 @@
         <v>2.4085543677521746</v>
       </c>
       <c r="B140">
-        <v>4.3180969475861737</v>
+        <v>-4.3134391085579207</v>
       </c>
     </row>
     <row r="141">
@@ -1338,7 +1394,7 @@
         <v>2.4260076602721181</v>
       </c>
       <c r="B141">
-        <v>4.6229862657273664</v>
+        <v>-4.6196974506905111</v>
       </c>
     </row>
     <row r="142">
@@ -1346,7 +1402,7 @@
         <v>2.4434609527920612</v>
       </c>
       <c r="B142">
-        <v>4.9156713205090563</v>
+        <v>-4.9139702141404804</v>
       </c>
     </row>
     <row r="143">
@@ -1354,7 +1410,7 @@
         <v>2.4609142453120043</v>
       </c>
       <c r="B143">
-        <v>5.196308891802162</v>
+        <v>-5.1963953904475408</v>
       </c>
     </row>
     <row r="144">
@@ -1362,7 +1418,7 @@
         <v>2.4783675378319479</v>
       </c>
       <c r="B144">
-        <v>5.4650750900058682</v>
+        <v>-5.4671302475009069</v>
       </c>
     </row>
     <row r="145">
@@ -1370,7 +1426,7 @@
         <v>2.4958208303518914</v>
       </c>
       <c r="B145">
-        <v>5.7221633657661002</v>
+        <v>-5.7263495215021791</v>
       </c>
     </row>
     <row r="146">
@@ -1378,7 +1434,7 @@
         <v>2.5132741228718345</v>
       </c>
       <c r="B146">
-        <v>5.9677825997709171</v>
+        <v>-5.9742436662538658</v>
       </c>
     </row>
     <row r="147">
@@ -1386,7 +1442,7 @@
         <v>2.5307274153917776</v>
       </c>
       <c r="B147">
-        <v>6.2021552773251232</v>
+        <v>-6.2110171653175721</v>
       </c>
     </row>
     <row r="148">
@@ -1394,7 +1450,7 @@
         <v>2.5481807079117211</v>
       </c>
       <c r="B148">
-        <v>6.4255157512140428</v>
+        <v>-6.4368869116107543</v>
       </c>
     </row>
     <row r="149">
@@ -1402,7 +1458,7 @@
         <v>2.5656340004316647</v>
       </c>
       <c r="B149">
-        <v>6.6381085952783572</v>
+        <v>-6.6520806580885266</v>
       </c>
     </row>
     <row r="150">
@@ -1410,7 +1466,7 @@
         <v>2.5830872929516078</v>
       </c>
       <c r="B150">
-        <v>6.8401870501402477</v>
+        <v>-6.8568355422943279</v>
       </c>
     </row>
     <row r="151">
@@ -1418,7 +1474,7 @@
         <v>2.6005405854715509</v>
       </c>
       <c r="B151">
-        <v>7.0320115616412684</v>
+        <v>-7.051396686761163</v>
       </c>
     </row>
     <row r="152">
@@ -1426,7 +1482,7 @@
         <v>2.6179938779914944</v>
       </c>
       <c r="B152">
-        <v>7.2138484117732258</v>
+        <v>-7.2360158765075555</v>
       </c>
     </row>
     <row r="153">
@@ -1434,7 +1490,7 @@
         <v>2.6354471705114375</v>
       </c>
       <c r="B153">
-        <v>7.3859684412002427</v>
+        <v>-7.410950314199968</v>
       </c>
     </row>
     <row r="154">
@@ -1442,7 +1498,7 @@
         <v>2.6529004630313806</v>
       </c>
       <c r="B154">
-        <v>7.5486458618779162</v>
+        <v>-7.5764614529457628</v>
       </c>
     </row>
     <row r="155">
@@ -1450,7 +1506,7 @@
         <v>2.6703537555513241</v>
       </c>
       <c r="B155">
-        <v>7.702157157769296</v>
+        <v>-7.7328139061378875</v>
       </c>
     </row>
     <row r="156">
@@ -1458,7 +1514,7 @@
         <v>2.6878070480712677</v>
       </c>
       <c r="B156">
-        <v>7.8467800712313709</v>
+        <v>-7.8802744332924544</v>
       </c>
     </row>
     <row r="157">
@@ -1466,7 +1522,7 @@
         <v>2.7052603405912108</v>
       </c>
       <c r="B157">
-        <v>7.982792672293769</v>
+        <v>-8.0191110004011925</v>
       </c>
     </row>
     <row r="158">
@@ -1474,7 +1530,7 @@
         <v>2.7227136331111539</v>
       </c>
       <c r="B158">
-        <v>8.1104725077670992</v>
+        <v>-8.1495919129593748</v>
       </c>
     </row>
     <row r="159">
@@ -1482,7 +1538,7 @@
         <v>2.740166925631097</v>
       </c>
       <c r="B159">
-        <v>8.2300958268965676</v>
+        <v>-8.2719850195241449</v>
       </c>
     </row>
     <row r="160">
@@ -1490,7 +1546,7 @@
         <v>2.7576202181510405</v>
       </c>
       <c r="B160">
-        <v>8.3419368801106941</v>
+        <v>-8.3865569834042226</v>
       </c>
     </row>
     <row r="161">
@@ -1498,7 +1554,7 @@
         <v>2.7750735106709841</v>
       </c>
       <c r="B161">
-        <v>8.4462672872982143</v>
+        <v>-8.4935726198752679</v>
       </c>
     </row>
     <row r="162">
@@ -1506,7 +1562,7 @@
         <v>2.7925268031909272</v>
       </c>
       <c r="B162">
-        <v>8.543355471975616</v>
+        <v>-8.5932942961543635</v>
       </c>
     </row>
     <row r="163">
@@ -1514,7 +1570,7 @@
         <v>2.8099800957108703</v>
       </c>
       <c r="B163">
-        <v>8.633466157675425</v>
+        <v>-8.6859813912461572</v>
       </c>
     </row>
     <row r="164">
@@ -1522,7 +1578,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="B164">
-        <v>8.7168599228871457</v>
+        <v>-8.7718898126890927</v>
       </c>
     </row>
     <row r="165">
@@ -1530,7 +1586,7 @@
         <v>2.8448866807507569</v>
       </c>
       <c r="B165">
-        <v>8.7937928109147681</v>
+        <v>-8.8512715671799054</v>
       </c>
     </row>
     <row r="166">
@@ -1538,7 +1594,7 @@
         <v>2.8623399732707</v>
       </c>
       <c r="B166">
-        <v>8.8645159910715368</v>
+        <v>-8.9243743820334682</v>
       </c>
     </row>
     <row r="167">
@@ -1546,7 +1602,7 @@
         <v>2.8797932657906435</v>
       </c>
       <c r="B167">
-        <v>8.9292754677107258</v>
+        <v>-8.9914413744402104</v>
       </c>
     </row>
     <row r="168">
@@ -1554,7 +1610,7 @@
         <v>2.8972465583105871</v>
       </c>
       <c r="B168">
-        <v>8.9883118336869217</v>
+        <v>-9.0527107655113568</v>
       </c>
     </row>
     <row r="169">
@@ -1562,7 +1618,7 @@
         <v>2.9146998508305306</v>
       </c>
       <c r="B169">
-        <v>9.0418600649525036</v>
+        <v>-9.1084156361500686</v>
       </c>
     </row>
     <row r="170">
@@ -1570,7 +1626,7 @@
         <v>2.9321531433504737</v>
       </c>
       <c r="B170">
-        <v>9.0901493531151107</v>
+        <v>-9.1587837218508277</v>
       </c>
     </row>
     <row r="171">
@@ -1578,7 +1634,7 @@
         <v>2.9496064358704168</v>
       </c>
       <c r="B171">
-        <v>9.1334029729120267</v>
+        <v>-9.2040372436079778</v>
       </c>
     </row>
     <row r="172">
@@ -1586,7 +1642,7 @@
         <v>2.9670597283903604</v>
       </c>
       <c r="B172">
-        <v>9.1718381816938805</v>
+        <v>-9.244392772204689</v>
       </c>
     </row>
     <row r="173">
@@ -1594,7 +1650,7 @@
         <v>2.9845130209103035</v>
       </c>
       <c r="B173">
-        <v>9.2056661481504172</v>
+        <v>-9.2800611232526116</v>
       </c>
     </row>
     <row r="174">
@@ -1602,7 +1658,7 @@
         <v>3.0019663134302466</v>
       </c>
       <c r="B174">
-        <v>9.2350919076542155</v>
+        <v>-9.3112472804593107</v>
       </c>
     </row>
     <row r="175">
@@ -1610,7 +1666,7 @@
         <v>3.0194196059501901</v>
       </c>
       <c r="B175">
-        <v>9.2603143417420934</v>
+        <v>-9.3381503447124885</v>
       </c>
     </row>
     <row r="176">
@@ -1618,7 +1674,7 @@
         <v>3.0368728984701332</v>
       </c>
       <c r="B176">
-        <v>9.2815261793971224</v>
+        <v>-9.360963506685426</v>
       </c>
     </row>
     <row r="177">
@@ -1626,7 +1682,7 @@
         <v>3.0543261909900763</v>
       </c>
       <c r="B177">
-        <v>9.298914017936168</v>
+        <v>-9.3798740407863601</v>
       </c>
     </row>
     <row r="178">
@@ -1634,7 +1690,7 @@
         <v>3.0717794835100198</v>
       </c>
       <c r="B178">
-        <v>9.3126583614467044</v>
+        <v>-9.3950633183928787</v>
       </c>
     </row>
     <row r="179">
@@ -1642,7 +1698,7 @@
         <v>3.0892327760299634</v>
       </c>
       <c r="B179">
-        <v>9.3229336748524059</v>
+        <v>-9.4067068384312815</v>
       </c>
     </row>
     <row r="180">
@@ -1650,7 +1706,7 @@
         <v>3.1066860685499069</v>
       </c>
       <c r="B180">
-        <v>9.3299084518188966</v>
+        <v>-9.4149742734784994</v>
       </c>
     </row>
     <row r="181">
@@ -1658,7 +1714,7 @@
         <v>3.12413936106985</v>
       </c>
       <c r="B181">
-        <v>9.3337452948378985</v>
+        <v>-9.420029529679482</v>
       </c>
     </row>
     <row r="182">
@@ -1666,7 +1722,7 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="B182">
-        <v>9.3346010059503506</v>
+        <v>-9.4220308188861583</v>
       </c>
     </row>
     <row r="183">
@@ -1674,7 +1730,7 @@
         <v>3.1590459461097362</v>
       </c>
       <c r="B183">
-        <v>9.3326266866860266</v>
+        <v>-9.4211307415337977</v>
       </c>
     </row>
     <row r="184">
@@ -1682,7 +1738,7 @@
         <v>3.1764992386296798</v>
       </c>
       <c r="B184">
-        <v>9.3279678459086011</v>
+        <v>-9.4174763788767279</v>
       </c>
     </row>
     <row r="185">
@@ -1690,7 +1746,7 @@
         <v>3.1939525311496229</v>
       </c>
       <c r="B185">
-        <v>9.3207645143613931</v>
+        <v>-9.4112093933078018</v>
       </c>
     </row>
     <row r="186">
@@ -1698,7 +1754,7 @@
         <v>3.211405823669566</v>
       </c>
       <c r="B186">
-        <v>9.3111513648089979</v>
+        <v>-9.4024661355835999</v>
       </c>
     </row>
     <row r="187">
@@ -1706,7 +1762,7 @@
         <v>3.2288591161895095</v>
       </c>
       <c r="B187">
-        <v>9.2992578367651983</v>
+        <v>-9.3913777578712256</v>
       </c>
     </row>
     <row r="188">
@@ -1714,7 +1770,7 @@
         <v>3.2463124087094526</v>
       </c>
       <c r="B188">
-        <v>9.2852082648867071</v>
+        <v>-9.3780703316214034</v>
       </c>
     </row>
     <row r="189">
@@ -1722,7 +1778,7 @@
         <v>3.2637657012293966</v>
       </c>
       <c r="B189">
-        <v>9.2691220101959555</v>
+        <v>-9.3626649693568069</v>
       </c>
     </row>
     <row r="190">
@@ -1730,7 +1786,7 @@
         <v>3.2812189937493397</v>
       </c>
       <c r="B190">
-        <v>9.2511135933750932</v>
+        <v>-9.3452779495446503</v>
       </c>
     </row>
     <row r="191">
@@ -1738,7 +1794,7 @@
         <v>3.2986722862692828</v>
       </c>
       <c r="B191">
-        <v>9.2312928294459997</v>
+        <v>-9.3260208437969858</v>
       </c>
     </row>
     <row r="192">
@@ -1746,7 +1802,7 @@
         <v>3.3161255787892263</v>
       </c>
       <c r="B192">
-        <v>9.2097649632203762</v>
+        <v>-9.3050006457136014</v>
       </c>
     </row>
     <row r="193">
@@ -1754,7 +1810,7 @@
         <v>3.3335788713091694</v>
       </c>
       <c r="B193">
-        <v>9.1866308049668923</v>
+        <v>-9.2823199007478365</v>
       </c>
     </row>
     <row r="194">
@@ -1762,7 +1818,7 @@
         <v>3.3510321638291125</v>
       </c>
       <c r="B194">
-        <v>9.1619868658014418</v>
+        <v>-9.2580768365375476</v>
       </c>
     </row>
     <row r="195">
@@ -1770,7 +1826,7 @@
         <v>3.3684854563490561</v>
       </c>
       <c r="B195">
-        <v>9.1359254923614905</v>
+        <v>-9.2323654932012698</v>
       </c>
     </row>
     <row r="196">
@@ -1778,7 +1834,7 @@
         <v>3.3859387488689991</v>
       </c>
       <c r="B196">
-        <v>9.108535000375511</v>
+        <v>-9.2052758531528482</v>
       </c>
     </row>
     <row r="197">
@@ -1786,7 +1842,7 @@
         <v>3.4033920413889422</v>
       </c>
       <c r="B197">
-        <v>9.0798998067851837</v>
+        <v>-9.1768939700375682</v>
       </c>
     </row>
     <row r="198">
@@ -1794,7 +1850,7 @@
         <v>3.4208453339088858</v>
       </c>
       <c r="B198">
-        <v>9.0501005601207574</v>
+        <v>-9.1473020964387413</v>
       </c>
     </row>
     <row r="199">
@@ -1802,7 +1858,7 @@
         <v>3.4382986264288289</v>
       </c>
       <c r="B199">
-        <v>9.019214268869078</v>
+        <v>-9.1165788100460237</v>
       </c>
     </row>
     <row r="200">
@@ -1810,7 +1866,7 @@
         <v>3.4557519189487729</v>
       </c>
       <c r="B200">
-        <v>8.9873144276097783</v>
+        <v>-9.0847991380158284</v>
       </c>
     </row>
     <row r="201">
@@ -1818,7 +1874,7 @@
         <v>3.473205211468716</v>
       </c>
       <c r="B201">
-        <v>8.9544711407277475</v>
+        <v>-9.0520346792898678</v>
       </c>
     </row>
     <row r="202">
@@ -1826,7 +1882,7 @@
         <v>3.4906585039886591</v>
       </c>
       <c r="B202">
-        <v>8.9207512435402521</v>
+        <v>-9.0183537246711314</v>
       </c>
     </row>
     <row r="203">
@@ -1834,7 +1890,7 @@
         <v>3.5081117965086026</v>
       </c>
       <c r="B203">
-        <v>8.886218420703603</v>
+        <v>-8.9838213744859541</v>
       </c>
     </row>
     <row r="204">
@@ -1842,7 +1898,7 @@
         <v>3.5255650890285457</v>
       </c>
       <c r="B204">
-        <v>8.8509333217895847</v>
+        <v>-8.9484996536888826</v>
       </c>
     </row>
     <row r="205">
@@ -1850,7 +1906,7 @@
         <v>3.5430183815484888</v>
       </c>
       <c r="B205">
-        <v>8.814953673943668</v>
+        <v>-8.9124476242915751</v>
       </c>
     </row>
     <row r="206">
@@ -1858,7 +1914,7 @@
         <v>3.5604716740684319</v>
       </c>
       <c r="B206">
-        <v>8.7783343915573333</v>
+        <v>-8.8757214950195902</v>
       </c>
     </row>
     <row r="207">
@@ -1866,7 +1922,7 @@
         <v>3.5779249665883754</v>
       </c>
       <c r="B207">
-        <v>8.7411276829047981</v>
+        <v>-8.8383747281214564</v>
       </c>
     </row>
     <row r="208">
@@ -1874,7 +1930,7 @@
         <v>3.5953782591083185</v>
       </c>
       <c r="B208">
-        <v>8.7033831537109041</v>
+        <v>-8.8004581432729285</v>
       </c>
     </row>
     <row r="209">
@@ -1882,7 +1938,7 @@
         <v>3.6128315516282616</v>
       </c>
       <c r="B209">
-        <v>8.665147907630848</v>
+        <v>-8.7620200185354413</v>
       </c>
     </row>
     <row r="210">
@@ -1890,7 +1946,7 @@
         <v>3.6302848441482056</v>
       </c>
       <c r="B210">
-        <v>8.6264666436361725</v>
+        <v>-8.7231061883434347</v>
       </c>
     </row>
     <row r="211">
@@ -1898,7 +1954,7 @@
         <v>3.6477381366681487</v>
       </c>
       <c r="B211">
-        <v>8.5873817503119891</v>
+        <v>-8.6837601385076155</v>
       </c>
     </row>
     <row r="212">
@@ -1906,7 +1962,7 @@
         <v>3.6651914291880923</v>
       </c>
       <c r="B212">
-        <v>8.5479333970811666</v>
+        <v>-8.6440230982336761</v>
       </c>
     </row>
     <row r="213">
@@ -1914,7 +1970,7 @@
         <v>3.6826447217080354</v>
       </c>
       <c r="B213">
-        <v>8.5081596223798179</v>
+        <v>-8.6039341291661717</v>
       </c>
     </row>
     <row r="214">
@@ -1922,7 +1978,7 @@
         <v>3.7000980142279785</v>
       </c>
       <c r="B214">
-        <v>8.4680964188160139</v>
+        <v>-8.5635302114762961</v>
       </c>
     </row>
     <row r="215">
@@ -1930,7 +1986,7 @@
         <v>3.717551306747922</v>
       </c>
       <c r="B215">
-        <v>8.4277778153508098</v>
+        <v>-8.5228463270208614</v>
       </c>
     </row>
     <row r="216">
@@ -1938,7 +1994,7 @@
         <v>3.7350045992678651</v>
       </c>
       <c r="B216">
-        <v>8.3872359565460126</v>
+        <v>-8.4819155396063106</v>
       </c>
     </row>
     <row r="217">
@@ -1946,7 +2002,7 @@
         <v>3.7524578917878082</v>
       </c>
       <c r="B217">
-        <v>8.3465011789283725</v>
+        <v>-8.4407690723980036</v>
       </c>
     </row>
     <row r="218">
@@ -1954,7 +2010,7 @@
         <v>3.7699111843077517</v>
       </c>
       <c r="B218">
-        <v>8.3056020845237999</v>
+        <v>-8.3994363825200438</v>
       </c>
     </row>
     <row r="219">
@@ -1962,7 +2018,7 @@
         <v>3.7873644768276948</v>
       </c>
       <c r="B219">
-        <v>8.264565611619032</v>
+        <v>-8.3579452328956076</v>
       </c>
     </row>
     <row r="220">
@@ -1970,7 +2026,7 @@
         <v>3.8048177693476379</v>
       </c>
       <c r="B220">
-        <v>8.2234171028105578</v>
+        <v>-8.3163217613810794</v>
       </c>
     </row>
     <row r="221">
@@ -1978,7 +2034,7 @@
         <v>3.8222710618675819</v>
       </c>
       <c r="B221">
-        <v>8.1821803704033709</v>
+        <v>-8.2745905472508152</v>
       </c>
     </row>
     <row r="222">
@@ -1986,7 +2042,7 @@
         <v>3.839724354387525</v>
       </c>
       <c r="B222">
-        <v>8.140877759223434</v>
+        <v>-8.2327746750913917</v>
       </c>
     </row>
     <row r="223">
@@ -1994,7 +2050,7 @@
         <v>3.8571776469074686</v>
       </c>
       <c r="B223">
-        <v>8.0995302069094759</v>
+        <v>-8.1908957961666484</v>
       </c>
     </row>
     <row r="224">
@@ -2002,7 +2058,7 @@
         <v>3.8746309394274117</v>
       </c>
       <c r="B224">
-        <v>8.0581573017502297</v>
+        <v>-8.1489741873158525</v>
       </c>
     </row>
     <row r="225">
@@ -2010,7 +2066,7 @@
         <v>3.8920842319473548</v>
       </c>
       <c r="B225">
-        <v>8.0167773381341103</v>
+        <v>-8.1070288074487991</v>
       </c>
     </row>
     <row r="226">
@@ -2018,7 +2074,7 @@
         <v>3.9095375244672983</v>
       </c>
       <c r="B226">
-        <v>7.9754073696782353</v>
+        <v>-8.0650773517019889</v>
       </c>
     </row>
     <row r="227">
@@ -2026,7 +2082,7 @@
         <v>3.9269908169872414</v>
       </c>
       <c r="B227">
-        <v>7.9340632601039047</v>
+        <v>-8.0231363033207632</v>
       </c>
     </row>
     <row r="228">
@@ -2034,7 +2090,7 @@
         <v>3.9444441095071845</v>
       </c>
       <c r="B228">
-        <v>7.8927597319249827</v>
+        <v>-7.9812209833319274</v>
       </c>
     </row>
     <row r="229">
@@ -2042,7 +2098,7 @@
         <v>3.9618974020271276</v>
       </c>
       <c r="B229">
-        <v>7.851510413015454</v>
+        <v>-7.9393455980715695</v>
       </c>
     </row>
     <row r="230">
@@ -2050,7 +2106,7 @@
         <v>3.9793506945470711</v>
       </c>
       <c r="B230">
-        <v>7.8103278811212205</v>
+        <v>-7.8975232846319505</v>
       </c>
     </row>
     <row r="231">
@@ -2058,7 +2114,7 @@
         <v>3.9968039870670142</v>
       </c>
       <c r="B231">
-        <v>7.7692237063807914</v>
+        <v>-7.8557661542911523</v>
       </c>
     </row>
     <row r="232">
@@ -2066,7 +2122,7 @@
         <v>4.0142572795869578</v>
       </c>
       <c r="B232">
-        <v>7.7282084919179246</v>
+        <v>-7.814085333987828</v>
       </c>
     </row>
     <row r="233">
@@ -2074,7 +2130,7 @@
         <v>4.0317105721069018</v>
       </c>
       <c r="B233">
-        <v>7.6872919125685542</v>
+        <v>-7.7724910059029177</v>
       </c>
     </row>
     <row r="234">
@@ -2082,7 +2138,7 @@
         <v>4.0491638646268449</v>
       </c>
       <c r="B234">
-        <v>7.6464827518026519</v>
+        <v>-7.7309924452086802</v>
       </c>
     </row>
     <row r="235">
@@ -2090,7 +2146,7 @@
         <v>4.066617157146788</v>
       </c>
       <c r="B235">
-        <v>7.6057889369005425</v>
+        <v>-7.6895980560444173</v>
       </c>
     </row>
     <row r="236">
@@ -2098,7 +2154,7 @@
         <v>4.0840704496667311</v>
       </c>
       <c r="B236">
-        <v>7.5652175724415489</v>
+        <v>-7.6483154057768115</v>
       </c>
     </row>
     <row r="237">
@@ -2106,7 +2162,7 @@
         <v>4.1015237421866741</v>
       </c>
       <c r="B237">
-        <v>7.5247749721614587</v>
+        <v>-7.6071512576014779</v>
       </c>
     </row>
     <row r="238">
@@ -2114,7 +2170,7 @@
         <v>4.1189770347066172</v>
       </c>
       <c r="B238">
-        <v>7.4844666892336358</v>
+        <v>-7.5661116015408334</v>
       </c>
     </row>
     <row r="239">
@@ -2122,7 +2178,7 @@
         <v>4.1364303272265612</v>
       </c>
       <c r="B239">
-        <v>7.4442975450269389</v>
+        <v>-7.5252016838917744</v>
       </c>
     </row>
     <row r="240">
@@ -2130,7 +2186,7 @@
         <v>4.1538836197465043</v>
       </c>
       <c r="B240">
-        <v>7.4042716563921909</v>
+        <v>-7.4844260351753267</v>
       </c>
     </row>
     <row r="241">
@@ -2138,7 +2194,7 @@
         <v>4.1713369122664474</v>
       </c>
       <c r="B241">
-        <v>7.3643924615269212</v>
+        <v>-7.4437884966384793</v>
       </c>
     </row>
     <row r="242">
@@ -2146,7 +2202,7 @@
         <v>4.1887902047863905</v>
       </c>
       <c r="B242">
-        <v>7.324662744466889</v>
+        <v>-7.4032922453572523</v>
       </c>
     </row>
     <row r="243">
@@ -2154,7 +2210,7 @@
         <v>4.2062434973063345</v>
       </c>
       <c r="B243">
-        <v>7.2850846582507334</v>
+        <v>-7.3629398179879111</v>
       </c>
     </row>
     <row r="244">
@@ -2162,7 +2218,7 @@
         <v>4.2236967898262776</v>
       </c>
       <c r="B244">
-        <v>7.2456597468028843</v>
+        <v>-7.322733133212096</v>
       </c>
     </row>
     <row r="245">
@@ -2170,7 +2226,7 @@
         <v>4.2411500823462207</v>
       </c>
       <c r="B245">
-        <v>7.2063889655778191</v>
+        <v>-7.2826735129195743</v>
       </c>
     </row>
     <row r="246">
@@ -2178,7 +2234,7 @@
         <v>4.2586033748661638</v>
       </c>
       <c r="B246">
-        <v>7.167272701007402</v>
+        <v>-7.242761702171018</v>
       </c>
     </row>
     <row r="247">
@@ -2186,7 +2242,7 @@
         <v>4.2760566673861069</v>
       </c>
       <c r="B247">
-        <v>7.1283107887911648</v>
+        <v>-7.2029978879813363</v>
       </c>
     </row>
     <row r="248">
@@ -2194,7 +2250,7 @@
         <v>4.2935099599060509</v>
       </c>
       <c r="B248">
-        <v>7.0895025310679962</v>
+        <v>-7.1633817169626957</v>
       </c>
     </row>
     <row r="249">
@@ -2202,7 +2258,7 @@
         <v>4.310963252425994</v>
       </c>
       <c r="B249">
-        <v>7.0508467125059111</v>
+        <v>-7.1239123118645784</v>
       </c>
     </row>
     <row r="250">
@@ -2210,7 +2266,7 @@
         <v>4.3284165449459371</v>
       </c>
       <c r="B250">
-        <v>7.0123416153451661</v>
+        <v>-7.0845882870468211</v>
       </c>
     </row>
     <row r="251">
@@ -2218,7 +2274,7 @@
         <v>4.3458698374658802</v>
       </c>
       <c r="B251">
-        <v>6.9739850334283027</v>
+        <v>-7.0454077629198606</v>
       </c>
     </row>
     <row r="252">
@@ -2226,7 +2282,7 @@
         <v>4.3633231299858233</v>
       </c>
       <c r="B252">
-        <v>6.9357742852493702</v>
+        <v>-7.0063683793851093</v>
       </c>
     </row>
     <row r="253">
@@ -2234,7 +2290,7 @@
         <v>4.3807764225057673</v>
       </c>
       <c r="B253">
-        <v>6.8977062260529083</v>
+        <v>-6.9674673083066478</v>
       </c>
     </row>
     <row r="254">
@@ -2242,7 +2298,7 @@
         <v>4.3982297150257104</v>
       </c>
       <c r="B254">
-        <v>6.8597772590119144</v>
+        <v>-6.9287012650441122</v>
       </c>
     </row>
     <row r="255">
@@ -2250,7 +2306,7 @@
         <v>4.4156830075456535</v>
       </c>
       <c r="B255">
-        <v>6.8219833455126828</v>
+        <v>-6.8900665190752139</v>
       </c>
     </row>
     <row r="256">
@@ -2258,7 +2314,7 @@
         <v>4.4331363000655974</v>
       </c>
       <c r="B256">
-        <v>6.7843200145728231</v>
+        <v>-6.8515589037348175</v>
       </c>
     </row>
     <row r="257">
@@ -2266,7 +2322,7 @@
         <v>4.4505895925855405</v>
       </c>
       <c r="B257">
-        <v>6.7467823714176198</v>
+        <v>-6.8131738250962517</v>
       </c>
     </row>
     <row r="258">
@@ -2274,7 +2330,7 @@
         <v>4.4680428851054836</v>
       </c>
       <c r="B258">
-        <v>6.7093651052383958</v>
+        <v>-6.7749062700190663</v>
       </c>
     </row>
     <row r="259">
@@ -2282,7 +2338,7 @@
         <v>4.4854961776254267</v>
       </c>
       <c r="B259">
-        <v>6.6720624961554718</v>
+        <v>-6.7367508133862977</v>
       </c>
     </row>
     <row r="260">
@@ -2290,7 +2346,7 @@
         <v>4.5029494701453698</v>
       </c>
       <c r="B260">
-        <v>6.6348684214068987</v>
+        <v>-6.6987016245529061</v>
       </c>
     </row>
     <row r="261">
@@ -2298,7 +2354,7 @@
         <v>4.5204027626653129</v>
       </c>
       <c r="B261">
-        <v>6.5977763607828557</v>
+        <v>-6.6607524730257044</v>
       </c>
     </row>
     <row r="262">
@@ -2306,7 +2362,7 @@
         <v>4.5378560551852569</v>
       </c>
       <c r="B262">
-        <v>6.5607794013248082</v>
+        <v>-6.6228967333942714</v>
       </c>
     </row>
     <row r="263">
@@ -2314,7 +2370,7 @@
         <v>4.5553093477052</v>
       </c>
       <c r="B263">
-        <v>6.5238702413068719</v>
+        <v>-6.5851273895306788</v>
       </c>
     </row>
     <row r="264">
@@ -2322,7 +2378,7 @@
         <v>4.572762640225144</v>
       </c>
       <c r="B264">
-        <v>6.487041193516105</v>
+        <v>-6.5474370380750875</v>
       </c>
     </row>
     <row r="265">
@@ -2330,7 +2386,7 @@
         <v>4.5902159327450871</v>
       </c>
       <c r="B265">
-        <v>6.4502841878471999</v>
+        <v>-6.5098178912229789</v>
       </c>
     </row>
     <row r="266">
@@ -2338,7 +2394,7 @@
         <v>4.6076692252650302</v>
       </c>
       <c r="B266">
-        <v>6.4135907732260096</v>
+        <v>-6.472261778828746</v>
       </c>
     </row>
     <row r="267">
@@ -2346,7 +2402,7 @@
         <v>4.6251225177849733</v>
       </c>
       <c r="B267">
-        <v>6.3769521188753444</v>
+        <v>-6.4347601498392857</v>
       </c>
     </row>
     <row r="268">
@@ -2354,7 +2410,7 @@
         <v>4.6425758103049164</v>
       </c>
       <c r="B268">
-        <v>6.3403590149356273</v>
+        <v>-6.3973040730703978</v>
       </c>
     </row>
     <row r="269">
@@ -2362,7 +2418,7 @@
         <v>4.6600291028248595</v>
       </c>
       <c r="B269">
-        <v>6.3038018724517357</v>
+        <v>-6.3598842373374573</v>
       </c>
     </row>
     <row r="270">
@@ -2370,7 +2426,7 @@
         <v>4.6774823953448026</v>
       </c>
       <c r="B270">
-        <v>6.2672707227367912</v>
+        <v>-6.3224909509512486</v>
       </c>
     </row>
     <row r="271">
@@ -2378,7 +2434,7 @@
         <v>4.6949356878647466</v>
       </c>
       <c r="B271">
-        <v>6.2307552161225876</v>
+        <v>-6.2851141405887265</v>
       </c>
     </row>
     <row r="272">
@@ -2386,7 +2442,7 @@
         <v>4.7123889803846897</v>
       </c>
       <c r="B272">
-        <v>6.194244620105458</v>
+        <v>-6.247743349547525</v>
       </c>
     </row>
     <row r="273">
@@ -2394,7 +2450,7 @@
         <v>4.7298422729046328</v>
       </c>
       <c r="B273">
-        <v>6.157727816895715</v>
+        <v>-6.2103677353923699</v>
       </c>
     </row>
     <row r="274">
@@ -2402,7 +2458,7 @@
         <v>4.7472955654245768</v>
       </c>
       <c r="B274">
-        <v>6.1211933003779464</v>
+        <v>-6.1729760670005804</v>
       </c>
     </row>
     <row r="275">
@@ -2410,7 +2466,7 @@
         <v>4.7647488579445199</v>
       </c>
       <c r="B275">
-        <v>6.0846291724885262</v>
+        <v>-6.1355567210129616</v>
       </c>
     </row>
     <row r="276">
@@ -2418,7 +2474,7 @@
         <v>4.782202150464463</v>
       </c>
       <c r="B276">
-        <v>6.0480231390163839</v>
+        <v>-6.098097677695959</v>
       </c>
     </row>
     <row r="277">
@@ -2426,7 +2482,7 @@
         <v>4.7996554429844061</v>
       </c>
       <c r="B277">
-        <v>6.011362504831804</v>
+        <v>-6.0605865162196562</v>
       </c>
     </row>
     <row r="278">
@@ -2434,7 +2490,7 @@
         <v>4.8171087355043491</v>
       </c>
       <c r="B278">
-        <v>5.9746341685480102</v>
+        <v>-6.023010409356127</v>
       </c>
     </row>
     <row r="279">
@@ -2442,7 +2498,7 @@
         <v>4.8345620280242931</v>
       </c>
       <c r="B279">
-        <v>5.9378246166191424</v>
+        <v>-5.9853561176014418</v>
       </c>
     </row>
     <row r="280">
@@ -2450,7 +2506,7 @@
         <v>4.8520153205442362</v>
       </c>
       <c r="B280">
-        <v>5.9009199168778101</v>
+        <v>-5.9476099827241677</v>
       </c>
     </row>
     <row r="281">
@@ -2458,7 +2514,7 @@
         <v>4.8694686130641793</v>
       </c>
       <c r="B281">
-        <v>5.863905711515141</v>
+        <v>-5.909757920742849</v>
       </c>
     </row>
     <row r="282">
@@ -2466,7 +2522,7 @@
         <v>4.8869219055841224</v>
       </c>
       <c r="B282">
-        <v>5.826767209505098</v>
+        <v>-5.8717854143337842</v>
       </c>
     </row>
     <row r="283">
@@ -2474,7 +2530,7 @@
         <v>4.9043751981040655</v>
       </c>
       <c r="B283">
-        <v>5.7894891784750211</v>
+        <v>-5.8336775046705123</v>
       </c>
     </row>
     <row r="284">
@@ -2482,7 +2538,7 @@
         <v>4.9218284906240086</v>
       </c>
       <c r="B284">
-        <v>5.7520559360233996</v>
+        <v>-5.7954187826954024</v>
       </c>
     </row>
     <row r="285">
@@ -2490,7 +2546,7 @@
         <v>4.9392817831439526</v>
       </c>
       <c r="B285">
-        <v>5.7144513404858257</v>
+        <v>-5.7569933798236441</v>
       </c>
     </row>
     <row r="286">
@@ -2498,7 +2554,7 @@
         <v>4.9567350756638957</v>
       </c>
       <c r="B286">
-        <v>5.6766587811493059</v>
+        <v>-5.7183849580790422</v>
       </c>
     </row>
     <row r="287">
@@ -2506,7 +2562,7 @@
         <v>4.9741883681838397</v>
       </c>
       <c r="B287">
-        <v>5.6386611679153456</v>
+        <v>-5.6795766996612347</v>
       </c>
     </row>
     <row r="288">
@@ -2514,7 +2570,7 @@
         <v>4.9916416607037828</v>
       </c>
       <c r="B288">
-        <v>5.6004409204113514</v>
+        <v>-5.6405512959429656</v>
       </c>
     </row>
     <row r="289">
@@ -2522,7 +2578,7 @@
         <v>5.0090949532237259</v>
       </c>
       <c r="B289">
-        <v>5.561979956550096</v>
+        <v>-5.6012909358961585</v>
       </c>
     </row>
     <row r="290">
@@ -2530,7 +2586,7 @@
         <v>5.026548245743669</v>
       </c>
       <c r="B290">
-        <v>5.5232596805365315</v>
+        <v>-5.5617772939450258</v>
       </c>
     </row>
     <row r="291">
@@ -2538,7 +2594,7 @@
         <v>5.0440015382636121</v>
       </c>
       <c r="B291">
-        <v>5.4842609703213352</v>
+        <v>-5.5219915172444072</v>
       </c>
     </row>
     <row r="292">
@@ -2546,7 +2602,7 @@
         <v>5.0614548307835552</v>
       </c>
       <c r="B292">
-        <v>5.4449641645003091</v>
+        <v>-5.481914212381187</v>
       </c>
     </row>
     <row r="293">
@@ -2554,7 +2610,7 @@
         <v>5.0789081233034983</v>
       </c>
       <c r="B293">
-        <v>5.4053490486587314</v>
+        <v>-5.4415254314965447</v>
       </c>
     </row>
     <row r="294">
@@ -2562,7 +2618,7 @@
         <v>5.0963614158234423</v>
       </c>
       <c r="B294">
-        <v>5.3653948411601533</v>
+        <v>-5.4008046578269964</v>
       </c>
     </row>
     <row r="295">
@@ -2570,7 +2626,7 @@
         <v>5.1138147083433854</v>
       </c>
       <c r="B295">
-        <v>5.3250801783785908</v>
+        <v>-5.3597307906616374</v>
       </c>
     </row>
     <row r="296">
@@ -2578,7 +2634,7 @@
         <v>5.1312680008633293</v>
       </c>
       <c r="B296">
-        <v>5.2843830993740202</v>
+        <v>-5.3182821297137224</v>
       </c>
     </row>
     <row r="297">
@@ -2586,7 +2642,7 @@
         <v>5.1487212933832724</v>
       </c>
       <c r="B297">
-        <v>5.2432810300107597</v>
+        <v>-5.2764363589043297</v>
       </c>
     </row>
     <row r="298">
@@ -2594,7 +2650,7 @@
         <v>5.1661745859032155</v>
       </c>
       <c r="B298">
-        <v>5.2017507665188507</v>
+        <v>-5.2341705295562502</v>
       </c>
     </row>
     <row r="299">
@@ -2602,7 +2658,7 @@
         <v>5.1836278784231586</v>
       </c>
       <c r="B299">
-        <v>5.1597684584992436</v>
+        <v>-5.1914610429967443</v>
       </c>
     </row>
     <row r="300">
@@ -2610,7 +2666,7 @@
         <v>5.2010811709431017</v>
       </c>
       <c r="B300">
-        <v>5.1173095913736217</v>
+        <v>-5.1482836325677344</v>
       </c>
     </row>
     <row r="301">
@@ -2618,7 +2674,7 @@
         <v>5.2185344634630448</v>
       </c>
       <c r="B301">
-        <v>5.0743489682808844</v>
+        <v>-5.1046133450430089</v>
       </c>
     </row>
     <row r="302">
@@ -2626,7 +2682,7 @@
         <v>5.2359877559829888</v>
       </c>
       <c r="B302">
-        <v>5.0308606914224958</v>
+        <v>-5.0604245214520027</v>
       </c>
     </row>
     <row r="303">
@@ -2634,7 +2690,7 @@
         <v>5.2534410485029319</v>
       </c>
       <c r="B303">
-        <v>4.9868181428604395</v>
+        <v>-5.0156907773111534</v>
       </c>
     </row>
     <row r="304">
@@ -2642,7 +2698,7 @@
         <v>5.270894341022875</v>
       </c>
       <c r="B304">
-        <v>4.9421939647717466</v>
+        <v>-4.970384982263754</v>
       </c>
     </row>
     <row r="305">
@@ -2650,7 +2706,7 @@
         <v>5.2883476335428181</v>
       </c>
       <c r="B305">
-        <v>4.8969600391652977</v>
+        <v>-4.9244792391308936</v>
       </c>
     </row>
     <row r="306">
@@ -2658,7 +2714,7 @@
         <v>5.3058009260627612</v>
       </c>
       <c r="B306">
-        <v>4.851087467067674</v>
+        <v>-4.8779448623768245</v>
       </c>
     </row>
     <row r="307">
@@ -2666,7 +2722,7 @@
         <v>5.3232542185827052</v>
       </c>
       <c r="B307">
-        <v>4.8045465471861686</v>
+        <v>-4.8307523559932886</v>
       </c>
     </row>
     <row r="308">
@@ -2674,7 +2730,7 @@
         <v>5.3407075111026483</v>
       </c>
       <c r="B308">
-        <v>4.7573067540587415</v>
+        <v>-4.7828713908087668</v>
       </c>
     </row>
     <row r="309">
@@ -2682,7 +2738,7 @@
         <v>5.3581608036225914</v>
       </c>
       <c r="B309">
-        <v>4.7093367157026105</v>
+        <v>-4.7342707812302498</v>
       </c>
     </row>
     <row r="310">
@@ -2690,7 +2746,7 @@
         <v>5.3756140961425354</v>
       </c>
       <c r="B310">
-        <v>4.6606041907748965</v>
+        <v>-4.6849184614266539</v>
       </c>
     </row>
     <row r="311">
@@ -2698,7 +2754,7 @@
         <v>5.3930673886624785</v>
       </c>
       <c r="B311">
-        <v>4.6110760452612416</v>
+        <v>-4.6347814609652112</v>
       </c>
     </row>
     <row r="312">
@@ -2706,7 +2762,7 @@
         <v>5.4105206811824216</v>
       </c>
       <c r="B312">
-        <v>4.5607182287104671</v>
+        <v>-4.5838258799140519</v>
       </c>
     </row>
     <row r="313">
@@ -2714,7 +2770,7 @@
         <v>5.4279739737023647</v>
       </c>
       <c r="B313">
-        <v>4.5094957500360771</v>
+        <v>-4.532016863426664</v>
       </c>
     </row>
     <row r="314">
@@ -2722,7 +2778,7 @@
         <v>5.4454272662223078</v>
       </c>
       <c r="B314">
-        <v>4.4573726529085196</v>
+        <v>-4.4793185758266922</v>
       </c>
     </row>
     <row r="315">
@@ -2730,7 +2786,7 @@
         <v>5.4628805587422509</v>
       </c>
       <c r="B315">
-        <v>4.4043119907649748</v>
+        <v>-4.4256941742141462</v>
       </c>
     </row>
     <row r="316">
@@ -2738,7 +2794,7 @@
         <v>5.480333851262194</v>
       </c>
       <c r="B316">
-        <v>4.3502758014672391</v>
+        <v>-4.3711057816175094</v>
       </c>
     </row>
     <row r="317">
@@ -2746,7 +2802,7 @@
         <v>5.497787143782138</v>
       </c>
       <c r="B317">
-        <v>4.2952250816419904</v>
+        <v>-4.3155144597196946</v>
       </c>
     </row>
     <row r="318">
@@ -2754,7 +2810,7 @@
         <v>5.5152404363020811</v>
       </c>
       <c r="B318">
-        <v>4.2391197607417181</v>
+        <v>-4.2588801811894159</v>
       </c>
     </row>
     <row r="319">
@@ -2762,7 +2818,7 @@
         <v>5.532693728822025</v>
       </c>
       <c r="B319">
-        <v>4.1819186748693982</v>
+        <v>-4.2011618016540169</v>
       </c>
     </row>
     <row r="320">
@@ -2770,7 +2826,7 @@
         <v>5.5501470213419681</v>
       </c>
       <c r="B320">
-        <v>4.1235795404147488</v>
+        <v>-4.1423170313542084</v>
       </c>
     </row>
     <row r="321">
@@ -2778,7 +2834,7 @@
         <v>5.5676003138619112</v>
       </c>
       <c r="B321">
-        <v>4.0640589275552115</v>
+        <v>-4.0823024065261286</v>
       </c>
     </row>
     <row r="322">
@@ -2786,7 +2842,7 @@
         <v>5.5850536063818543</v>
       </c>
       <c r="B322">
-        <v>4.003312233680572</v>
+        <v>-4.0210732605615469</v>
       </c>
     </row>
     <row r="323">
@@ -2794,7 +2850,7 @@
         <v>5.6025068989017974</v>
       </c>
       <c r="B323">
-        <v>3.9412936568066126</v>
+        <v>-3.9585836950031679</v>
       </c>
     </row>
     <row r="324">
@@ -2802,7 +2858,7 @@
         <v>5.6199601914217405</v>
       </c>
       <c r="B324">
-        <v>3.8779561690494839</v>
+        <v>-3.8947865504379298</v>
       </c>
     </row>
     <row r="325">
@@ -2810,7 +2866,7 @@
         <v>5.6374134839416845</v>
       </c>
       <c r="B325">
-        <v>3.8132514902402082</v>
+        <v>-3.8296333773585878</v>
       </c>
     </row>
     <row r="326">
@@ -2818,7 +2874,7 @@
         <v>5.6548667764616276</v>
       </c>
       <c r="B326">
-        <v>3.7471300617663861</v>
+        <v>-3.7630744070711866</v>
       </c>
     </row>
     <row r="327">
@@ -2826,7 +2882,7 @@
         <v>5.6723200689815707</v>
       </c>
       <c r="B327">
-        <v>3.6795410207364747</v>
+        <v>-3.6950585227340174</v>
       </c>
     </row>
     <row r="328">
@@ -2834,7 +2890,7 @@
         <v>5.6897733615015138</v>
       </c>
       <c r="B328">
-        <v>3.6104321745714523</v>
+        <v>-3.6255332306228056</v>
       </c>
     </row>
     <row r="329">
@@ -2842,7 +2898,7 @@
         <v>5.7072266540214578</v>
       </c>
       <c r="B329">
-        <v>3.5397499761381641</v>
+        <v>-3.5544446317260938</v>
       </c>
     </row>
     <row r="330">
@@ -2850,7 +2906,7 @@
         <v>5.7246799465414</v>
       </c>
       <c r="B330">
-        <v>3.4674394995491595</v>
+        <v>-3.4817373937850671</v>
       </c>
     </row>
     <row r="331">
@@ -2858,7 +2914,7 @@
         <v>5.742133239061344</v>
       </c>
       <c r="B331">
-        <v>3.393444416765242</v>
+        <v>-3.4073547239032975</v>
       </c>
     </row>
     <row r="332">
@@ -2866,7 +2922,7 @@
         <v>5.7595865315812871</v>
       </c>
       <c r="B332">
-        <v>3.3177069751487864</v>
+        <v>-3.3312383418636018</v>
       </c>
     </row>
     <row r="333">
@@ -2874,7 +2930,7 @@
         <v>5.7770398241012311</v>
       </c>
       <c r="B333">
-        <v>3.240167976128701</v>
+        <v>-3.2533284543019545</v>
       </c>
     </row>
     <row r="334">
@@ -2882,7 +2938,7 @@
         <v>5.7944931166211742</v>
       </c>
       <c r="B334">
-        <v>3.1607667551519838</v>
+        <v>-3.1735637299024999</v>
       </c>
     </row>
     <row r="335">
@@ -2890,7 +2946,7 @@
         <v>5.8119464091411173</v>
       </c>
       <c r="B335">
-        <v>3.0794411631110354</v>
+        <v>-3.0918812757920482</v>
       </c>
     </row>
     <row r="336">
@@ -2898,7 +2954,7 @@
         <v>5.8293997016610613</v>
       </c>
       <c r="B336">
-        <v>2.9961275494517539</v>
+        <v>-3.0082166153285224</v>
       </c>
     </row>
     <row r="337">
@@ -2906,7 +2962,7 @@
         <v>5.8468529941810035</v>
       </c>
       <c r="B337">
-        <v>2.9107607471841188</v>
+        <v>-2.9225036674948877</v>
       </c>
     </row>
     <row r="338">
@@ -2914,7 +2970,7 @@
         <v>5.8643062867009474</v>
       </c>
       <c r="B338">
-        <v>2.8232740600342612</v>
+        <v>-2.8346747281279008</v>
       </c>
     </row>
     <row r="339">
@@ -2922,7 +2978,7 @@
         <v>5.8817595792208897</v>
       </c>
       <c r="B339">
-        <v>2.7335992519963526</v>
+        <v>-2.7446604532310768</v>
       </c>
     </row>
     <row r="340">
@@ -2930,7 +2986,7 @@
         <v>5.8992128717408336</v>
       </c>
       <c r="B340">
-        <v>2.6416665395617089</v>
+        <v>-2.6523898446412462</v>
       </c>
     </row>
     <row r="341">
@@ -2938,7 +2994,7 @@
         <v>5.9166661642607767</v>
       </c>
       <c r="B341">
-        <v>2.5474045869242912</v>
+        <v>-2.5577902383410347</v>
       </c>
     </row>
     <row r="342">
@@ -2946,7 +3002,7 @@
         <v>5.9341194567807207</v>
       </c>
       <c r="B342">
-        <v>2.4507405044834059</v>
+        <v>-2.4607872957326751</v>
       </c>
     </row>
     <row r="343">
@@ -2954,7 +3010,7 @@
         <v>5.9515727493006629</v>
       </c>
       <c r="B343">
-        <v>2.3515998509880101</v>
+        <v>-2.3613049982139347</v>
       </c>
     </row>
     <row r="344">
@@ -2962,7 +3018,7 @@
         <v>5.9690260418206069</v>
       </c>
       <c r="B344">
-        <v>2.2499066396916554</v>
+        <v>-2.2592656454237146</v>
       </c>
     </row>
     <row r="345">
@@ -2970,7 +3026,7 @@
         <v>5.9864793343405509</v>
       </c>
       <c r="B345">
-        <v>2.1455833489129814</v>
+        <v>-2.1545898575533307</v>
       </c>
     </row>
     <row r="346">
@@ -2978,7 +3034,7 @@
         <v>6.0039326268604931</v>
       </c>
       <c r="B346">
-        <v>2.0385509374235391</v>
+        <v>-2.0471965821493914</v>
       </c>
     </row>
     <row r="347">
@@ -2986,7 +3042,7 @@
         <v>6.0213859193804371</v>
       </c>
       <c r="B347">
-        <v>1.9287288651134626</v>
+        <v>-1.9370031058665143</v>
       </c>
     </row>
     <row r="348">
@@ -2994,7 +3050,7 @@
         <v>6.0388392119003802</v>
       </c>
       <c r="B348">
-        <v>1.8160351194147963</v>
+        <v>-1.8239250716616164</v>
       </c>
     </row>
     <row r="349">
@@ -3002,7 +3058,7 @@
         <v>6.0562925044203233</v>
       </c>
       <c r="B349">
-        <v>1.7003862479931993</v>
+        <v>-1.7078765019573103</v>
       </c>
     </row>
     <row r="350">
@@ -3010,7 +3066,7 @@
         <v>6.0737457969402664</v>
       </c>
       <c r="B350">
-        <v>1.5816973982507274</v>
+        <v>-1.5887698283395681</v>
       </c>
     </row>
     <row r="351">
@@ -3018,7 +3074,7 @@
         <v>6.0911990894602104</v>
       </c>
       <c r="B351">
-        <v>1.4598823642153487</v>
+        <v>-1.4665159283943017</v>
       </c>
     </row>
     <row r="352">
@@ -3026,7 +3082,7 @@
         <v>6.1086523819801526</v>
       </c>
       <c r="B352">
-        <v>1.3348536414272958</v>
+        <v>-1.3410241703294257</v>
       </c>
     </row>
     <row r="353">
@@ -3034,7 +3090,7 @@
         <v>6.1261056745000966</v>
       </c>
       <c r="B353">
-        <v>1.2065224904668126</v>
+        <v>-1.2122024660719792</v>
       </c>
     </row>
     <row r="354">
@@ -3042,7 +3098,7 @@
         <v>6.1435589670200397</v>
       </c>
       <c r="B354">
-        <v>1.074799009804519</v>
+        <v>-1.0799573335762751</v>
       </c>
     </row>
     <row r="355">
@@ -3050,7 +3106,7 @@
         <v>6.1610122595399828</v>
       </c>
       <c r="B355">
-        <v>0.93959221869131004</v>
+        <v>-0.94419396912576736</v>
       </c>
     </row>
     <row r="356">
@@ -3058,7 +3114,7 @@
         <v>6.1784655520599268</v>
       </c>
       <c r="B356">
-        <v>0.800810150842443</v>
+        <v>-0.80481633046152845</v>
       </c>
     </row>
     <row r="357">
@@ -3066,7 +3122,7 @@
         <v>6.1959188445798699</v>
       </c>
       <c r="B357">
-        <v>0.65835995970739336</v>
+        <v>-0.66172723162116709</v>
       </c>
     </row>
     <row r="358">
@@ -3074,7 +3130,7 @@
         <v>6.2133721370998138</v>
       </c>
       <c r="B358">
-        <v>0.51214803615439364</v>
+        <v>-0.51482845042506253</v>
       </c>
     </row>
     <row r="359">
@@ -3082,7 +3138,7 @@
         <v>6.2308254296197561</v>
       </c>
       <c r="B359">
-        <v>0.36208013943590744</v>
+        <v>-0.36402084960166248</v>
       </c>
     </row>
     <row r="360">
@@ -3090,7 +3146,7 @@
         <v>6.2482787221397</v>
       </c>
       <c r="B360">
-        <v>0.20806154233728744</v>
+        <v>-0.20920451259907838</v>
       </c>
     </row>
     <row r="361">
@@ -3098,7 +3154,7 @@
         <v>6.2657320146596422</v>
       </c>
       <c r="B361">
-        <v>0.049997191447030846</v>
+        <v>-0.050278895187946156</v>
       </c>
     </row>
     <row r="362">
@@ -3106,7 +3162,7 @@
         <v>6.2831853071795862</v>
       </c>
       <c r="B362">
-        <v>-0.11220811647973059</v>
+        <v>0.11285700598250516</v>
       </c>
     </row>
   </sheetData>
